--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82701F4A-880A-4898-A876-E34D62010DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC87BD4-A08E-495B-8912-B02CC5C9F2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Test case ID</t>
   </si>
@@ -80,45 +80,6 @@
   </si>
   <si>
     <t>Validate login with empty username &amp; passowrd for client account</t>
-  </si>
-  <si>
-    <t>TC_Logina001</t>
-  </si>
-  <si>
-    <t>TC_Logina002</t>
-  </si>
-  <si>
-    <t>TC_Logina003</t>
-  </si>
-  <si>
-    <t>TC_Logina004</t>
-  </si>
-  <si>
-    <t>TC_Logina005</t>
-  </si>
-  <si>
-    <t>TC_Logina006</t>
-  </si>
-  <si>
-    <t>TC_Logina007</t>
-  </si>
-  <si>
-    <t>TC_Logina008</t>
-  </si>
-  <si>
-    <t>TC_Logina009</t>
-  </si>
-  <si>
-    <t>TC_Logina010</t>
-  </si>
-  <si>
-    <t>TC_Logina011</t>
-  </si>
-  <si>
-    <t>TC_Logina012</t>
-  </si>
-  <si>
-    <t>TC_Logina013</t>
   </si>
   <si>
     <t>1-open browser
@@ -226,6 +187,56 @@
 2-Enter invalid username in the username field
 3-Enetr invalid password in the password field
 4-click login button  </t>
+  </si>
+  <si>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>TC_Login_002</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_004</t>
+  </si>
+  <si>
+    <t>TC_Login_005</t>
+  </si>
+  <si>
+    <t>TC_Login_006</t>
+  </si>
+  <si>
+    <t>TC_Login_007</t>
+  </si>
+  <si>
+    <t>TC_Login_008</t>
+  </si>
+  <si>
+    <t>TC_Login_009</t>
+  </si>
+  <si>
+    <t>TC_Login_010</t>
+  </si>
+  <si>
+    <t>TC_Login_011</t>
+  </si>
+  <si>
+    <t>TC_Login_012</t>
+  </si>
+  <si>
+    <t>TC_Login_013</t>
+  </si>
+  <si>
+    <t>TC_Login_014</t>
+  </si>
+  <si>
+    <t>validate login with valid username &amp; valid password but attached for other account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Enter valid username in the username field
+2-Enetr valid password in the password field but for another valid account
+3-click login button  </t>
   </si>
 </sst>
 </file>
@@ -345,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,21 +364,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -377,13 +386,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,15 +608,15 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66:O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" customWidth="1"/>
@@ -626,29 +630,29 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
@@ -656,2611 +660,2621 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="5"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="5"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="11"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="5"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="11"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="5"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="11"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="5"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="5"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="5"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="11"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="5"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="5"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="5"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="11"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="5"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="5"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="11"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="5"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="5"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="11"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="5"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="11"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="5"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="5"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="11"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="5"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="11"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="5"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="5"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="5"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="11"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="5"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="5"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="5"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="11"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="5"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="5"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="5"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="11"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="5"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="11"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="5"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="5"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="11"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="5"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="5"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="11"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="5"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="5"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="11"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="11"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="5"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="5"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="11"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="5"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="5"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="5"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="11"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N50" s="6"/>
-      <c r="O50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="11"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="14" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N51" s="6"/>
-      <c r="O51" s="5"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="5"/>
+      <c r="Q51" s="11"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="14" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="5"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="4"/>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="11"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="14" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="5"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="11"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="11"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="18" t="s">
+    <row r="54" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N54" s="15"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="17"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="13"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N55" s="15"/>
-      <c r="O55" s="16"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="5"/>
+      <c r="Q55" s="11"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N56" s="10"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="4"/>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="11"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="10"/>
+      <c r="O57" s="11"/>
       <c r="P57" s="4"/>
-      <c r="Q57" s="5"/>
+      <c r="Q57" s="11"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="14" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="5"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11"/>
       <c r="P58" s="4"/>
-      <c r="Q58" s="5"/>
+      <c r="Q58" s="11"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="14" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N59" s="6"/>
-      <c r="O59" s="5"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="11"/>
       <c r="P59" s="4"/>
-      <c r="Q59" s="5"/>
+      <c r="Q59" s="11"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="14" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N60" s="6"/>
-      <c r="O60" s="5"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="11"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="11"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N61" s="21"/>
-      <c r="O61" s="22"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="10"/>
+      <c r="O61" s="11"/>
       <c r="P61" s="4"/>
-      <c r="Q61" s="5"/>
+      <c r="Q61" s="11"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="14" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="10"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N62" s="6"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="5"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="11"/>
       <c r="P63" s="4"/>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="11"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="5"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="5"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="11"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="5"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="11"/>
       <c r="P64" s="4"/>
-      <c r="Q64" s="5"/>
+      <c r="Q64" s="11"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="5"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="5"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="11"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="5"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="5"/>
+      <c r="Q65" s="11"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="5"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="5"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="5"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="5"/>
+      <c r="Q66" s="11"/>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="5"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="5"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="11"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="5"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="4"/>
-      <c r="Q67" s="5"/>
+      <c r="Q67" s="11"/>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="5"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="5"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="5"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="4"/>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="11"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="5"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="5"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="5"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="4"/>
-      <c r="Q69" s="5"/>
+      <c r="Q69" s="11"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="5"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="5"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="5"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="4"/>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="11"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="5"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="5"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="5"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="11"/>
       <c r="P71" s="4"/>
-      <c r="Q71" s="5"/>
+      <c r="Q71" s="11"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="5"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="5"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="5"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="4"/>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="11"/>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="5"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="5"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="5"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="4"/>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="11"/>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="5"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="5"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="5"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="11"/>
       <c r="P74" s="4"/>
-      <c r="Q74" s="5"/>
+      <c r="Q74" s="11"/>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="5"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="5"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="5"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="11"/>
       <c r="P75" s="4"/>
-      <c r="Q75" s="5"/>
+      <c r="Q75" s="11"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="5"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="5"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="5"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="4"/>
-      <c r="Q76" s="5"/>
+      <c r="Q76" s="11"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="5"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="5"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="5"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="11"/>
       <c r="P77" s="4"/>
-      <c r="Q77" s="5"/>
+      <c r="Q77" s="11"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="5"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="5"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="5"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="11"/>
       <c r="P78" s="4"/>
-      <c r="Q78" s="5"/>
+      <c r="Q78" s="11"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="5"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="5"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="5"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="11"/>
       <c r="P79" s="4"/>
-      <c r="Q79" s="5"/>
+      <c r="Q79" s="11"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="5"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="5"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="5"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="11"/>
       <c r="P80" s="4"/>
-      <c r="Q80" s="5"/>
+      <c r="Q80" s="11"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="11"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="5"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="11"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="5"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="5"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="11"/>
       <c r="P81" s="4"/>
-      <c r="Q81" s="5"/>
+      <c r="Q81" s="11"/>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="11"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="5"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="5"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="5"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="11"/>
       <c r="P82" s="4"/>
-      <c r="Q82" s="5"/>
+      <c r="Q82" s="11"/>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="5"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="5"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="11"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="5"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="4"/>
-      <c r="Q83" s="5"/>
+      <c r="Q83" s="11"/>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="5"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="5"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="11"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="5"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="11"/>
       <c r="P84" s="4"/>
-      <c r="Q84" s="5"/>
+      <c r="Q84" s="11"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="5"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="11"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="5"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="11"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="5"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="11"/>
       <c r="P85" s="4"/>
-      <c r="Q85" s="5"/>
+      <c r="Q85" s="11"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="5"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="5"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="4"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="5"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="11"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="5"/>
+      <c r="Q86" s="11"/>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="11"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="5"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="5"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="11"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="5"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="11"/>
       <c r="P87" s="4"/>
-      <c r="Q87" s="5"/>
+      <c r="Q87" s="11"/>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="5"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="5"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="11"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="5"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="11"/>
       <c r="P88" s="4"/>
-      <c r="Q88" s="5"/>
+      <c r="Q88" s="11"/>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="5"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="5"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="11"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="5"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="11"/>
       <c r="P89" s="4"/>
-      <c r="Q89" s="5"/>
+      <c r="Q89" s="11"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="5"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="5"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="11"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="5"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="11"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="5"/>
+      <c r="Q90" s="11"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="11"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="5"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="11"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="5"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="11"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="5"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="11"/>
       <c r="P91" s="4"/>
-      <c r="Q91" s="5"/>
+      <c r="Q91" s="11"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="5"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="5"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="11"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="5"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="11"/>
       <c r="P92" s="4"/>
-      <c r="Q92" s="5"/>
+      <c r="Q92" s="11"/>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="11"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="5"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="11"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="5"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="5"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="11"/>
       <c r="P93" s="4"/>
-      <c r="Q93" s="5"/>
+      <c r="Q93" s="11"/>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="5"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="5"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="5"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="11"/>
       <c r="P94" s="4"/>
-      <c r="Q94" s="5"/>
+      <c r="Q94" s="11"/>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="11"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="5"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="11"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="5"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="5"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="11"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="5"/>
+      <c r="Q95" s="11"/>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="5"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="11"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="5"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="5"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="11"/>
       <c r="P96" s="4"/>
-      <c r="Q96" s="5"/>
+      <c r="Q96" s="11"/>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="11"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="5"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="5"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="5"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="11"/>
       <c r="P97" s="4"/>
-      <c r="Q97" s="5"/>
+      <c r="Q97" s="11"/>
       <c r="R97" s="3"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="11"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="5"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="5"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="5"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="11"/>
       <c r="P98" s="4"/>
-      <c r="Q98" s="5"/>
+      <c r="Q98" s="11"/>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="11"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="5"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="11"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="5"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="4"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="5"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="11"/>
       <c r="P99" s="4"/>
-      <c r="Q99" s="5"/>
+      <c r="Q99" s="11"/>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="11"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="5"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="11"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="5"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="5"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="11"/>
       <c r="P100" s="4"/>
-      <c r="Q100" s="5"/>
+      <c r="Q100" s="11"/>
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="11"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="5"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="11"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="5"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="4"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="5"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="11"/>
       <c r="P101" s="4"/>
-      <c r="Q101" s="5"/>
+      <c r="Q101" s="11"/>
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="11"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="5"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="11"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="5"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="4"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="5"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="11"/>
       <c r="P102" s="4"/>
-      <c r="Q102" s="5"/>
+      <c r="Q102" s="11"/>
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="11"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="5"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="11"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="5"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="11"/>
       <c r="M103" s="4"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="5"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="11"/>
       <c r="P103" s="4"/>
-      <c r="Q103" s="5"/>
+      <c r="Q103" s="11"/>
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="11"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="5"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="11"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="5"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="11"/>
       <c r="M104" s="4"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="5"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="11"/>
       <c r="P104" s="4"/>
-      <c r="Q104" s="5"/>
+      <c r="Q104" s="11"/>
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="5"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="11"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="5"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="11"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="5"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="11"/>
       <c r="P105" s="4"/>
-      <c r="Q105" s="5"/>
+      <c r="Q105" s="11"/>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="11"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="5"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="11"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="5"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="11"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="5"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="11"/>
       <c r="P106" s="4"/>
-      <c r="Q106" s="5"/>
+      <c r="Q106" s="11"/>
       <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="11"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="5"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="11"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="5"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="11"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="5"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="11"/>
       <c r="P107" s="4"/>
-      <c r="Q107" s="5"/>
+      <c r="Q107" s="11"/>
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="11"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="5"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="5"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="11"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="5"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="11"/>
       <c r="P108" s="4"/>
-      <c r="Q108" s="5"/>
+      <c r="Q108" s="11"/>
       <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="5"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="11"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="5"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="11"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="5"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="11"/>
       <c r="P109" s="4"/>
-      <c r="Q109" s="5"/>
+      <c r="Q109" s="11"/>
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="11"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="5"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="11"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="5"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="11"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="5"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="11"/>
       <c r="P110" s="4"/>
-      <c r="Q110" s="5"/>
+      <c r="Q110" s="11"/>
       <c r="R110" s="3"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="11"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="5"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="11"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="5"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="11"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="5"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="11"/>
       <c r="P111" s="4"/>
-      <c r="Q111" s="5"/>
+      <c r="Q111" s="11"/>
       <c r="R111" s="3"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="11"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="5"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="11"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="5"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="11"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="5"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="11"/>
       <c r="P112" s="4"/>
-      <c r="Q112" s="5"/>
+      <c r="Q112" s="11"/>
       <c r="R112" s="3"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="11"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="5"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="11"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="5"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="11"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="5"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="11"/>
       <c r="P113" s="4"/>
-      <c r="Q113" s="5"/>
+      <c r="Q113" s="11"/>
       <c r="R113" s="3"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="11"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="5"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="11"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="5"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="11"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="5"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="11"/>
       <c r="P114" s="4"/>
-      <c r="Q114" s="5"/>
+      <c r="Q114" s="11"/>
       <c r="R114" s="3"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="11"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="5"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="11"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="5"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="11"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="5"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="11"/>
       <c r="P115" s="4"/>
-      <c r="Q115" s="5"/>
+      <c r="Q115" s="11"/>
       <c r="R115" s="3"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="11"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="5"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="11"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="5"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="11"/>
       <c r="M116" s="4"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="5"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="11"/>
       <c r="P116" s="4"/>
-      <c r="Q116" s="5"/>
+      <c r="Q116" s="11"/>
       <c r="R116" s="3"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="11"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="5"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="11"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="5"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="11"/>
       <c r="M117" s="4"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="5"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="11"/>
       <c r="P117" s="4"/>
-      <c r="Q117" s="5"/>
+      <c r="Q117" s="11"/>
       <c r="R117" s="3"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="11"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="5"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="5"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="11"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="5"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="11"/>
       <c r="P118" s="4"/>
-      <c r="Q118" s="5"/>
+      <c r="Q118" s="11"/>
       <c r="R118" s="3"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="11"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="5"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="11"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="5"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="11"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="5"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="11"/>
       <c r="P119" s="4"/>
-      <c r="Q119" s="5"/>
+      <c r="Q119" s="11"/>
       <c r="R119" s="3"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="11"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="5"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="11"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="5"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="11"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="5"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="11"/>
       <c r="P120" s="4"/>
-      <c r="Q120" s="5"/>
+      <c r="Q120" s="11"/>
       <c r="R120" s="3"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="5"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="11"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="5"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="11"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="5"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="11"/>
       <c r="P121" s="4"/>
-      <c r="Q121" s="5"/>
+      <c r="Q121" s="11"/>
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="11"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="5"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="11"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="5"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="11"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="5"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="11"/>
       <c r="P122" s="4"/>
-      <c r="Q122" s="5"/>
+      <c r="Q122" s="11"/>
       <c r="R122" s="3"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="11"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="5"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="11"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="5"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="11"/>
       <c r="M123" s="4"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="5"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="11"/>
       <c r="P123" s="4"/>
-      <c r="Q123" s="5"/>
+      <c r="Q123" s="11"/>
       <c r="R123" s="3"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="11"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="5"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="11"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="5"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="11"/>
       <c r="M124" s="4"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="5"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="11"/>
       <c r="P124" s="4"/>
-      <c r="Q124" s="5"/>
+      <c r="Q124" s="11"/>
       <c r="R124" s="3"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="11"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="5"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="11"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="5"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="11"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="5"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="11"/>
       <c r="P125" s="4"/>
-      <c r="Q125" s="5"/>
+      <c r="Q125" s="11"/>
       <c r="R125" s="3"/>
     </row>
     <row r="126" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -5890,23 +5904,583 @@
     </row>
   </sheetData>
   <mergeCells count="625">
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E124:H124"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="E119:H119"/>
+    <mergeCell ref="E120:H120"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="E122:H122"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="E114:H114"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="E116:H116"/>
+    <mergeCell ref="E117:H117"/>
+    <mergeCell ref="E118:H118"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E112:H112"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="E106:H106"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="E100:H100"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="E102:H102"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -5931,17 +6505,23 @@
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B120:D120"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B40:D40"/>
@@ -5949,572 +6529,6 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="E108:H108"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="E100:H100"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="E102:H102"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E124:H124"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E119:H119"/>
-    <mergeCell ref="E120:H120"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="E122:H122"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="E114:H114"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="E116:H116"/>
-    <mergeCell ref="E117:H117"/>
-    <mergeCell ref="E118:H118"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="M114:O114"/>
-    <mergeCell ref="M115:O115"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="M104:O104"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M96:O96"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R1:R1000" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FE5D1-6E33-4304-BB06-E10782018EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA38E2-6C70-40D2-80EC-174CB127B4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="247">
   <si>
     <t>Test case ID</t>
   </si>
@@ -879,12 +879,277 @@
   <si>
     <t>The product is removed from the products list</t>
   </si>
+  <si>
+    <t>TC_Client_001</t>
+  </si>
+  <si>
+    <t>View Purchase History</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Purchase History"</t>
+  </si>
+  <si>
+    <t>A complete history of previous purchases is displayed, including product details, order date, items, prices, shipping address, and order status.</t>
+  </si>
+  <si>
+    <t>Client is logged in and has no previous purchase history.</t>
+  </si>
+  <si>
+    <t>Client is logged in and viewing their purchase history.</t>
+  </si>
+  <si>
+    <t>TC_Client_002</t>
+  </si>
+  <si>
+    <t>TC_Client_003</t>
+  </si>
+  <si>
+    <t>TC_Client_004</t>
+  </si>
+  <si>
+    <t>TC_Client_005</t>
+  </si>
+  <si>
+    <t>TC_Client_006</t>
+  </si>
+  <si>
+    <t>TC_Client_007</t>
+  </si>
+  <si>
+    <t>TC_Client_008</t>
+  </si>
+  <si>
+    <t>TC_Client_009</t>
+  </si>
+  <si>
+    <t>TC_Client_010</t>
+  </si>
+  <si>
+    <t>TC_Client_011</t>
+  </si>
+  <si>
+    <t>TC_Client_012</t>
+  </si>
+  <si>
+    <t>TC_Client_013</t>
+  </si>
+  <si>
+    <t>TC_Client_014</t>
+  </si>
+  <si>
+    <t>TC_Client_015</t>
+  </si>
+  <si>
+    <t>TC_Client_016</t>
+  </si>
+  <si>
+    <t>TC_Client_017</t>
+  </si>
+  <si>
+    <t>TC_Client_018</t>
+  </si>
+  <si>
+    <t>The message "No previous purchases found." is displayed.</t>
+  </si>
+  <si>
+    <t>No Purchase History</t>
+  </si>
+  <si>
+    <t>The Client ID (derived from the last 6 digits of the national ID) is associated with the purchase history.</t>
+  </si>
+  <si>
+    <t>Client ID Display</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Purchase History" section.                   2. Ckeck the displayed purchase details.</t>
+  </si>
+  <si>
+    <t>Add Single Product</t>
+  </si>
+  <si>
+    <t>Add Multiple Products</t>
+  </si>
+  <si>
+    <t>Add One More Product</t>
+  </si>
+  <si>
+    <t>Client tries to add a product marked as "out of stock".</t>
+  </si>
+  <si>
+    <t>Client has products already in the shopping cart.</t>
+  </si>
+  <si>
+    <t>Client is viewing multiple product detail pages.</t>
+  </si>
+  <si>
+    <t>Client is viewing a product detail page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the product detail page of an out-of-stock item. 2. Click "Add to Cart".</t>
+  </si>
+  <si>
+    <t>1. Navigate to a product detail page. 2. Click "Add to Cart".</t>
+  </si>
+  <si>
+    <t>1. Click the "Add to Cart" button for several different products.</t>
+  </si>
+  <si>
+    <t>1. Click the "Add to Cart" button for the product.</t>
+  </si>
+  <si>
+    <t>The message "product is out of stock" is displayed, and the product is not added to the cart.</t>
+  </si>
+  <si>
+    <t>The new product is added to the existing shopping cart.</t>
+  </si>
+  <si>
+    <t>All selected products are added to the shopping cart.</t>
+  </si>
+  <si>
+    <t>The product is added to the shopping cart.</t>
+  </si>
+  <si>
+    <t>Empty Cart</t>
+  </si>
+  <si>
+    <t>View Cart Contents</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Shopping Cart" page.</t>
+  </si>
+  <si>
+    <t>Client has one or more products in the shopping cart.</t>
+  </si>
+  <si>
+    <t>Client has no products in the shopping cart.</t>
+  </si>
+  <si>
+    <t>The contents of the cart are displayed, including product names, quantities, and prices.</t>
+  </si>
+  <si>
+    <t>The message "Your cart is empty." is displayed.</t>
+  </si>
+  <si>
+    <t>Remove Item via Zero Quantity</t>
+  </si>
+  <si>
+    <t>Remove Item from cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment Quantity of a product in cart
+</t>
+  </si>
+  <si>
+    <t>Decrement Quantity of a product in cart</t>
+  </si>
+  <si>
+    <t>Product Out of Stock Update</t>
+  </si>
+  <si>
+    <t>Client has at least one product in the shopping cart with a quantity greater than 1.</t>
+  </si>
+  <si>
+    <t>Client has at least one product in the shopping cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client has at least one product in the shopping cart.
+</t>
+  </si>
+  <si>
+    <t>Client has a product in the cart, and it becomes out of stock.</t>
+  </si>
+  <si>
+    <t>Navigate to Checkout</t>
+  </si>
+  <si>
+    <t>Navigate to Checkout with Empty Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client has one or more items in the shopping cart.
+</t>
+  </si>
+  <si>
+    <t>Client has no items in the shopping cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client is navigated to the checkout page, where the final list of items and the payment method (always "Cash Only") are displayed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system display a message indicating the cart is empty. </t>
+  </si>
+  <si>
+    <t>The client is redirected back to the shopping cart, and the cart contents are unchanged.</t>
+  </si>
+  <si>
+    <t>1. Click the "Cancel"  button on the checkout page.</t>
+  </si>
+  <si>
+    <t>Client is on the checkout page.</t>
+  </si>
+  <si>
+    <t>Cancel Checkout</t>
+  </si>
+  <si>
+    <t>A confirmation message "Your order is placed successfully" is displayed, and the client is redirected to the purchase history page.</t>
+  </si>
+  <si>
+    <t>Client is on the checkout page with items in the cart and has reviewed the order.</t>
+  </si>
+  <si>
+    <t>Place Valid Order</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Shopping Cart" page.                              2. Click the "Checkout" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the "Shopping Cart" page.                              2. Click the "Checkout" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the "Shopping Cart" page.                               2. Increase the quantity of a product.
+</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Shopping Cart" page.                               2. Decrease the quantity of a product.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Shopping Cart" page.                               2. Click the "Remove" button for a product.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Shopping Cart" page.                               2. Set the product quantity to 0.</t>
+  </si>
+  <si>
+    <t>Client is logged in and has previous purchase history.</t>
+  </si>
+  <si>
+    <t>Verify add a Product Out of Stock to  the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quantity of the product in the cart is incremented, and the total is updated accordingly.
+</t>
+  </si>
+  <si>
+    <t>The quantity of the product in the cart is decremented, and the total is updated accordingly.</t>
+  </si>
+  <si>
+    <t>The selected product is removed from the shopping cart, and the total is updated accordingly.</t>
+  </si>
+  <si>
+    <t>The product is removed from the shopping cart, and the error message "count no can't be negative no" appears.</t>
+  </si>
+  <si>
+    <t>The message "out of stock" is displayed for the affected item.</t>
+  </si>
+  <si>
+    <t>1. Click the "Place Order" button.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -925,8 +1190,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +1208,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1004,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,8 +1311,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1051,6 +1326,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1060,6 +1337,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,22 +1576,23 @@
   </sheetPr>
   <dimension ref="A1:R970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:H36"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="28"/>
+    <col min="14" max="14" width="21" style="28" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="28" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,29 +1604,29 @@
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -1359,7 +1656,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -1380,16 +1677,16 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -1413,13 +1710,13 @@
       <c r="M4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -1443,13 +1740,13 @@
       <c r="M5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -1479,7 +1776,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
@@ -1509,7 +1806,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
@@ -1533,13 +1830,13 @@
       <c r="M8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
@@ -1569,7 +1866,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -1593,13 +1890,13 @@
       <c r="M10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -1623,13 +1920,13 @@
       <c r="M11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -1653,13 +1950,13 @@
       <c r="M12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -1689,7 +1986,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -1719,7 +2016,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
@@ -1749,7 +2046,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>113</v>
       </c>
@@ -1779,7 +2076,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -1809,7 +2106,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>121</v>
       </c>
@@ -1839,27 +2136,27 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
@@ -1889,7 +2186,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1919,7 +2216,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +2246,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1979,7 +2276,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -2009,7 +2306,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2039,7 +2336,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2069,7 +2366,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2099,7 +2396,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -2129,7 +2426,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -2159,7 +2456,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2486,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -2219,7 +2516,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -2249,7 +2546,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2279,27 +2576,27 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="29"/>
+    </row>
+    <row r="35" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>126</v>
       </c>
@@ -2329,7 +2626,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>131</v>
       </c>
@@ -2359,7 +2656,7 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>136</v>
       </c>
@@ -2383,13 +2680,13 @@
       <c r="M37" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>140</v>
       </c>
@@ -2413,13 +2710,13 @@
       <c r="M38" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
@@ -2443,13 +2740,13 @@
       <c r="M39" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
@@ -2479,7 +2776,7 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -2509,7 +2806,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>157</v>
       </c>
@@ -2539,387 +2836,567 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+    <row r="43" spans="1:18" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="29"/>
+    </row>
+    <row r="44" spans="1:18" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
+      <c r="M44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N44" s="18"/>
+      <c r="O44" s="19"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
+    <row r="45" spans="1:18" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="11"/>
+      <c r="M45" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N45" s="18"/>
+      <c r="O45" s="19"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+    <row r="46" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11"/>
+      <c r="I46" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" s="18"/>
+      <c r="O46" s="19"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
+    <row r="47" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="11"/>
+      <c r="I47" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="18"/>
+      <c r="O47" s="19"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
+    <row r="48" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="11"/>
+      <c r="I48" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" s="18"/>
+      <c r="O48" s="19"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
+    <row r="49" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="11"/>
+      <c r="I49" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="N49" s="18"/>
+      <c r="O49" s="19"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
+    <row r="50" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="11"/>
+      <c r="I50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
+    <row r="51" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="11"/>
+      <c r="M51" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
+    <row r="52" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="11"/>
+      <c r="M52" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="18"/>
+      <c r="O52" s="19"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
+    <row r="53" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>213</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="4"/>
+      <c r="E53" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="4"/>
+      <c r="M53" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="N53" s="10"/>
       <c r="O53" s="11"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
+    <row r="54" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="11"/>
+      <c r="E54" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="N54" s="18"/>
+      <c r="O54" s="19"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
+    <row r="55" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="11"/>
+      <c r="E55" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="N55" s="18"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
+    <row r="56" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="11"/>
+      <c r="E56" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="N56" s="18"/>
+      <c r="O56" s="19"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+    <row r="57" spans="1:18" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="4"/>
+      <c r="E57" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="11"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="11"/>
+      <c r="M57" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="N57" s="18"/>
+      <c r="O57" s="19"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
+    <row r="58" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="4"/>
+      <c r="M58" s="12" t="s">
+        <v>224</v>
+      </c>
       <c r="N58" s="10"/>
       <c r="O58" s="11"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
+    <row r="59" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="11"/>
+      <c r="I59" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="N59" s="18"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
+    <row r="60" spans="1:18" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="11"/>
+      <c r="I60" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="N60" s="18"/>
+      <c r="O60" s="19"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
+    <row r="61" spans="1:18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="11"/>
+      <c r="E61" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="N61" s="18"/>
+      <c r="O61" s="19"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -2939,7 +3416,7 @@
       <c r="Q62" s="11"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -2959,7 +3436,7 @@
       <c r="Q63" s="11"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -2979,7 +3456,7 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -2999,7 +3476,7 @@
       <c r="Q65" s="11"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -3019,7 +3496,7 @@
       <c r="Q66" s="11"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -3039,7 +3516,7 @@
       <c r="Q67" s="11"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -3059,7 +3536,7 @@
       <c r="Q68" s="11"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -3079,7 +3556,7 @@
       <c r="Q69" s="11"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -3099,7 +3576,7 @@
       <c r="Q70" s="11"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -3119,7 +3596,7 @@
       <c r="Q71" s="11"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -3139,7 +3616,7 @@
       <c r="Q72" s="11"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -3159,7 +3636,7 @@
       <c r="Q73" s="11"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -3179,7 +3656,7 @@
       <c r="Q74" s="11"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -3199,7 +3676,7 @@
       <c r="Q75" s="11"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -3219,7 +3696,7 @@
       <c r="Q76" s="11"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -3239,7 +3716,7 @@
       <c r="Q77" s="11"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -3259,7 +3736,7 @@
       <c r="Q78" s="11"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -3279,7 +3756,7 @@
       <c r="Q79" s="11"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -3299,7 +3776,7 @@
       <c r="Q80" s="11"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -3319,7 +3796,7 @@
       <c r="Q81" s="11"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -3339,7 +3816,7 @@
       <c r="Q82" s="11"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -3359,7 +3836,7 @@
       <c r="Q83" s="11"/>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -3379,7 +3856,7 @@
       <c r="Q84" s="11"/>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -3399,7 +3876,7 @@
       <c r="Q85" s="11"/>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -3419,7 +3896,7 @@
       <c r="Q86" s="11"/>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -3439,7 +3916,7 @@
       <c r="Q87" s="11"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -3459,7 +3936,7 @@
       <c r="Q88" s="11"/>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -3479,7 +3956,7 @@
       <c r="Q89" s="11"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -3499,7 +3976,7 @@
       <c r="Q90" s="11"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -3519,7 +3996,7 @@
       <c r="Q91" s="11"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -3539,7 +4016,7 @@
       <c r="Q92" s="11"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -3559,7 +4036,7 @@
       <c r="Q93" s="11"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -3579,7 +4056,7 @@
       <c r="Q94" s="11"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -3599,2635 +4076,2633 @@
       <c r="Q95" s="11"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R253" s="2"/>
     </row>
-    <row r="254" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R254" s="2"/>
     </row>
-    <row r="255" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R259" s="2"/>
     </row>
-    <row r="260" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R270" s="2"/>
     </row>
-    <row r="271" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R271" s="2"/>
     </row>
-    <row r="272" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R273" s="2"/>
     </row>
-    <row r="274" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R274" s="2"/>
     </row>
-    <row r="275" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R276" s="2"/>
     </row>
-    <row r="277" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R277" s="2"/>
     </row>
-    <row r="278" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R279" s="2"/>
     </row>
-    <row r="280" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R280" s="2"/>
     </row>
-    <row r="281" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R281" s="2"/>
     </row>
-    <row r="282" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R282" s="2"/>
     </row>
-    <row r="283" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R283" s="2"/>
     </row>
-    <row r="284" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R284" s="2"/>
     </row>
-    <row r="285" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R285" s="2"/>
     </row>
-    <row r="286" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R286" s="2"/>
     </row>
-    <row r="287" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R287" s="2"/>
     </row>
-    <row r="288" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R288" s="2"/>
     </row>
-    <row r="289" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R289" s="2"/>
     </row>
-    <row r="290" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R290" s="2"/>
     </row>
-    <row r="291" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R291" s="2"/>
     </row>
-    <row r="292" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R292" s="2"/>
     </row>
-    <row r="293" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R293" s="2"/>
     </row>
-    <row r="294" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R294" s="2"/>
     </row>
-    <row r="295" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R295" s="2"/>
     </row>
-    <row r="296" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R296" s="2"/>
     </row>
-    <row r="297" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R297" s="2"/>
     </row>
-    <row r="298" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R298" s="2"/>
     </row>
-    <row r="299" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R299" s="2"/>
     </row>
-    <row r="300" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R300" s="2"/>
     </row>
-    <row r="301" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R301" s="2"/>
     </row>
-    <row r="302" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R302" s="2"/>
     </row>
-    <row r="303" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R303" s="2"/>
     </row>
-    <row r="304" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R304" s="2"/>
     </row>
-    <row r="305" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R305" s="2"/>
     </row>
-    <row r="306" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R306" s="2"/>
     </row>
-    <row r="307" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R308" s="2"/>
     </row>
-    <row r="309" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R309" s="2"/>
     </row>
-    <row r="310" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R310" s="2"/>
     </row>
-    <row r="311" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R311" s="2"/>
     </row>
-    <row r="312" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R313" s="2"/>
     </row>
-    <row r="314" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R314" s="2"/>
     </row>
-    <row r="315" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R315" s="2"/>
     </row>
-    <row r="316" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R316" s="2"/>
     </row>
-    <row r="317" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R317" s="2"/>
     </row>
-    <row r="318" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R318" s="2"/>
     </row>
-    <row r="319" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R320" s="2"/>
     </row>
-    <row r="321" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R321" s="2"/>
     </row>
-    <row r="322" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R322" s="2"/>
     </row>
-    <row r="323" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R323" s="2"/>
     </row>
-    <row r="324" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R324" s="2"/>
     </row>
-    <row r="325" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R325" s="2"/>
     </row>
-    <row r="326" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R326" s="2"/>
     </row>
-    <row r="327" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R327" s="2"/>
     </row>
-    <row r="328" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R328" s="2"/>
     </row>
-    <row r="329" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R329" s="2"/>
     </row>
-    <row r="330" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R330" s="2"/>
     </row>
-    <row r="331" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R331" s="2"/>
     </row>
-    <row r="332" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R332" s="2"/>
     </row>
-    <row r="333" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R333" s="2"/>
     </row>
-    <row r="334" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R335" s="2"/>
     </row>
-    <row r="336" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R336" s="2"/>
     </row>
-    <row r="337" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R337" s="2"/>
     </row>
-    <row r="338" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R338" s="2"/>
     </row>
-    <row r="339" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R339" s="2"/>
     </row>
-    <row r="340" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R340" s="2"/>
     </row>
-    <row r="341" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R341" s="2"/>
     </row>
-    <row r="342" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R342" s="2"/>
     </row>
-    <row r="343" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R343" s="2"/>
     </row>
-    <row r="344" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R344" s="2"/>
     </row>
-    <row r="345" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R345" s="2"/>
     </row>
-    <row r="346" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R346" s="2"/>
     </row>
-    <row r="347" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R347" s="2"/>
     </row>
-    <row r="348" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R348" s="2"/>
     </row>
-    <row r="349" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R349" s="2"/>
     </row>
-    <row r="350" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R350" s="2"/>
     </row>
-    <row r="351" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R351" s="2"/>
     </row>
-    <row r="352" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R363" s="2"/>
     </row>
-    <row r="364" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R368" s="2"/>
     </row>
-    <row r="369" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R369" s="2"/>
     </row>
-    <row r="370" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R370" s="2"/>
     </row>
-    <row r="371" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R371" s="2"/>
     </row>
-    <row r="372" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R372" s="2"/>
     </row>
-    <row r="373" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R373" s="2"/>
     </row>
-    <row r="374" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R374" s="2"/>
     </row>
-    <row r="375" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R375" s="2"/>
     </row>
-    <row r="376" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R376" s="2"/>
     </row>
-    <row r="377" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R377" s="2"/>
     </row>
-    <row r="378" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R378" s="2"/>
     </row>
-    <row r="379" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R379" s="2"/>
     </row>
-    <row r="380" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R380" s="2"/>
     </row>
-    <row r="381" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R381" s="2"/>
     </row>
-    <row r="382" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R382" s="2"/>
     </row>
-    <row r="383" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R383" s="2"/>
     </row>
-    <row r="384" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R384" s="2"/>
     </row>
-    <row r="385" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R385" s="2"/>
     </row>
-    <row r="386" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R386" s="2"/>
     </row>
-    <row r="387" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R387" s="2"/>
     </row>
-    <row r="388" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R389" s="2"/>
     </row>
-    <row r="390" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R390" s="2"/>
     </row>
-    <row r="391" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R392" s="2"/>
     </row>
-    <row r="393" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R393" s="2"/>
     </row>
-    <row r="394" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R394" s="2"/>
     </row>
-    <row r="395" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R395" s="2"/>
     </row>
-    <row r="396" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R396" s="2"/>
     </row>
-    <row r="397" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R397" s="2"/>
     </row>
-    <row r="398" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R398" s="2"/>
     </row>
-    <row r="399" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R399" s="2"/>
     </row>
-    <row r="400" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R400" s="2"/>
     </row>
-    <row r="401" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R401" s="2"/>
     </row>
-    <row r="402" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R403" s="2"/>
     </row>
-    <row r="404" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R404" s="2"/>
     </row>
-    <row r="405" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R405" s="2"/>
     </row>
-    <row r="406" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R406" s="2"/>
     </row>
-    <row r="407" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R407" s="2"/>
     </row>
-    <row r="408" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R408" s="2"/>
     </row>
-    <row r="409" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R409" s="2"/>
     </row>
-    <row r="410" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R410" s="2"/>
     </row>
-    <row r="411" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R411" s="2"/>
     </row>
-    <row r="412" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R412" s="2"/>
     </row>
-    <row r="413" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R413" s="2"/>
     </row>
-    <row r="414" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R414" s="2"/>
     </row>
-    <row r="415" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R415" s="2"/>
     </row>
-    <row r="416" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R416" s="2"/>
     </row>
-    <row r="417" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R417" s="2"/>
     </row>
-    <row r="418" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R418" s="2"/>
     </row>
-    <row r="419" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R419" s="2"/>
     </row>
-    <row r="420" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R420" s="2"/>
     </row>
-    <row r="421" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R421" s="2"/>
     </row>
-    <row r="422" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R422" s="2"/>
     </row>
-    <row r="423" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R423" s="2"/>
     </row>
-    <row r="424" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R424" s="2"/>
     </row>
-    <row r="425" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R425" s="2"/>
     </row>
-    <row r="426" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R426" s="2"/>
     </row>
-    <row r="427" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R427" s="2"/>
     </row>
-    <row r="428" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R428" s="2"/>
     </row>
-    <row r="429" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R429" s="2"/>
     </row>
-    <row r="430" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R430" s="2"/>
     </row>
-    <row r="431" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R431" s="2"/>
     </row>
-    <row r="432" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R433" s="2"/>
     </row>
-    <row r="434" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R434" s="2"/>
     </row>
-    <row r="435" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R435" s="2"/>
     </row>
-    <row r="436" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R436" s="2"/>
     </row>
-    <row r="437" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R437" s="2"/>
     </row>
-    <row r="438" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R438" s="2"/>
     </row>
-    <row r="439" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R439" s="2"/>
     </row>
-    <row r="440" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R440" s="2"/>
     </row>
-    <row r="441" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R441" s="2"/>
     </row>
-    <row r="442" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R442" s="2"/>
     </row>
-    <row r="443" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R443" s="2"/>
     </row>
-    <row r="444" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R444" s="2"/>
     </row>
-    <row r="445" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R445" s="2"/>
     </row>
-    <row r="446" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R446" s="2"/>
     </row>
-    <row r="447" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R447" s="2"/>
     </row>
-    <row r="448" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R448" s="2"/>
     </row>
-    <row r="449" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R449" s="2"/>
     </row>
-    <row r="450" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R450" s="2"/>
     </row>
-    <row r="451" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R451" s="2"/>
     </row>
-    <row r="452" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R452" s="2"/>
     </row>
-    <row r="453" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R453" s="2"/>
     </row>
-    <row r="454" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R454" s="2"/>
     </row>
-    <row r="455" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R455" s="2"/>
     </row>
-    <row r="456" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R456" s="2"/>
     </row>
-    <row r="457" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R457" s="2"/>
     </row>
-    <row r="458" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R458" s="2"/>
     </row>
-    <row r="459" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R459" s="2"/>
     </row>
-    <row r="460" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R460" s="2"/>
     </row>
-    <row r="461" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R461" s="2"/>
     </row>
-    <row r="462" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R462" s="2"/>
     </row>
-    <row r="463" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R463" s="2"/>
     </row>
-    <row r="464" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R464" s="2"/>
     </row>
-    <row r="465" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R465" s="2"/>
     </row>
-    <row r="466" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R466" s="2"/>
     </row>
-    <row r="467" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R467" s="2"/>
     </row>
-    <row r="468" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R468" s="2"/>
     </row>
-    <row r="469" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R469" s="2"/>
     </row>
-    <row r="470" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R470" s="2"/>
     </row>
-    <row r="471" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R471" s="2"/>
     </row>
-    <row r="472" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R472" s="2"/>
     </row>
-    <row r="473" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R473" s="2"/>
     </row>
-    <row r="474" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R474" s="2"/>
     </row>
-    <row r="475" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R475" s="2"/>
     </row>
-    <row r="476" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R476" s="2"/>
     </row>
-    <row r="477" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R477" s="2"/>
     </row>
-    <row r="478" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R478" s="2"/>
     </row>
-    <row r="479" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R479" s="2"/>
     </row>
-    <row r="480" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R480" s="2"/>
     </row>
-    <row r="481" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R481" s="2"/>
     </row>
-    <row r="482" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R482" s="2"/>
     </row>
-    <row r="483" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R483" s="2"/>
     </row>
-    <row r="484" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R484" s="2"/>
     </row>
-    <row r="485" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R485" s="2"/>
     </row>
-    <row r="486" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R486" s="2"/>
     </row>
-    <row r="487" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R487" s="2"/>
     </row>
-    <row r="488" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R488" s="2"/>
     </row>
-    <row r="489" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R489" s="2"/>
     </row>
-    <row r="490" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R490" s="2"/>
     </row>
-    <row r="491" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R491" s="2"/>
     </row>
-    <row r="492" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R492" s="2"/>
     </row>
-    <row r="493" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R493" s="2"/>
     </row>
-    <row r="494" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R494" s="2"/>
     </row>
-    <row r="495" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R495" s="2"/>
     </row>
-    <row r="496" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R496" s="2"/>
     </row>
-    <row r="497" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R497" s="2"/>
     </row>
-    <row r="498" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R498" s="2"/>
     </row>
-    <row r="499" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R499" s="2"/>
     </row>
-    <row r="500" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R500" s="2"/>
     </row>
-    <row r="501" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R501" s="2"/>
     </row>
-    <row r="502" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R502" s="2"/>
     </row>
-    <row r="503" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R503" s="2"/>
     </row>
-    <row r="504" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R504" s="2"/>
     </row>
-    <row r="505" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R505" s="2"/>
     </row>
-    <row r="506" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R506" s="2"/>
     </row>
-    <row r="507" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R507" s="2"/>
     </row>
-    <row r="508" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R508" s="2"/>
     </row>
-    <row r="509" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R509" s="2"/>
     </row>
-    <row r="510" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R510" s="2"/>
     </row>
-    <row r="511" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R511" s="2"/>
     </row>
-    <row r="512" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R512" s="2"/>
     </row>
-    <row r="513" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R513" s="2"/>
     </row>
-    <row r="514" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R514" s="2"/>
     </row>
-    <row r="515" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R515" s="2"/>
     </row>
-    <row r="516" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R516" s="2"/>
     </row>
-    <row r="517" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R517" s="2"/>
     </row>
-    <row r="518" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R518" s="2"/>
     </row>
-    <row r="519" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R519" s="2"/>
     </row>
-    <row r="520" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R520" s="2"/>
     </row>
-    <row r="521" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R521" s="2"/>
     </row>
-    <row r="522" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R522" s="2"/>
     </row>
-    <row r="523" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R523" s="2"/>
     </row>
-    <row r="524" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R524" s="2"/>
     </row>
-    <row r="525" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R525" s="2"/>
     </row>
-    <row r="526" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R526" s="2"/>
     </row>
-    <row r="527" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R527" s="2"/>
     </row>
-    <row r="528" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R528" s="2"/>
     </row>
-    <row r="529" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R529" s="2"/>
     </row>
-    <row r="530" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R530" s="2"/>
     </row>
-    <row r="531" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R531" s="2"/>
     </row>
-    <row r="532" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R532" s="2"/>
     </row>
-    <row r="533" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R533" s="2"/>
     </row>
-    <row r="534" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R534" s="2"/>
     </row>
-    <row r="535" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R535" s="2"/>
     </row>
-    <row r="536" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R536" s="2"/>
     </row>
-    <row r="537" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R537" s="2"/>
     </row>
-    <row r="538" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R538" s="2"/>
     </row>
-    <row r="539" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R539" s="2"/>
     </row>
-    <row r="540" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R540" s="2"/>
     </row>
-    <row r="541" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R541" s="2"/>
     </row>
-    <row r="542" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R542" s="2"/>
     </row>
-    <row r="543" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R543" s="2"/>
     </row>
-    <row r="544" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R544" s="2"/>
     </row>
-    <row r="545" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R545" s="2"/>
     </row>
-    <row r="546" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R546" s="2"/>
     </row>
-    <row r="547" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R547" s="2"/>
     </row>
-    <row r="548" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R548" s="2"/>
     </row>
-    <row r="549" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R549" s="2"/>
     </row>
-    <row r="550" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R550" s="2"/>
     </row>
-    <row r="551" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R551" s="2"/>
     </row>
-    <row r="552" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R552" s="2"/>
     </row>
-    <row r="553" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R553" s="2"/>
     </row>
-    <row r="554" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R554" s="2"/>
     </row>
-    <row r="555" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R555" s="2"/>
     </row>
-    <row r="556" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R556" s="2"/>
     </row>
-    <row r="557" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R557" s="2"/>
     </row>
-    <row r="558" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R558" s="2"/>
     </row>
-    <row r="559" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R559" s="2"/>
     </row>
-    <row r="560" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R560" s="2"/>
     </row>
-    <row r="561" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R561" s="2"/>
     </row>
-    <row r="562" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R562" s="2"/>
     </row>
-    <row r="563" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R563" s="2"/>
     </row>
-    <row r="564" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R564" s="2"/>
     </row>
-    <row r="565" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R565" s="2"/>
     </row>
-    <row r="566" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R566" s="2"/>
     </row>
-    <row r="567" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R567" s="2"/>
     </row>
-    <row r="568" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R568" s="2"/>
     </row>
-    <row r="569" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R569" s="2"/>
     </row>
-    <row r="570" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R570" s="2"/>
     </row>
-    <row r="571" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R571" s="2"/>
     </row>
-    <row r="572" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R572" s="2"/>
     </row>
-    <row r="573" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R573" s="2"/>
     </row>
-    <row r="574" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R574" s="2"/>
     </row>
-    <row r="575" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R575" s="2"/>
     </row>
-    <row r="576" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R576" s="2"/>
     </row>
-    <row r="577" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R577" s="2"/>
     </row>
-    <row r="578" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R578" s="2"/>
     </row>
-    <row r="579" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R579" s="2"/>
     </row>
-    <row r="580" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R580" s="2"/>
     </row>
-    <row r="581" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R581" s="2"/>
     </row>
-    <row r="582" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R582" s="2"/>
     </row>
-    <row r="583" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R583" s="2"/>
     </row>
-    <row r="584" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R584" s="2"/>
     </row>
-    <row r="585" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R585" s="2"/>
     </row>
-    <row r="586" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R586" s="2"/>
     </row>
-    <row r="587" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R587" s="2"/>
     </row>
-    <row r="588" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R588" s="2"/>
     </row>
-    <row r="589" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R589" s="2"/>
     </row>
-    <row r="590" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R590" s="2"/>
     </row>
-    <row r="591" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R591" s="2"/>
     </row>
-    <row r="592" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R592" s="2"/>
     </row>
-    <row r="593" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R593" s="2"/>
     </row>
-    <row r="594" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R594" s="2"/>
     </row>
-    <row r="595" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R595" s="2"/>
     </row>
-    <row r="596" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R596" s="2"/>
     </row>
-    <row r="597" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R597" s="2"/>
     </row>
-    <row r="598" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R598" s="2"/>
     </row>
-    <row r="599" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R599" s="2"/>
     </row>
-    <row r="600" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R600" s="2"/>
     </row>
-    <row r="601" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R601" s="2"/>
     </row>
-    <row r="602" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R602" s="2"/>
     </row>
-    <row r="603" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R603" s="2"/>
     </row>
-    <row r="604" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R604" s="2"/>
     </row>
-    <row r="605" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R605" s="2"/>
     </row>
-    <row r="606" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R606" s="2"/>
     </row>
-    <row r="607" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R607" s="2"/>
     </row>
-    <row r="608" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R608" s="2"/>
     </row>
-    <row r="609" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R609" s="2"/>
     </row>
-    <row r="610" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R610" s="2"/>
     </row>
-    <row r="611" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R611" s="2"/>
     </row>
-    <row r="612" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R612" s="2"/>
     </row>
-    <row r="613" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R613" s="2"/>
     </row>
-    <row r="614" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R614" s="2"/>
     </row>
-    <row r="615" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R615" s="2"/>
     </row>
-    <row r="616" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R616" s="2"/>
     </row>
-    <row r="617" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R617" s="2"/>
     </row>
-    <row r="618" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R618" s="2"/>
     </row>
-    <row r="619" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R619" s="2"/>
     </row>
-    <row r="620" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R620" s="2"/>
     </row>
-    <row r="621" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R621" s="2"/>
     </row>
-    <row r="622" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R622" s="2"/>
     </row>
-    <row r="623" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R623" s="2"/>
     </row>
-    <row r="624" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R624" s="2"/>
     </row>
-    <row r="625" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R625" s="2"/>
     </row>
-    <row r="626" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R626" s="2"/>
     </row>
-    <row r="627" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R627" s="2"/>
     </row>
-    <row r="628" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R628" s="2"/>
     </row>
-    <row r="629" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R629" s="2"/>
     </row>
-    <row r="630" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R630" s="2"/>
     </row>
-    <row r="631" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R631" s="2"/>
     </row>
-    <row r="632" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R632" s="2"/>
     </row>
-    <row r="633" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R633" s="2"/>
     </row>
-    <row r="634" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R634" s="2"/>
     </row>
-    <row r="635" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R635" s="2"/>
     </row>
-    <row r="636" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R636" s="2"/>
     </row>
-    <row r="637" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R637" s="2"/>
     </row>
-    <row r="638" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R638" s="2"/>
     </row>
-    <row r="639" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R639" s="2"/>
     </row>
-    <row r="640" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R640" s="2"/>
     </row>
-    <row r="641" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R641" s="2"/>
     </row>
-    <row r="642" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R642" s="2"/>
     </row>
-    <row r="643" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R643" s="2"/>
     </row>
-    <row r="644" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R644" s="2"/>
     </row>
-    <row r="645" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R645" s="2"/>
     </row>
-    <row r="646" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R646" s="2"/>
     </row>
-    <row r="647" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R647" s="2"/>
     </row>
-    <row r="648" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R648" s="2"/>
     </row>
-    <row r="649" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R649" s="2"/>
     </row>
-    <row r="650" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R650" s="2"/>
     </row>
-    <row r="651" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R651" s="2"/>
     </row>
-    <row r="652" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R652" s="2"/>
     </row>
-    <row r="653" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R653" s="2"/>
     </row>
-    <row r="654" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R654" s="2"/>
     </row>
-    <row r="655" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R655" s="2"/>
     </row>
-    <row r="656" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R656" s="2"/>
     </row>
-    <row r="657" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R657" s="2"/>
     </row>
-    <row r="658" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R658" s="2"/>
     </row>
-    <row r="659" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R659" s="2"/>
     </row>
-    <row r="660" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R660" s="2"/>
     </row>
-    <row r="661" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R661" s="2"/>
     </row>
-    <row r="662" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R662" s="2"/>
     </row>
-    <row r="663" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R663" s="2"/>
     </row>
-    <row r="664" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R664" s="2"/>
     </row>
-    <row r="665" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R665" s="2"/>
     </row>
-    <row r="666" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R666" s="2"/>
     </row>
-    <row r="667" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R667" s="2"/>
     </row>
-    <row r="668" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R668" s="2"/>
     </row>
-    <row r="669" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R669" s="2"/>
     </row>
-    <row r="670" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R670" s="2"/>
     </row>
-    <row r="671" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R671" s="2"/>
     </row>
-    <row r="672" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R672" s="2"/>
     </row>
-    <row r="673" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R673" s="2"/>
     </row>
-    <row r="674" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R674" s="2"/>
     </row>
-    <row r="675" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R675" s="2"/>
     </row>
-    <row r="676" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R676" s="2"/>
     </row>
-    <row r="677" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R677" s="2"/>
     </row>
-    <row r="678" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R678" s="2"/>
     </row>
-    <row r="679" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R679" s="2"/>
     </row>
-    <row r="680" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R680" s="2"/>
     </row>
-    <row r="681" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R681" s="2"/>
     </row>
-    <row r="682" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R682" s="2"/>
     </row>
-    <row r="683" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R683" s="2"/>
     </row>
-    <row r="684" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R684" s="2"/>
     </row>
-    <row r="685" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R685" s="2"/>
     </row>
-    <row r="686" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R686" s="2"/>
     </row>
-    <row r="687" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R687" s="2"/>
     </row>
-    <row r="688" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R688" s="2"/>
     </row>
-    <row r="689" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R689" s="2"/>
     </row>
-    <row r="690" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R690" s="2"/>
     </row>
-    <row r="691" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R691" s="2"/>
     </row>
-    <row r="692" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R692" s="2"/>
     </row>
-    <row r="693" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R693" s="2"/>
     </row>
-    <row r="694" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R694" s="2"/>
     </row>
-    <row r="695" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R695" s="2"/>
     </row>
-    <row r="696" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R696" s="2"/>
     </row>
-    <row r="697" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R697" s="2"/>
     </row>
-    <row r="698" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R698" s="2"/>
     </row>
-    <row r="699" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R699" s="2"/>
     </row>
-    <row r="700" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R700" s="2"/>
     </row>
-    <row r="701" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R701" s="2"/>
     </row>
-    <row r="702" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R702" s="2"/>
     </row>
-    <row r="703" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R703" s="2"/>
     </row>
-    <row r="704" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R704" s="2"/>
     </row>
-    <row r="705" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R705" s="2"/>
     </row>
-    <row r="706" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R706" s="2"/>
     </row>
-    <row r="707" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R707" s="2"/>
     </row>
-    <row r="708" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R708" s="2"/>
     </row>
-    <row r="709" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R709" s="2"/>
     </row>
-    <row r="710" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R710" s="2"/>
     </row>
-    <row r="711" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R711" s="2"/>
     </row>
-    <row r="712" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R712" s="2"/>
     </row>
-    <row r="713" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R713" s="2"/>
     </row>
-    <row r="714" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R714" s="2"/>
     </row>
-    <row r="715" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R715" s="2"/>
     </row>
-    <row r="716" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R716" s="2"/>
     </row>
-    <row r="717" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R717" s="2"/>
     </row>
-    <row r="718" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R718" s="2"/>
     </row>
-    <row r="719" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R719" s="2"/>
     </row>
-    <row r="720" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R720" s="2"/>
     </row>
-    <row r="721" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R721" s="2"/>
     </row>
-    <row r="722" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R722" s="2"/>
     </row>
-    <row r="723" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R723" s="2"/>
     </row>
-    <row r="724" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R724" s="2"/>
     </row>
-    <row r="725" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R725" s="2"/>
     </row>
-    <row r="726" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R726" s="2"/>
     </row>
-    <row r="727" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R727" s="2"/>
     </row>
-    <row r="728" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R728" s="2"/>
     </row>
-    <row r="729" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R729" s="2"/>
     </row>
-    <row r="730" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R730" s="2"/>
     </row>
-    <row r="731" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R731" s="2"/>
     </row>
-    <row r="732" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R732" s="2"/>
     </row>
-    <row r="733" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R733" s="2"/>
     </row>
-    <row r="734" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R734" s="2"/>
     </row>
-    <row r="735" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R735" s="2"/>
     </row>
-    <row r="736" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R736" s="2"/>
     </row>
-    <row r="737" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R737" s="2"/>
     </row>
-    <row r="738" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R738" s="2"/>
     </row>
-    <row r="739" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R739" s="2"/>
     </row>
-    <row r="740" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R740" s="2"/>
     </row>
-    <row r="741" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R741" s="2"/>
     </row>
-    <row r="742" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R742" s="2"/>
     </row>
-    <row r="743" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R743" s="2"/>
     </row>
-    <row r="744" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R744" s="2"/>
     </row>
-    <row r="745" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R745" s="2"/>
     </row>
-    <row r="746" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R746" s="2"/>
     </row>
-    <row r="747" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R747" s="2"/>
     </row>
-    <row r="748" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R748" s="2"/>
     </row>
-    <row r="749" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R749" s="2"/>
     </row>
-    <row r="750" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R750" s="2"/>
     </row>
-    <row r="751" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R751" s="2"/>
     </row>
-    <row r="752" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R752" s="2"/>
     </row>
-    <row r="753" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R753" s="2"/>
     </row>
-    <row r="754" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R754" s="2"/>
     </row>
-    <row r="755" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R755" s="2"/>
     </row>
-    <row r="756" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R756" s="2"/>
     </row>
-    <row r="757" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R757" s="2"/>
     </row>
-    <row r="758" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R758" s="2"/>
     </row>
-    <row r="759" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R759" s="2"/>
     </row>
-    <row r="760" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R760" s="2"/>
     </row>
-    <row r="761" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R761" s="2"/>
     </row>
-    <row r="762" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R762" s="2"/>
     </row>
-    <row r="763" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R763" s="2"/>
     </row>
-    <row r="764" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R764" s="2"/>
     </row>
-    <row r="765" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R765" s="2"/>
     </row>
-    <row r="766" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R766" s="2"/>
     </row>
-    <row r="767" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R767" s="2"/>
     </row>
-    <row r="768" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R768" s="2"/>
     </row>
-    <row r="769" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R769" s="2"/>
     </row>
-    <row r="770" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R770" s="2"/>
     </row>
-    <row r="771" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R771" s="2"/>
     </row>
-    <row r="772" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R772" s="2"/>
     </row>
-    <row r="773" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R773" s="2"/>
     </row>
-    <row r="774" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R774" s="2"/>
     </row>
-    <row r="775" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R775" s="2"/>
     </row>
-    <row r="776" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R776" s="2"/>
     </row>
-    <row r="777" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R777" s="2"/>
     </row>
-    <row r="778" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R778" s="2"/>
     </row>
-    <row r="779" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R779" s="2"/>
     </row>
-    <row r="780" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R780" s="2"/>
     </row>
-    <row r="781" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R781" s="2"/>
     </row>
-    <row r="782" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R782" s="2"/>
     </row>
-    <row r="783" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R783" s="2"/>
     </row>
-    <row r="784" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R784" s="2"/>
     </row>
-    <row r="785" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R785" s="2"/>
     </row>
-    <row r="786" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R786" s="2"/>
     </row>
-    <row r="787" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R787" s="2"/>
     </row>
-    <row r="788" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R788" s="2"/>
     </row>
-    <row r="789" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R789" s="2"/>
     </row>
-    <row r="790" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R790" s="2"/>
     </row>
-    <row r="791" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R791" s="2"/>
     </row>
-    <row r="792" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R792" s="2"/>
     </row>
-    <row r="793" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R793" s="2"/>
     </row>
-    <row r="794" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R794" s="2"/>
     </row>
-    <row r="795" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R795" s="2"/>
     </row>
-    <row r="796" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R796" s="2"/>
     </row>
-    <row r="797" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R797" s="2"/>
     </row>
-    <row r="798" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R798" s="2"/>
     </row>
-    <row r="799" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R799" s="2"/>
     </row>
-    <row r="800" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R800" s="2"/>
     </row>
-    <row r="801" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R801" s="2"/>
     </row>
-    <row r="802" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R802" s="2"/>
     </row>
-    <row r="803" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R803" s="2"/>
     </row>
-    <row r="804" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R804" s="2"/>
     </row>
-    <row r="805" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R805" s="2"/>
     </row>
-    <row r="806" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R806" s="2"/>
     </row>
-    <row r="807" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R807" s="2"/>
     </row>
-    <row r="808" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R808" s="2"/>
     </row>
-    <row r="809" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R809" s="2"/>
     </row>
-    <row r="810" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R810" s="2"/>
     </row>
-    <row r="811" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R811" s="2"/>
     </row>
-    <row r="812" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R812" s="2"/>
     </row>
-    <row r="813" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R813" s="2"/>
     </row>
-    <row r="814" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R814" s="2"/>
     </row>
-    <row r="815" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R815" s="2"/>
     </row>
-    <row r="816" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R816" s="2"/>
     </row>
-    <row r="817" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R817" s="2"/>
     </row>
-    <row r="818" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R818" s="2"/>
     </row>
-    <row r="819" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R819" s="2"/>
     </row>
-    <row r="820" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R820" s="2"/>
     </row>
-    <row r="821" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R821" s="2"/>
     </row>
-    <row r="822" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R822" s="2"/>
     </row>
-    <row r="823" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R823" s="2"/>
     </row>
-    <row r="824" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R824" s="2"/>
     </row>
-    <row r="825" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R825" s="2"/>
     </row>
-    <row r="826" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R826" s="2"/>
     </row>
-    <row r="827" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R827" s="2"/>
     </row>
-    <row r="828" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R828" s="2"/>
     </row>
-    <row r="829" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R829" s="2"/>
     </row>
-    <row r="830" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R830" s="2"/>
     </row>
-    <row r="831" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R831" s="2"/>
     </row>
-    <row r="832" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R832" s="2"/>
     </row>
-    <row r="833" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R833" s="2"/>
     </row>
-    <row r="834" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R834" s="2"/>
     </row>
-    <row r="835" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R835" s="2"/>
     </row>
-    <row r="836" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R836" s="2"/>
     </row>
-    <row r="837" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R837" s="2"/>
     </row>
-    <row r="838" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R838" s="2"/>
     </row>
-    <row r="839" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R839" s="2"/>
     </row>
-    <row r="840" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R840" s="2"/>
     </row>
-    <row r="841" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R841" s="2"/>
     </row>
-    <row r="842" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R842" s="2"/>
     </row>
-    <row r="843" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R843" s="2"/>
     </row>
-    <row r="844" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R844" s="2"/>
     </row>
-    <row r="845" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R845" s="2"/>
     </row>
-    <row r="846" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R846" s="2"/>
     </row>
-    <row r="847" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R847" s="2"/>
     </row>
-    <row r="848" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R848" s="2"/>
     </row>
-    <row r="849" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R849" s="2"/>
     </row>
-    <row r="850" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R850" s="2"/>
     </row>
-    <row r="851" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R851" s="2"/>
     </row>
-    <row r="852" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R852" s="2"/>
     </row>
-    <row r="853" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R853" s="2"/>
     </row>
-    <row r="854" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R854" s="2"/>
     </row>
-    <row r="855" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R855" s="2"/>
     </row>
-    <row r="856" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R856" s="2"/>
     </row>
-    <row r="857" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R857" s="2"/>
     </row>
-    <row r="858" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R858" s="2"/>
     </row>
-    <row r="859" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R859" s="2"/>
     </row>
-    <row r="860" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R860" s="2"/>
     </row>
-    <row r="861" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R861" s="2"/>
     </row>
-    <row r="862" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R862" s="2"/>
     </row>
-    <row r="863" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R863" s="2"/>
     </row>
-    <row r="864" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R864" s="2"/>
     </row>
-    <row r="865" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R865" s="2"/>
     </row>
-    <row r="866" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R866" s="2"/>
     </row>
-    <row r="867" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R867" s="2"/>
     </row>
-    <row r="868" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R868" s="2"/>
     </row>
-    <row r="869" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R869" s="2"/>
     </row>
-    <row r="870" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R870" s="2"/>
     </row>
-    <row r="871" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R871" s="2"/>
     </row>
-    <row r="872" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R872" s="2"/>
     </row>
-    <row r="873" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R873" s="2"/>
     </row>
-    <row r="874" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R874" s="2"/>
     </row>
-    <row r="875" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R875" s="2"/>
     </row>
-    <row r="876" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R876" s="2"/>
     </row>
-    <row r="877" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R877" s="2"/>
     </row>
-    <row r="878" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R878" s="2"/>
     </row>
-    <row r="879" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R879" s="2"/>
     </row>
-    <row r="880" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R880" s="2"/>
     </row>
-    <row r="881" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R881" s="2"/>
     </row>
-    <row r="882" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R882" s="2"/>
     </row>
-    <row r="883" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R883" s="2"/>
     </row>
-    <row r="884" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R884" s="2"/>
     </row>
-    <row r="885" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R885" s="2"/>
     </row>
-    <row r="886" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R886" s="2"/>
     </row>
-    <row r="887" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R887" s="2"/>
     </row>
-    <row r="888" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R888" s="2"/>
     </row>
-    <row r="889" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R889" s="2"/>
     </row>
-    <row r="890" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R890" s="2"/>
     </row>
-    <row r="891" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R891" s="2"/>
     </row>
-    <row r="892" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R892" s="2"/>
     </row>
-    <row r="893" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R893" s="2"/>
     </row>
-    <row r="894" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R894" s="2"/>
     </row>
-    <row r="895" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R895" s="2"/>
     </row>
-    <row r="896" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R896" s="2"/>
     </row>
-    <row r="897" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R897" s="2"/>
     </row>
-    <row r="898" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R898" s="2"/>
     </row>
-    <row r="899" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R899" s="2"/>
     </row>
-    <row r="900" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R900" s="2"/>
     </row>
-    <row r="901" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R901" s="2"/>
     </row>
-    <row r="902" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R902" s="2"/>
     </row>
-    <row r="903" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R903" s="2"/>
     </row>
-    <row r="904" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R904" s="2"/>
     </row>
-    <row r="905" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R905" s="2"/>
     </row>
-    <row r="906" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R906" s="2"/>
     </row>
-    <row r="907" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R907" s="2"/>
     </row>
-    <row r="908" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R908" s="2"/>
     </row>
-    <row r="909" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R909" s="2"/>
     </row>
-    <row r="910" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R910" s="2"/>
     </row>
-    <row r="911" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R911" s="2"/>
     </row>
-    <row r="912" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R912" s="2"/>
     </row>
-    <row r="913" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R913" s="2"/>
     </row>
-    <row r="914" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R914" s="2"/>
     </row>
-    <row r="915" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R915" s="2"/>
     </row>
-    <row r="916" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R916" s="2"/>
     </row>
-    <row r="917" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R917" s="2"/>
     </row>
-    <row r="918" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R918" s="2"/>
     </row>
-    <row r="919" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R919" s="2"/>
     </row>
-    <row r="920" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R920" s="2"/>
     </row>
-    <row r="921" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R921" s="2"/>
     </row>
-    <row r="922" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R922" s="2"/>
     </row>
-    <row r="923" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R923" s="2"/>
     </row>
-    <row r="924" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R924" s="2"/>
     </row>
-    <row r="925" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R925" s="2"/>
     </row>
-    <row r="926" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R926" s="2"/>
     </row>
-    <row r="927" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R927" s="2"/>
     </row>
-    <row r="928" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R928" s="2"/>
     </row>
-    <row r="929" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R929" s="2"/>
     </row>
-    <row r="930" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R930" s="2"/>
     </row>
-    <row r="931" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R931" s="2"/>
     </row>
-    <row r="932" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R932" s="2"/>
     </row>
-    <row r="933" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R933" s="2"/>
     </row>
-    <row r="934" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R934" s="2"/>
     </row>
-    <row r="935" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R935" s="2"/>
     </row>
-    <row r="936" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R936" s="2"/>
     </row>
-    <row r="937" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R937" s="2"/>
     </row>
-    <row r="938" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R938" s="2"/>
     </row>
-    <row r="939" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R939" s="2"/>
     </row>
-    <row r="940" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R940" s="2"/>
     </row>
-    <row r="941" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R941" s="2"/>
     </row>
-    <row r="942" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R942" s="2"/>
     </row>
-    <row r="943" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R943" s="2"/>
     </row>
-    <row r="944" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R944" s="2"/>
     </row>
-    <row r="945" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R945" s="2"/>
     </row>
-    <row r="946" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R946" s="2"/>
     </row>
-    <row r="947" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R947" s="2"/>
     </row>
-    <row r="948" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R948" s="2"/>
     </row>
-    <row r="949" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R949" s="2"/>
     </row>
-    <row r="950" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R950" s="2"/>
     </row>
-    <row r="951" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R951" s="2"/>
     </row>
-    <row r="952" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R952" s="2"/>
     </row>
-    <row r="953" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R953" s="2"/>
     </row>
-    <row r="954" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R954" s="2"/>
     </row>
-    <row r="955" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R955" s="2"/>
     </row>
-    <row r="956" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R956" s="2"/>
     </row>
-    <row r="957" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R957" s="2"/>
     </row>
-    <row r="958" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R958" s="2"/>
     </row>
-    <row r="959" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R959" s="2"/>
     </row>
-    <row r="960" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R960" s="2"/>
     </row>
-    <row r="961" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R961" s="2"/>
     </row>
-    <row r="962" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R962" s="2"/>
     </row>
-    <row r="963" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R963" s="2"/>
     </row>
-    <row r="964" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R964" s="2"/>
     </row>
-    <row r="965" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R965" s="2"/>
     </row>
-    <row r="966" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R966" s="2"/>
     </row>
-    <row r="967" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R967" s="2"/>
     </row>
-    <row r="968" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R968" s="2"/>
     </row>
-    <row r="969" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R969" s="2"/>
     </row>
-    <row r="970" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R970" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
     <mergeCell ref="P60:Q60"/>
     <mergeCell ref="P61:Q61"/>
     <mergeCell ref="P62:Q62"/>
@@ -6242,8 +6717,6 @@
     <mergeCell ref="P55:Q55"/>
     <mergeCell ref="P56:Q56"/>
     <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P42:Q42"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P44:Q44"/>
@@ -6251,15 +6724,8 @@
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="P85:Q85"/>
     <mergeCell ref="P93:Q93"/>
@@ -6303,6 +6769,17 @@
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
@@ -6312,6 +6789,21 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I40:L40"/>
     <mergeCell ref="I41:L41"/>
@@ -6321,11 +6813,6 @@
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="M41:O41"/>
     <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
@@ -6335,15 +6822,6 @@
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M35:O35"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:O1"/>
@@ -6377,6 +6855,21 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M51:O51"/>
     <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="M54:O54"/>
     <mergeCell ref="B14:D14"/>
@@ -6401,18 +6894,6 @@
     <mergeCell ref="M34:O34"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
     <mergeCell ref="M64:O64"/>
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="M66:O66"/>
@@ -6475,15 +6956,6 @@
     <mergeCell ref="I61:L61"/>
     <mergeCell ref="I62:L62"/>
     <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
     <mergeCell ref="I34:L34"/>
     <mergeCell ref="I24:L24"/>
     <mergeCell ref="I25:L25"/>
@@ -6494,7 +6966,6 @@
     <mergeCell ref="I30:L30"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I22:L22"/>
@@ -6504,6 +6975,21 @@
     <mergeCell ref="I84:L84"/>
     <mergeCell ref="I92:L92"/>
     <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
     <mergeCell ref="I94:L94"/>
     <mergeCell ref="I95:L95"/>
     <mergeCell ref="I85:L85"/>
@@ -6513,15 +6999,6 @@
     <mergeCell ref="I89:L89"/>
     <mergeCell ref="I90:L90"/>
     <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I72:L72"/>
@@ -6545,6 +7022,7 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
@@ -6567,6 +7045,8 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="E94:H94"/>
     <mergeCell ref="E95:H95"/>
     <mergeCell ref="E89:H89"/>
@@ -6603,17 +7083,6 @@
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
     <mergeCell ref="E43:H43"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="E33:H33"/>
@@ -6624,13 +7093,15 @@
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
     <mergeCell ref="E82:H82"/>
     <mergeCell ref="E83:H83"/>
     <mergeCell ref="E75:H75"/>
@@ -6640,16 +7111,6 @@
     <mergeCell ref="E79:H79"/>
     <mergeCell ref="E80:H80"/>
     <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E55:H55"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="E64:H64"/>
     <mergeCell ref="E65:H65"/>
@@ -6660,7 +7121,6 @@
     <mergeCell ref="E61:H61"/>
     <mergeCell ref="E62:H62"/>
     <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
@@ -6669,6 +7129,22 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
@@ -6691,6 +7167,8 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B88:D88"/>
@@ -6700,8 +7178,8 @@
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R1:R970" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Status,Passed,Failed"</formula1>

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA38E2-6C70-40D2-80EC-174CB127B4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEC3209-9BC0-4F4A-9E6A-22633532CAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,6 +1213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,34 +1287,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1320,42 +1347,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,10 +1582,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R970"/>
+  <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1586,1544 +1594,1549 @@
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="28"/>
-    <col min="14" max="14" width="21" style="28" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="5"/>
+    <col min="14" max="14" width="21" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="5" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="25" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="22"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="11"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="15" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="11"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="11"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="11"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="4" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="11"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="4" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="11"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="4" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="11"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="11"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="11"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="11"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="4" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="11"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="4" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="11"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="4" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="11"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="4" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="11"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="4" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="11"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="4" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="11"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="11"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="11"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="11"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="11"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="11"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="11"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="11"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="11"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="11"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="11"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="11"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="11"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="11"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="11"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="29"/>
-    </row>
-    <row r="35" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="37"/>
+    </row>
+    <row r="35" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="11"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="4" t="s">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="11"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="11"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="11"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="11"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="22" t="s">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="11"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="4" t="s">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="11"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="4" t="s">
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="11"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="29"/>
-    </row>
-    <row r="44" spans="1:18" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="4" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="11"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="4" t="s">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="11"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="11"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="19"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="11"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="19"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="11"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="19"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="11"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="11"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="4" t="s">
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N51" s="18"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="11"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="4" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="4" t="s">
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="11"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -3133,947 +3146,947 @@
       <c r="B53" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="11"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="19"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="11"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="19"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="11"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="19"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="15"/>
       <c r="M56" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="11"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="4" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="11"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="N57" s="18"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="11"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="11"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="4" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="19"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
       <c r="M59" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N59" s="18"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="11"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="4" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="19"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="15"/>
       <c r="M60" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="11"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="15"/>
       <c r="M61" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="N61" s="18"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="11"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="11"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="11"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="11"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="11"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="11"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="11"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="11"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="11"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="11"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="9"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="11"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="11"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="11"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="11"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="9"/>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="11"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="11"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="9"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="11"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="11"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="11"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="11"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="9"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="11"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="11"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="9"/>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="11"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="11"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="11"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="11"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="11"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="11"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="9"/>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="11"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="9"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="11"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="11"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="9"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="11"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="9"/>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="11"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="9"/>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="11"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="11"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
@@ -6703,59 +6716,404 @@
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
@@ -6780,404 +7138,59 @@
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F1260-6D85-4703-94CB-ADA55D84DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44F2B0-058C-491E-ADA6-16B25ACEF975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,11 +811,6 @@
     <t xml:space="preserve">	1. Existing product in system</t>
   </si>
   <si>
-    <t>1. Click "Edit" on product
-2. Change price to "600"
-3. Click "Save"</t>
-  </si>
-  <si>
     <t>The product is updated successfully with new price</t>
   </si>
   <si>
@@ -823,10 +818,6 @@
   </si>
   <si>
     <t>Validate deleting product</t>
-  </si>
-  <si>
-    <t>1. Click "Delete" on product
-2. Confirm deletion</t>
   </si>
   <si>
     <t>The product is removed from the products list</t>
@@ -1101,6 +1092,15 @@
   </si>
   <si>
     <t xml:space="preserve">Error message: "Please enter valid data" </t>
+  </si>
+  <si>
+    <t>1.Search for the product using its Product ID                  2. Click "Edit" on product
+3. Change product details (e.g., price to "600", product photo, version, platform as needed)
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>1.Search for the product using its Product ID                                                                                                       2. Click "Delete" on product
+3. Confirm deletion</t>
   </si>
 </sst>
 </file>
@@ -1259,38 +1259,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,6 +1279,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1313,14 +1306,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,8 +1542,8 @@
   </sheetPr>
   <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:O4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1563,32 +1563,32 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1598,530 +1598,530 @@
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="15" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="19"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="19"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="19"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="19"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="9" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="19"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="9" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="19"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="19"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="15" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="9" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="19"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="15" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="19"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="15" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="19"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="15" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="15" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="19"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="15" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="9" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="19"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="15" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="9" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="19"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="15" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="9" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="19"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="15" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="9" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="19"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="15" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="9" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="19"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="15" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="9" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="19"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="22"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="6"/>
       <c r="S19" s="8"/>
     </row>
@@ -2129,440 +2129,440 @@
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="15" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="15" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="19"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="15" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="15" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="19"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="15" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="15" t="s">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="19"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="15" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="19"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="15" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="15" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="19"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="15" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="15" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="15" t="s">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="19"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="15" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="15" t="s">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="19"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="15" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="15" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="19"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="11"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="15" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="15" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="18"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="19"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="11"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="15" t="s">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="18"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="19"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="11"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="15" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="15" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="19"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="15" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="15" t="s">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="19"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="11"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="15" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="15" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="15" t="s">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="18"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="19"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="15" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="15" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="15" t="s">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="19"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="22"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
       <c r="R34" s="6"/>
       <c r="S34" s="8"/>
     </row>
@@ -2570,1481 +2570,1481 @@
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="15" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="15" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="15" t="s">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N35" s="18"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="19"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="11"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="9" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="15" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="9" t="s">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="19"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="11"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="9" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="15" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="19"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="11"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="9" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="15" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="19"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="11"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="9" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="15" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N39" s="16"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="19"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="11"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="9" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="15" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="19"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="11"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="9" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="15" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="19"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="11"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="N42" s="18"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="19"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="11"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="22"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="19"/>
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N44" s="16"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="19"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="11"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:19" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="9" t="s">
+      <c r="B45" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="19"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="11"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="15" t="s">
+      <c r="B46" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="N46" s="16"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="19"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="11"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="N47" s="16"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N47" s="13"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="11"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="N48" s="16"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="11"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="N49" s="16"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="19"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="11"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="N50" s="16"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N50" s="13"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="11"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="N51" s="16"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="19"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="11"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="9" t="s">
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="N52" s="16"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="19"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="11"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="N53" s="18"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="11"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="N54" s="16"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="19"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="N54" s="13"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="11"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="19"/>
+        <v>159</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="11"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N56" s="16"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N56" s="13"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="11"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="N57" s="16"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="11"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="15" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="N58" s="18"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="19"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="11"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="9" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="N59" s="16"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="19"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="11"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="15" t="s">
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N60" s="16"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="19"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="11"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="19"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N61" s="13"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="11"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="19"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="11"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="19"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="11"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="19"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="11"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="19"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="11"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="19"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="11"/>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="19"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="11"/>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="19"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="11"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="19"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="11"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="19"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="11"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="19"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="11"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="19"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="11"/>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="19"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="11"/>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="19"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="11"/>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="19"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="11"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="19"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="11"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="19"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="11"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="19"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="11"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="19"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="11"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="19"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="11"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="19"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="11"/>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="19"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="11"/>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="19"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="11"/>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="19"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="11"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="19"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="11"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="19"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="11"/>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="19"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="11"/>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="19"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="11"/>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="19"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="11"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="19"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="11"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="19"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="11"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="19"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="11"/>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="19"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="11"/>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="19"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="11"/>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="19"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="11"/>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -6674,81 +6674,382 @@
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
@@ -6773,382 +7074,81 @@
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44F2B0-058C-491E-ADA6-16B25ACEF975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DAB00C-E5CF-4A43-9A88-6206B9A716E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="234">
   <si>
     <t>Test case ID</t>
   </si>
@@ -1101,6 +1101,11 @@
   <si>
     <t>1.Search for the product using its Product ID                                                                                                       2. Click "Delete" on product
 3. Confirm deletion</t>
+  </si>
+  <si>
+    <t>1. Type "valid-email" in email field
+2. Fill other fields with valid data
+3. Click "Register"</t>
   </si>
 </sst>
 </file>
@@ -1265,36 +1270,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,21 +1303,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,8 +1547,8 @@
   </sheetPr>
   <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:L42"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1563,12 +1568,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="25"/>
@@ -1585,7 +1590,7 @@
       </c>
       <c r="N1" s="28"/>
       <c r="O1" s="29"/>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="26"/>
@@ -1601,8 +1606,8 @@
       <c r="B2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1631,8 +1636,8 @@
       <c r="B3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="12" t="s">
         <v>62</v>
       </c>
@@ -1645,11 +1650,11 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="3"/>
@@ -1661,8 +1666,8 @@
       <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="12" t="s">
         <v>62</v>
       </c>
@@ -1678,8 +1683,8 @@
       <c r="M4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="3"/>
@@ -1691,8 +1696,8 @@
       <c r="B5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="12" t="s">
         <v>69</v>
       </c>
@@ -1708,8 +1713,8 @@
       <c r="M5" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="3"/>
@@ -1721,8 +1726,8 @@
       <c r="B6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="12" t="s">
         <v>62</v>
       </c>
@@ -1751,8 +1756,8 @@
       <c r="B7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="12" t="s">
         <v>76</v>
       </c>
@@ -1760,7 +1765,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="9" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1781,8 +1786,8 @@
       <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="12" t="s">
         <v>62</v>
       </c>
@@ -1798,8 +1803,8 @@
       <c r="M8" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="3"/>
@@ -1811,8 +1816,8 @@
       <c r="B9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="12" t="s">
         <v>62</v>
       </c>
@@ -1841,8 +1846,8 @@
       <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="12" t="s">
         <v>62</v>
       </c>
@@ -1858,8 +1863,8 @@
       <c r="M10" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="3"/>
@@ -1871,8 +1876,8 @@
       <c r="B11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="12" t="s">
         <v>62</v>
       </c>
@@ -1888,8 +1893,8 @@
       <c r="M11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="3"/>
@@ -1901,8 +1906,8 @@
       <c r="B12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="12" t="s">
         <v>62</v>
       </c>
@@ -1918,8 +1923,8 @@
       <c r="M12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="3"/>
@@ -1931,8 +1936,8 @@
       <c r="B13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="12" t="s">
         <v>62</v>
       </c>
@@ -1961,8 +1966,8 @@
       <c r="B14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12" t="s">
         <v>62</v>
       </c>
@@ -1991,8 +1996,8 @@
       <c r="B15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12" t="s">
         <v>102</v>
       </c>
@@ -2021,8 +2026,8 @@
       <c r="B16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2051,8 +2056,8 @@
       <c r="B17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
@@ -2081,8 +2086,8 @@
       <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="12" t="s">
         <v>62</v>
       </c>
@@ -2106,22 +2111,22 @@
     </row>
     <row r="19" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="24"/>
       <c r="R19" s="6"/>
       <c r="S19" s="8"/>
     </row>
@@ -2132,8 +2137,8 @@
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="9" t="s">
         <v>8</v>
       </c>
@@ -2162,8 +2167,8 @@
       <c r="B21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2192,8 +2197,8 @@
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
@@ -2222,8 +2227,8 @@
       <c r="B23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
@@ -2252,8 +2257,8 @@
       <c r="B24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="9" t="s">
         <v>8</v>
       </c>
@@ -2269,8 +2274,8 @@
       <c r="M24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="3"/>
@@ -2282,8 +2287,8 @@
       <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
@@ -2299,8 +2304,8 @@
       <c r="M25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="3"/>
@@ -2312,8 +2317,8 @@
       <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="9" t="s">
         <v>8</v>
       </c>
@@ -2342,8 +2347,8 @@
       <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="9" t="s">
         <v>8</v>
       </c>
@@ -2372,8 +2377,8 @@
       <c r="B28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="9" t="s">
         <v>8</v>
       </c>
@@ -2402,8 +2407,8 @@
       <c r="B29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="9" t="s">
         <v>8</v>
       </c>
@@ -2432,8 +2437,8 @@
       <c r="B30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="9" t="s">
         <v>8</v>
       </c>
@@ -2462,8 +2467,8 @@
       <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="9" t="s">
         <v>8</v>
       </c>
@@ -2492,8 +2497,8 @@
       <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="9" t="s">
         <v>8</v>
       </c>
@@ -2522,8 +2527,8 @@
       <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="9" t="s">
         <v>8</v>
       </c>
@@ -2547,22 +2552,22 @@
     </row>
     <row r="34" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="24"/>
       <c r="R34" s="6"/>
       <c r="S34" s="8"/>
     </row>
@@ -2573,8 +2578,8 @@
       <c r="B35" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="9" t="s">
         <v>116</v>
       </c>
@@ -2603,8 +2608,8 @@
       <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="12" t="s">
         <v>121</v>
       </c>
@@ -2633,8 +2638,8 @@
       <c r="B37" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="12" t="s">
         <v>121</v>
       </c>
@@ -2650,8 +2655,8 @@
       <c r="M37" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="3"/>
@@ -2663,8 +2668,8 @@
       <c r="B38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="12" t="s">
         <v>121</v>
       </c>
@@ -2680,8 +2685,8 @@
       <c r="M38" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="14"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="3"/>
@@ -2693,8 +2698,8 @@
       <c r="B39" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="12" t="s">
         <v>121</v>
       </c>
@@ -2710,8 +2715,8 @@
       <c r="M39" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="3"/>
@@ -2723,8 +2728,8 @@
       <c r="B40" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="12" t="s">
         <v>121</v>
       </c>
@@ -2737,11 +2742,11 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="23"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="32"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="3"/>
@@ -2753,8 +2758,8 @@
       <c r="B41" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="12" t="s">
         <v>138</v>
       </c>
@@ -2783,8 +2788,8 @@
       <c r="B42" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="12" t="s">
         <v>138</v>
       </c>
@@ -2808,22 +2813,22 @@
     </row>
     <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="24"/>
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
     </row>
@@ -2834,8 +2839,8 @@
       <c r="B44" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="12" t="s">
         <v>221</v>
       </c>
@@ -2851,8 +2856,8 @@
       <c r="M44" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="14"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="19"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="3"/>
@@ -2864,8 +2869,8 @@
       <c r="B45" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="12" t="s">
         <v>147</v>
       </c>
@@ -2881,8 +2886,8 @@
       <c r="M45" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="13"/>
-      <c r="O45" s="14"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="19"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="3"/>
@@ -2894,8 +2899,8 @@
       <c r="B46" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="12" t="s">
         <v>148</v>
       </c>
@@ -2905,14 +2910,14 @@
       <c r="I46" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
       <c r="M46" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="13"/>
-      <c r="O46" s="14"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="19"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="3"/>
@@ -2924,8 +2929,8 @@
       <c r="B47" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="12" t="s">
         <v>177</v>
       </c>
@@ -2935,14 +2940,14 @@
       <c r="I47" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="13"/>
-      <c r="O47" s="14"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="19"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="3"/>
@@ -2954,8 +2959,8 @@
       <c r="B48" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="12" t="s">
         <v>176</v>
       </c>
@@ -2965,14 +2970,14 @@
       <c r="I48" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="N48" s="13"/>
-      <c r="O48" s="14"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="19"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="3"/>
@@ -2984,8 +2989,8 @@
       <c r="B49" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="12" t="s">
         <v>175</v>
       </c>
@@ -2995,14 +3000,14 @@
       <c r="I49" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="14"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="19"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="3"/>
@@ -3014,8 +3019,8 @@
       <c r="B50" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="12" t="s">
         <v>174</v>
       </c>
@@ -3025,14 +3030,14 @@
       <c r="I50" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="14"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
       <c r="M50" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="N50" s="13"/>
-      <c r="O50" s="14"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="3"/>
@@ -3044,8 +3049,8 @@
       <c r="B51" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="12" t="s">
         <v>189</v>
       </c>
@@ -3061,8 +3066,8 @@
       <c r="M51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="3"/>
@@ -3074,8 +3079,8 @@
       <c r="B52" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="12" t="s">
         <v>190</v>
       </c>
@@ -3091,8 +3096,8 @@
       <c r="M52" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="N52" s="13"/>
-      <c r="O52" s="14"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="19"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="3"/>
@@ -3104,14 +3109,14 @@
       <c r="B53" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="9" t="s">
         <v>217</v>
       </c>
@@ -3134,25 +3139,25 @@
       <c r="B54" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="14"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="N54" s="13"/>
-      <c r="O54" s="14"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="19"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="3"/>
@@ -3164,25 +3169,25 @@
       <c r="B55" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19"/>
       <c r="M55" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="N55" s="13"/>
-      <c r="O55" s="14"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="3"/>
@@ -3194,25 +3199,25 @@
       <c r="B56" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="14"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="19"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="3"/>
@@ -3224,14 +3229,14 @@
       <c r="B57" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="12" t="s">
         <v>188</v>
       </c>
@@ -3241,8 +3246,8 @@
       <c r="M57" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="19"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="3"/>
@@ -3254,8 +3259,8 @@
       <c r="B58" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="9" t="s">
         <v>204</v>
       </c>
@@ -3284,8 +3289,8 @@
       <c r="B59" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="12" t="s">
         <v>205</v>
       </c>
@@ -3295,14 +3300,14 @@
       <c r="I59" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="14"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="19"/>
       <c r="M59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="N59" s="13"/>
-      <c r="O59" s="14"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="3"/>
@@ -3314,8 +3319,8 @@
       <c r="B60" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="12" t="s">
         <v>210</v>
       </c>
@@ -3325,14 +3330,14 @@
       <c r="I60" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="14"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19"/>
       <c r="M60" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="N60" s="13"/>
-      <c r="O60" s="14"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="19"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="3"/>
@@ -3344,25 +3349,25 @@
       <c r="B61" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="14"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="N61" s="13"/>
-      <c r="O61" s="14"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="19"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="3"/>
@@ -3370,8 +3375,8 @@
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="12"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -3390,8 +3395,8 @@
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="12"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -3410,8 +3415,8 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="12"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -3430,8 +3435,8 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="12"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -3450,8 +3455,8 @@
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="12"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -3470,8 +3475,8 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="12"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -3490,8 +3495,8 @@
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="12"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -3510,8 +3515,8 @@
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="12"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -3530,8 +3535,8 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="12"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -3550,8 +3555,8 @@
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="12"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -3570,8 +3575,8 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="12"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -3590,8 +3595,8 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="12"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -3610,8 +3615,8 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="12"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -3630,8 +3635,8 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="12"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -3650,8 +3655,8 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="12"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -3670,8 +3675,8 @@
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="12"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -3690,8 +3695,8 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="12"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -3710,8 +3715,8 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="12"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -3730,8 +3735,8 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="12"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -3750,8 +3755,8 @@
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="12"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -3770,8 +3775,8 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="12"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -3790,8 +3795,8 @@
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="12"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -3810,8 +3815,8 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="12"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -3830,8 +3835,8 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="12"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -3850,8 +3855,8 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="12"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -3870,8 +3875,8 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="12"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -3890,8 +3895,8 @@
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="12"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -3910,8 +3915,8 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="12"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -3930,8 +3935,8 @@
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="31"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="12"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -3950,8 +3955,8 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="12"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
@@ -3970,8 +3975,8 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="31"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="12"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -3990,8 +3995,8 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="12"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -4010,8 +4015,8 @@
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="12"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -4030,8 +4035,8 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="12"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
@@ -6674,16 +6679,433 @@
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
@@ -6708,30 +7130,16 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="E64:H64"/>
     <mergeCell ref="E65:H65"/>
@@ -6746,409 +7154,6 @@
     <mergeCell ref="E83:H83"/>
     <mergeCell ref="E75:H75"/>
     <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DAB00C-E5CF-4A43-9A88-6206B9A716E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765E4D26-A84C-4F40-8F06-03CDD38426FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="253">
   <si>
     <t>Test case ID</t>
   </si>
@@ -1106,6 +1106,64 @@
     <t>1. Type "valid-email" in email field
 2. Fill other fields with valid data
 3. Click "Register"</t>
+  </si>
+  <si>
+    <t>Wire Frame ID</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_002</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_001</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_013</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_012</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_011</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_010</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_009</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_008</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_007</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_006</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_005</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_004</t>
+  </si>
+  <si>
+    <t>WireFrame_Reg_003</t>
+  </si>
+  <si>
+    <t>WireFrame_Client_001</t>
+  </si>
+  <si>
+    <t>WireFrame_Client_002
+WireFrame_Client_003</t>
+  </si>
+  <si>
+    <t>WireFrame_Client_004</t>
+  </si>
+  <si>
+    <t>Wireframe_Checkout_001</t>
+  </si>
+  <si>
+    <t>Wireframe_Checkout_002</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,14 +1237,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1246,40 +1298,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1287,22 +1341,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1318,15 +1368,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,33 +1613,33 @@
   </sheetPr>
   <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:L9"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="5"/>
-    <col min="14" max="14" width="21" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="4"/>
+    <col min="14" max="14" width="21" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="4" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="8"/>
+    <col min="19" max="19" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="25"/>
@@ -1590,5165 +1656,5547 @@
       </c>
       <c r="N1" s="28"/>
       <c r="O1" s="29"/>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="26"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="11"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="35" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="11"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="9" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="9" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="11"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="11"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="9" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="9" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="11"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12" t="s">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12" t="s">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="9" t="s">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="11"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="9" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="11"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="9" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="9" t="s">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="11"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="9" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="11"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="9" t="s">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="11"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="9" t="s">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="11"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="9" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="9" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="11"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="9" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="9" t="s">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="11"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="9" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="9" t="s">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="11"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="9" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="9" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="11"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="9" t="s">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="11"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="9" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="9" t="s">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="11"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="9" t="s">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="11"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="9" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="9" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="11"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="9" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="9" t="s">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="11"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="12" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="9" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12" t="s">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="11"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="12" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="9" t="s">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="12" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="9" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="9" t="s">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="12" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="9" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="9" t="s">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="12" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="30" t="s">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="N40" s="31"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="11"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="12" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="9" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12" t="s">
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="11"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="12" t="s">
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="11"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="8"/>
-    </row>
-    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="12" t="s">
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="12" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="9" t="s">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="9" t="s">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="12" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="9" t="s">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="9" t="s">
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S46" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="12" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="9" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="9" t="s">
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="12" t="s">
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="9" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="9" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="12" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="9" t="s">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="9" t="s">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="12" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="9" t="s">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="9" t="s">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="12" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12" t="s">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="9" t="s">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N51" s="18"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="12" t="s">
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="12" t="s">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="9" t="s">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="9" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="9" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="9" t="s">
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="11"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="9" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="9" t="s">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="9" t="s">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="9" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="9" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="9" t="s">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="9" t="s">
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="9" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="9" t="s">
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="9" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="12" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="9" t="s">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="N57" s="18"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="9" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="9" t="s">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="9" t="s">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="11"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="12" t="s">
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="9" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="9" t="s">
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="N59" s="18"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="12" t="s">
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="9" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="9" t="s">
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="9" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="9" t="s">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="9" t="s">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="N61" s="18"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="11"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="11"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="11"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="11"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="11"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="11"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="11"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="11"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="11"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="9"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="11"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="11"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="11"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="11"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="9"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="11"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="11"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="9"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="11"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="11"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="11"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="11"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="9"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="11"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="11"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="9"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="11"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="11"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="11"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="11"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="11"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="11"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="9"/>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="11"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="9"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="11"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="11"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="9"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="11"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="9"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="11"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="9"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="11"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="11"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R253" s="2"/>
     </row>
-    <row r="254" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R254" s="2"/>
     </row>
-    <row r="255" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R259" s="2"/>
     </row>
-    <row r="260" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R270" s="2"/>
     </row>
-    <row r="271" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R271" s="2"/>
     </row>
-    <row r="272" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R273" s="2"/>
     </row>
-    <row r="274" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R274" s="2"/>
     </row>
-    <row r="275" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R276" s="2"/>
     </row>
-    <row r="277" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R277" s="2"/>
     </row>
-    <row r="278" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R279" s="2"/>
     </row>
-    <row r="280" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R280" s="2"/>
     </row>
-    <row r="281" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R281" s="2"/>
     </row>
-    <row r="282" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R282" s="2"/>
     </row>
-    <row r="283" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R283" s="2"/>
     </row>
-    <row r="284" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R284" s="2"/>
     </row>
-    <row r="285" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R285" s="2"/>
     </row>
-    <row r="286" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R286" s="2"/>
     </row>
-    <row r="287" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R287" s="2"/>
     </row>
-    <row r="288" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R288" s="2"/>
     </row>
-    <row r="289" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R289" s="2"/>
     </row>
-    <row r="290" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R290" s="2"/>
     </row>
-    <row r="291" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R291" s="2"/>
     </row>
-    <row r="292" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R292" s="2"/>
     </row>
-    <row r="293" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R293" s="2"/>
     </row>
-    <row r="294" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R294" s="2"/>
     </row>
-    <row r="295" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R295" s="2"/>
     </row>
-    <row r="296" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R296" s="2"/>
     </row>
-    <row r="297" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R297" s="2"/>
     </row>
-    <row r="298" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R298" s="2"/>
     </row>
-    <row r="299" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R299" s="2"/>
     </row>
-    <row r="300" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R300" s="2"/>
     </row>
-    <row r="301" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R301" s="2"/>
     </row>
-    <row r="302" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R302" s="2"/>
     </row>
-    <row r="303" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R303" s="2"/>
     </row>
-    <row r="304" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R304" s="2"/>
     </row>
-    <row r="305" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R305" s="2"/>
     </row>
-    <row r="306" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R306" s="2"/>
     </row>
-    <row r="307" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R308" s="2"/>
     </row>
-    <row r="309" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R309" s="2"/>
     </row>
-    <row r="310" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R310" s="2"/>
     </row>
-    <row r="311" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R311" s="2"/>
     </row>
-    <row r="312" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R313" s="2"/>
     </row>
-    <row r="314" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R314" s="2"/>
     </row>
-    <row r="315" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R315" s="2"/>
     </row>
-    <row r="316" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R316" s="2"/>
     </row>
-    <row r="317" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R317" s="2"/>
     </row>
-    <row r="318" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R318" s="2"/>
     </row>
-    <row r="319" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R320" s="2"/>
     </row>
-    <row r="321" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R321" s="2"/>
     </row>
-    <row r="322" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R322" s="2"/>
     </row>
-    <row r="323" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R323" s="2"/>
     </row>
-    <row r="324" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R324" s="2"/>
     </row>
-    <row r="325" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R325" s="2"/>
     </row>
-    <row r="326" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R326" s="2"/>
     </row>
-    <row r="327" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R327" s="2"/>
     </row>
-    <row r="328" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R328" s="2"/>
     </row>
-    <row r="329" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R329" s="2"/>
     </row>
-    <row r="330" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R330" s="2"/>
     </row>
-    <row r="331" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R331" s="2"/>
     </row>
-    <row r="332" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R332" s="2"/>
     </row>
-    <row r="333" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R333" s="2"/>
     </row>
-    <row r="334" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R335" s="2"/>
     </row>
-    <row r="336" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R336" s="2"/>
     </row>
-    <row r="337" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R337" s="2"/>
     </row>
-    <row r="338" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R338" s="2"/>
     </row>
-    <row r="339" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R339" s="2"/>
     </row>
-    <row r="340" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R340" s="2"/>
     </row>
-    <row r="341" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R341" s="2"/>
     </row>
-    <row r="342" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R342" s="2"/>
     </row>
-    <row r="343" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R343" s="2"/>
     </row>
-    <row r="344" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R344" s="2"/>
     </row>
-    <row r="345" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R345" s="2"/>
     </row>
-    <row r="346" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R346" s="2"/>
     </row>
-    <row r="347" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R347" s="2"/>
     </row>
-    <row r="348" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R348" s="2"/>
     </row>
-    <row r="349" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R349" s="2"/>
     </row>
-    <row r="350" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R350" s="2"/>
     </row>
-    <row r="351" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R351" s="2"/>
     </row>
-    <row r="352" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R363" s="2"/>
     </row>
-    <row r="364" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R368" s="2"/>
     </row>
-    <row r="369" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R369" s="2"/>
     </row>
-    <row r="370" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R370" s="2"/>
     </row>
-    <row r="371" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R371" s="2"/>
     </row>
-    <row r="372" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R372" s="2"/>
     </row>
-    <row r="373" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R373" s="2"/>
     </row>
-    <row r="374" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R374" s="2"/>
     </row>
-    <row r="375" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R375" s="2"/>
     </row>
-    <row r="376" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R376" s="2"/>
     </row>
-    <row r="377" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R377" s="2"/>
     </row>
-    <row r="378" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R378" s="2"/>
     </row>
-    <row r="379" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R379" s="2"/>
     </row>
-    <row r="380" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R380" s="2"/>
     </row>
-    <row r="381" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R381" s="2"/>
     </row>
-    <row r="382" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R382" s="2"/>
     </row>
-    <row r="383" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R383" s="2"/>
     </row>
-    <row r="384" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R384" s="2"/>
     </row>
-    <row r="385" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R385" s="2"/>
     </row>
-    <row r="386" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R386" s="2"/>
     </row>
-    <row r="387" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R387" s="2"/>
     </row>
-    <row r="388" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R389" s="2"/>
     </row>
-    <row r="390" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R390" s="2"/>
     </row>
-    <row r="391" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R392" s="2"/>
     </row>
-    <row r="393" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R393" s="2"/>
     </row>
-    <row r="394" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R394" s="2"/>
     </row>
-    <row r="395" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R395" s="2"/>
     </row>
-    <row r="396" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R396" s="2"/>
     </row>
-    <row r="397" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R397" s="2"/>
     </row>
-    <row r="398" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R398" s="2"/>
     </row>
-    <row r="399" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R399" s="2"/>
     </row>
-    <row r="400" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R400" s="2"/>
     </row>
-    <row r="401" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R401" s="2"/>
     </row>
-    <row r="402" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R403" s="2"/>
     </row>
-    <row r="404" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R404" s="2"/>
     </row>
-    <row r="405" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R405" s="2"/>
     </row>
-    <row r="406" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R406" s="2"/>
     </row>
-    <row r="407" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R407" s="2"/>
     </row>
-    <row r="408" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R408" s="2"/>
     </row>
-    <row r="409" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R409" s="2"/>
     </row>
-    <row r="410" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R410" s="2"/>
     </row>
-    <row r="411" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R411" s="2"/>
     </row>
-    <row r="412" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R412" s="2"/>
     </row>
-    <row r="413" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R413" s="2"/>
     </row>
-    <row r="414" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R414" s="2"/>
     </row>
-    <row r="415" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R415" s="2"/>
     </row>
-    <row r="416" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R416" s="2"/>
     </row>
-    <row r="417" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R417" s="2"/>
     </row>
-    <row r="418" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R418" s="2"/>
     </row>
-    <row r="419" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R419" s="2"/>
     </row>
-    <row r="420" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R420" s="2"/>
     </row>
-    <row r="421" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R421" s="2"/>
     </row>
-    <row r="422" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R422" s="2"/>
     </row>
-    <row r="423" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R423" s="2"/>
     </row>
-    <row r="424" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R424" s="2"/>
     </row>
-    <row r="425" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R425" s="2"/>
     </row>
-    <row r="426" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R426" s="2"/>
     </row>
-    <row r="427" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R427" s="2"/>
     </row>
-    <row r="428" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R428" s="2"/>
     </row>
-    <row r="429" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R429" s="2"/>
     </row>
-    <row r="430" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R430" s="2"/>
     </row>
-    <row r="431" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R431" s="2"/>
     </row>
-    <row r="432" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R433" s="2"/>
     </row>
-    <row r="434" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R434" s="2"/>
     </row>
-    <row r="435" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R435" s="2"/>
     </row>
-    <row r="436" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R436" s="2"/>
     </row>
-    <row r="437" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R437" s="2"/>
     </row>
-    <row r="438" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R438" s="2"/>
     </row>
-    <row r="439" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R439" s="2"/>
     </row>
-    <row r="440" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R440" s="2"/>
     </row>
-    <row r="441" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R441" s="2"/>
     </row>
-    <row r="442" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R442" s="2"/>
     </row>
-    <row r="443" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R443" s="2"/>
     </row>
-    <row r="444" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R444" s="2"/>
     </row>
-    <row r="445" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R445" s="2"/>
     </row>
-    <row r="446" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R446" s="2"/>
     </row>
-    <row r="447" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R447" s="2"/>
     </row>
-    <row r="448" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R448" s="2"/>
     </row>
-    <row r="449" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R449" s="2"/>
     </row>
-    <row r="450" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R450" s="2"/>
     </row>
-    <row r="451" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R451" s="2"/>
     </row>
-    <row r="452" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R452" s="2"/>
     </row>
-    <row r="453" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R453" s="2"/>
     </row>
-    <row r="454" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R454" s="2"/>
     </row>
-    <row r="455" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R455" s="2"/>
     </row>
-    <row r="456" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R456" s="2"/>
     </row>
-    <row r="457" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R457" s="2"/>
     </row>
-    <row r="458" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R458" s="2"/>
     </row>
-    <row r="459" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R459" s="2"/>
     </row>
-    <row r="460" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R460" s="2"/>
     </row>
-    <row r="461" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R461" s="2"/>
     </row>
-    <row r="462" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R462" s="2"/>
     </row>
-    <row r="463" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R463" s="2"/>
     </row>
-    <row r="464" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R464" s="2"/>
     </row>
-    <row r="465" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R465" s="2"/>
     </row>
-    <row r="466" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R466" s="2"/>
     </row>
-    <row r="467" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R467" s="2"/>
     </row>
-    <row r="468" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R468" s="2"/>
     </row>
-    <row r="469" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R469" s="2"/>
     </row>
-    <row r="470" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R470" s="2"/>
     </row>
-    <row r="471" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R471" s="2"/>
     </row>
-    <row r="472" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R472" s="2"/>
     </row>
-    <row r="473" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R473" s="2"/>
     </row>
-    <row r="474" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R474" s="2"/>
     </row>
-    <row r="475" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R475" s="2"/>
     </row>
-    <row r="476" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R476" s="2"/>
     </row>
-    <row r="477" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R477" s="2"/>
     </row>
-    <row r="478" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R478" s="2"/>
     </row>
-    <row r="479" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R479" s="2"/>
     </row>
-    <row r="480" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R480" s="2"/>
     </row>
-    <row r="481" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R481" s="2"/>
     </row>
-    <row r="482" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R482" s="2"/>
     </row>
-    <row r="483" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R483" s="2"/>
     </row>
-    <row r="484" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R484" s="2"/>
     </row>
-    <row r="485" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R485" s="2"/>
     </row>
-    <row r="486" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R486" s="2"/>
     </row>
-    <row r="487" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R487" s="2"/>
     </row>
-    <row r="488" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R488" s="2"/>
     </row>
-    <row r="489" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R489" s="2"/>
     </row>
-    <row r="490" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R490" s="2"/>
     </row>
-    <row r="491" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R491" s="2"/>
     </row>
-    <row r="492" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R492" s="2"/>
     </row>
-    <row r="493" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R493" s="2"/>
     </row>
-    <row r="494" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R494" s="2"/>
     </row>
-    <row r="495" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R495" s="2"/>
     </row>
-    <row r="496" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R496" s="2"/>
     </row>
-    <row r="497" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R497" s="2"/>
     </row>
-    <row r="498" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R498" s="2"/>
     </row>
-    <row r="499" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R499" s="2"/>
     </row>
-    <row r="500" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R500" s="2"/>
     </row>
-    <row r="501" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R501" s="2"/>
     </row>
-    <row r="502" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R502" s="2"/>
     </row>
-    <row r="503" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R503" s="2"/>
     </row>
-    <row r="504" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R504" s="2"/>
     </row>
-    <row r="505" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R505" s="2"/>
     </row>
-    <row r="506" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R506" s="2"/>
     </row>
-    <row r="507" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R507" s="2"/>
     </row>
-    <row r="508" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R508" s="2"/>
     </row>
-    <row r="509" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R509" s="2"/>
     </row>
-    <row r="510" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R510" s="2"/>
     </row>
-    <row r="511" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R511" s="2"/>
     </row>
-    <row r="512" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R512" s="2"/>
     </row>
-    <row r="513" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R513" s="2"/>
     </row>
-    <row r="514" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R514" s="2"/>
     </row>
-    <row r="515" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R515" s="2"/>
     </row>
-    <row r="516" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R516" s="2"/>
     </row>
-    <row r="517" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R517" s="2"/>
     </row>
-    <row r="518" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R518" s="2"/>
     </row>
-    <row r="519" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R519" s="2"/>
     </row>
-    <row r="520" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R520" s="2"/>
     </row>
-    <row r="521" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R521" s="2"/>
     </row>
-    <row r="522" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R522" s="2"/>
     </row>
-    <row r="523" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R523" s="2"/>
     </row>
-    <row r="524" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R524" s="2"/>
     </row>
-    <row r="525" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R525" s="2"/>
     </row>
-    <row r="526" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R526" s="2"/>
     </row>
-    <row r="527" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R527" s="2"/>
     </row>
-    <row r="528" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R528" s="2"/>
     </row>
-    <row r="529" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R529" s="2"/>
     </row>
-    <row r="530" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R530" s="2"/>
     </row>
-    <row r="531" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R531" s="2"/>
     </row>
-    <row r="532" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R532" s="2"/>
     </row>
-    <row r="533" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R533" s="2"/>
     </row>
-    <row r="534" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R534" s="2"/>
     </row>
-    <row r="535" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R535" s="2"/>
     </row>
-    <row r="536" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R536" s="2"/>
     </row>
-    <row r="537" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R537" s="2"/>
     </row>
-    <row r="538" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R538" s="2"/>
     </row>
-    <row r="539" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R539" s="2"/>
     </row>
-    <row r="540" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R540" s="2"/>
     </row>
-    <row r="541" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R541" s="2"/>
     </row>
-    <row r="542" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R542" s="2"/>
     </row>
-    <row r="543" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R543" s="2"/>
     </row>
-    <row r="544" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R544" s="2"/>
     </row>
-    <row r="545" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R545" s="2"/>
     </row>
-    <row r="546" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R546" s="2"/>
     </row>
-    <row r="547" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R547" s="2"/>
     </row>
-    <row r="548" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R548" s="2"/>
     </row>
-    <row r="549" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R549" s="2"/>
     </row>
-    <row r="550" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R550" s="2"/>
     </row>
-    <row r="551" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R551" s="2"/>
     </row>
-    <row r="552" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R552" s="2"/>
     </row>
-    <row r="553" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R553" s="2"/>
     </row>
-    <row r="554" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R554" s="2"/>
     </row>
-    <row r="555" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R555" s="2"/>
     </row>
-    <row r="556" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R556" s="2"/>
     </row>
-    <row r="557" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R557" s="2"/>
     </row>
-    <row r="558" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R558" s="2"/>
     </row>
-    <row r="559" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R559" s="2"/>
     </row>
-    <row r="560" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R560" s="2"/>
     </row>
-    <row r="561" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R561" s="2"/>
     </row>
-    <row r="562" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R562" s="2"/>
     </row>
-    <row r="563" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R563" s="2"/>
     </row>
-    <row r="564" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R564" s="2"/>
     </row>
-    <row r="565" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R565" s="2"/>
     </row>
-    <row r="566" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R566" s="2"/>
     </row>
-    <row r="567" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R567" s="2"/>
     </row>
-    <row r="568" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R568" s="2"/>
     </row>
-    <row r="569" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R569" s="2"/>
     </row>
-    <row r="570" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R570" s="2"/>
     </row>
-    <row r="571" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R571" s="2"/>
     </row>
-    <row r="572" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R572" s="2"/>
     </row>
-    <row r="573" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R573" s="2"/>
     </row>
-    <row r="574" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R574" s="2"/>
     </row>
-    <row r="575" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R575" s="2"/>
     </row>
-    <row r="576" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R576" s="2"/>
     </row>
-    <row r="577" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R577" s="2"/>
     </row>
-    <row r="578" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R578" s="2"/>
     </row>
-    <row r="579" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R579" s="2"/>
     </row>
-    <row r="580" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R580" s="2"/>
     </row>
-    <row r="581" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R581" s="2"/>
     </row>
-    <row r="582" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R582" s="2"/>
     </row>
-    <row r="583" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R583" s="2"/>
     </row>
-    <row r="584" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R584" s="2"/>
     </row>
-    <row r="585" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R585" s="2"/>
     </row>
-    <row r="586" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R586" s="2"/>
     </row>
-    <row r="587" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R587" s="2"/>
     </row>
-    <row r="588" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R588" s="2"/>
     </row>
-    <row r="589" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R589" s="2"/>
     </row>
-    <row r="590" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R590" s="2"/>
     </row>
-    <row r="591" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R591" s="2"/>
     </row>
-    <row r="592" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R592" s="2"/>
     </row>
-    <row r="593" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R593" s="2"/>
     </row>
-    <row r="594" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R594" s="2"/>
     </row>
-    <row r="595" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R595" s="2"/>
     </row>
-    <row r="596" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R596" s="2"/>
     </row>
-    <row r="597" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R597" s="2"/>
     </row>
-    <row r="598" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R598" s="2"/>
     </row>
-    <row r="599" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R599" s="2"/>
     </row>
-    <row r="600" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R600" s="2"/>
     </row>
-    <row r="601" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R601" s="2"/>
     </row>
-    <row r="602" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R602" s="2"/>
     </row>
-    <row r="603" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R603" s="2"/>
     </row>
-    <row r="604" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R604" s="2"/>
     </row>
-    <row r="605" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R605" s="2"/>
     </row>
-    <row r="606" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R606" s="2"/>
     </row>
-    <row r="607" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R607" s="2"/>
     </row>
-    <row r="608" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R608" s="2"/>
     </row>
-    <row r="609" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R609" s="2"/>
     </row>
-    <row r="610" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R610" s="2"/>
     </row>
-    <row r="611" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R611" s="2"/>
     </row>
-    <row r="612" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R612" s="2"/>
     </row>
-    <row r="613" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R613" s="2"/>
     </row>
-    <row r="614" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R614" s="2"/>
     </row>
-    <row r="615" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R615" s="2"/>
     </row>
-    <row r="616" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R616" s="2"/>
     </row>
-    <row r="617" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R617" s="2"/>
     </row>
-    <row r="618" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R618" s="2"/>
     </row>
-    <row r="619" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R619" s="2"/>
     </row>
-    <row r="620" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R620" s="2"/>
     </row>
-    <row r="621" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R621" s="2"/>
     </row>
-    <row r="622" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R622" s="2"/>
     </row>
-    <row r="623" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R623" s="2"/>
     </row>
-    <row r="624" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R624" s="2"/>
     </row>
-    <row r="625" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R625" s="2"/>
     </row>
-    <row r="626" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R626" s="2"/>
     </row>
-    <row r="627" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R627" s="2"/>
     </row>
-    <row r="628" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R628" s="2"/>
     </row>
-    <row r="629" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R629" s="2"/>
     </row>
-    <row r="630" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R630" s="2"/>
     </row>
-    <row r="631" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R631" s="2"/>
     </row>
-    <row r="632" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R632" s="2"/>
     </row>
-    <row r="633" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R633" s="2"/>
     </row>
-    <row r="634" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R634" s="2"/>
     </row>
-    <row r="635" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R635" s="2"/>
     </row>
-    <row r="636" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R636" s="2"/>
     </row>
-    <row r="637" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R637" s="2"/>
     </row>
-    <row r="638" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R638" s="2"/>
     </row>
-    <row r="639" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R639" s="2"/>
     </row>
-    <row r="640" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R640" s="2"/>
     </row>
-    <row r="641" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R641" s="2"/>
     </row>
-    <row r="642" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R642" s="2"/>
     </row>
-    <row r="643" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R643" s="2"/>
     </row>
-    <row r="644" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R644" s="2"/>
     </row>
-    <row r="645" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R645" s="2"/>
     </row>
-    <row r="646" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R646" s="2"/>
     </row>
-    <row r="647" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R647" s="2"/>
     </row>
-    <row r="648" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R648" s="2"/>
     </row>
-    <row r="649" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R649" s="2"/>
     </row>
-    <row r="650" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R650" s="2"/>
     </row>
-    <row r="651" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R651" s="2"/>
     </row>
-    <row r="652" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R652" s="2"/>
     </row>
-    <row r="653" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R653" s="2"/>
     </row>
-    <row r="654" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R654" s="2"/>
     </row>
-    <row r="655" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R655" s="2"/>
     </row>
-    <row r="656" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R656" s="2"/>
     </row>
-    <row r="657" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R657" s="2"/>
     </row>
-    <row r="658" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R658" s="2"/>
     </row>
-    <row r="659" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R659" s="2"/>
     </row>
-    <row r="660" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R660" s="2"/>
     </row>
-    <row r="661" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R661" s="2"/>
     </row>
-    <row r="662" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R662" s="2"/>
     </row>
-    <row r="663" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R663" s="2"/>
     </row>
-    <row r="664" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R664" s="2"/>
     </row>
-    <row r="665" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R665" s="2"/>
     </row>
-    <row r="666" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R666" s="2"/>
     </row>
-    <row r="667" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R667" s="2"/>
     </row>
-    <row r="668" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R668" s="2"/>
     </row>
-    <row r="669" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R669" s="2"/>
     </row>
-    <row r="670" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R670" s="2"/>
     </row>
-    <row r="671" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R671" s="2"/>
     </row>
-    <row r="672" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R672" s="2"/>
     </row>
-    <row r="673" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R673" s="2"/>
     </row>
-    <row r="674" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R674" s="2"/>
     </row>
-    <row r="675" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R675" s="2"/>
     </row>
-    <row r="676" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R676" s="2"/>
     </row>
-    <row r="677" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R677" s="2"/>
     </row>
-    <row r="678" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R678" s="2"/>
     </row>
-    <row r="679" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R679" s="2"/>
     </row>
-    <row r="680" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R680" s="2"/>
     </row>
-    <row r="681" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R681" s="2"/>
     </row>
-    <row r="682" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R682" s="2"/>
     </row>
-    <row r="683" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R683" s="2"/>
     </row>
-    <row r="684" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R684" s="2"/>
     </row>
-    <row r="685" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R685" s="2"/>
     </row>
-    <row r="686" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R686" s="2"/>
     </row>
-    <row r="687" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R687" s="2"/>
     </row>
-    <row r="688" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R688" s="2"/>
     </row>
-    <row r="689" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R689" s="2"/>
     </row>
-    <row r="690" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R690" s="2"/>
     </row>
-    <row r="691" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R691" s="2"/>
     </row>
-    <row r="692" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R692" s="2"/>
     </row>
-    <row r="693" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R693" s="2"/>
     </row>
-    <row r="694" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R694" s="2"/>
     </row>
-    <row r="695" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R695" s="2"/>
     </row>
-    <row r="696" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R696" s="2"/>
     </row>
-    <row r="697" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R697" s="2"/>
     </row>
-    <row r="698" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R698" s="2"/>
     </row>
-    <row r="699" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R699" s="2"/>
     </row>
-    <row r="700" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R700" s="2"/>
     </row>
-    <row r="701" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R701" s="2"/>
     </row>
-    <row r="702" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R702" s="2"/>
     </row>
-    <row r="703" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R703" s="2"/>
     </row>
-    <row r="704" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R704" s="2"/>
     </row>
-    <row r="705" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R705" s="2"/>
     </row>
-    <row r="706" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R706" s="2"/>
     </row>
-    <row r="707" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R707" s="2"/>
     </row>
-    <row r="708" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R708" s="2"/>
     </row>
-    <row r="709" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R709" s="2"/>
     </row>
-    <row r="710" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R710" s="2"/>
     </row>
-    <row r="711" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R711" s="2"/>
     </row>
-    <row r="712" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R712" s="2"/>
     </row>
-    <row r="713" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R713" s="2"/>
     </row>
-    <row r="714" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R714" s="2"/>
     </row>
-    <row r="715" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R715" s="2"/>
     </row>
-    <row r="716" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R716" s="2"/>
     </row>
-    <row r="717" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R717" s="2"/>
     </row>
-    <row r="718" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R718" s="2"/>
     </row>
-    <row r="719" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R719" s="2"/>
     </row>
-    <row r="720" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R720" s="2"/>
     </row>
-    <row r="721" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R721" s="2"/>
     </row>
-    <row r="722" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R722" s="2"/>
     </row>
-    <row r="723" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R723" s="2"/>
     </row>
-    <row r="724" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R724" s="2"/>
     </row>
-    <row r="725" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R725" s="2"/>
     </row>
-    <row r="726" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R726" s="2"/>
     </row>
-    <row r="727" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R727" s="2"/>
     </row>
-    <row r="728" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R728" s="2"/>
     </row>
-    <row r="729" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R729" s="2"/>
     </row>
-    <row r="730" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R730" s="2"/>
     </row>
-    <row r="731" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R731" s="2"/>
     </row>
-    <row r="732" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R732" s="2"/>
     </row>
-    <row r="733" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R733" s="2"/>
     </row>
-    <row r="734" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R734" s="2"/>
     </row>
-    <row r="735" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R735" s="2"/>
     </row>
-    <row r="736" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R736" s="2"/>
     </row>
-    <row r="737" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R737" s="2"/>
     </row>
-    <row r="738" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R738" s="2"/>
     </row>
-    <row r="739" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R739" s="2"/>
     </row>
-    <row r="740" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R740" s="2"/>
     </row>
-    <row r="741" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R741" s="2"/>
     </row>
-    <row r="742" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R742" s="2"/>
     </row>
-    <row r="743" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R743" s="2"/>
     </row>
-    <row r="744" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R744" s="2"/>
     </row>
-    <row r="745" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R745" s="2"/>
     </row>
-    <row r="746" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R746" s="2"/>
     </row>
-    <row r="747" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R747" s="2"/>
     </row>
-    <row r="748" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R748" s="2"/>
     </row>
-    <row r="749" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R749" s="2"/>
     </row>
-    <row r="750" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R750" s="2"/>
     </row>
-    <row r="751" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R751" s="2"/>
     </row>
-    <row r="752" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R752" s="2"/>
     </row>
-    <row r="753" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R753" s="2"/>
     </row>
-    <row r="754" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R754" s="2"/>
     </row>
-    <row r="755" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R755" s="2"/>
     </row>
-    <row r="756" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R756" s="2"/>
     </row>
-    <row r="757" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R757" s="2"/>
     </row>
-    <row r="758" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R758" s="2"/>
     </row>
-    <row r="759" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R759" s="2"/>
     </row>
-    <row r="760" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R760" s="2"/>
     </row>
-    <row r="761" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R761" s="2"/>
     </row>
-    <row r="762" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R762" s="2"/>
     </row>
-    <row r="763" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R763" s="2"/>
     </row>
-    <row r="764" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R764" s="2"/>
     </row>
-    <row r="765" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R765" s="2"/>
     </row>
-    <row r="766" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R766" s="2"/>
     </row>
-    <row r="767" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R767" s="2"/>
     </row>
-    <row r="768" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R768" s="2"/>
     </row>
-    <row r="769" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R769" s="2"/>
     </row>
-    <row r="770" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R770" s="2"/>
     </row>
-    <row r="771" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R771" s="2"/>
     </row>
-    <row r="772" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R772" s="2"/>
     </row>
-    <row r="773" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R773" s="2"/>
     </row>
-    <row r="774" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R774" s="2"/>
     </row>
-    <row r="775" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R775" s="2"/>
     </row>
-    <row r="776" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R776" s="2"/>
     </row>
-    <row r="777" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R777" s="2"/>
     </row>
-    <row r="778" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R778" s="2"/>
     </row>
-    <row r="779" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R779" s="2"/>
     </row>
-    <row r="780" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R780" s="2"/>
     </row>
-    <row r="781" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R781" s="2"/>
     </row>
-    <row r="782" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R782" s="2"/>
     </row>
-    <row r="783" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R783" s="2"/>
     </row>
-    <row r="784" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R784" s="2"/>
     </row>
-    <row r="785" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R785" s="2"/>
     </row>
-    <row r="786" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R786" s="2"/>
     </row>
-    <row r="787" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R787" s="2"/>
     </row>
-    <row r="788" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R788" s="2"/>
     </row>
-    <row r="789" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R789" s="2"/>
     </row>
-    <row r="790" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R790" s="2"/>
     </row>
-    <row r="791" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R791" s="2"/>
     </row>
-    <row r="792" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R792" s="2"/>
     </row>
-    <row r="793" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R793" s="2"/>
     </row>
-    <row r="794" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R794" s="2"/>
     </row>
-    <row r="795" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R795" s="2"/>
     </row>
-    <row r="796" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R796" s="2"/>
     </row>
-    <row r="797" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R797" s="2"/>
     </row>
-    <row r="798" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R798" s="2"/>
     </row>
-    <row r="799" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R799" s="2"/>
     </row>
-    <row r="800" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R800" s="2"/>
     </row>
-    <row r="801" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R801" s="2"/>
     </row>
-    <row r="802" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R802" s="2"/>
     </row>
-    <row r="803" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R803" s="2"/>
     </row>
-    <row r="804" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R804" s="2"/>
     </row>
-    <row r="805" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R805" s="2"/>
     </row>
-    <row r="806" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R806" s="2"/>
     </row>
-    <row r="807" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R807" s="2"/>
     </row>
-    <row r="808" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R808" s="2"/>
     </row>
-    <row r="809" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R809" s="2"/>
     </row>
-    <row r="810" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R810" s="2"/>
     </row>
-    <row r="811" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R811" s="2"/>
     </row>
-    <row r="812" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R812" s="2"/>
     </row>
-    <row r="813" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R813" s="2"/>
     </row>
-    <row r="814" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R814" s="2"/>
     </row>
-    <row r="815" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R815" s="2"/>
     </row>
-    <row r="816" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R816" s="2"/>
     </row>
-    <row r="817" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R817" s="2"/>
     </row>
-    <row r="818" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R818" s="2"/>
     </row>
-    <row r="819" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R819" s="2"/>
     </row>
-    <row r="820" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R820" s="2"/>
     </row>
-    <row r="821" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R821" s="2"/>
     </row>
-    <row r="822" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R822" s="2"/>
     </row>
-    <row r="823" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R823" s="2"/>
     </row>
-    <row r="824" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R824" s="2"/>
     </row>
-    <row r="825" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R825" s="2"/>
     </row>
-    <row r="826" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R826" s="2"/>
     </row>
-    <row r="827" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R827" s="2"/>
     </row>
-    <row r="828" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R828" s="2"/>
     </row>
-    <row r="829" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R829" s="2"/>
     </row>
-    <row r="830" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R830" s="2"/>
     </row>
-    <row r="831" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R831" s="2"/>
     </row>
-    <row r="832" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R832" s="2"/>
     </row>
-    <row r="833" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R833" s="2"/>
     </row>
-    <row r="834" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R834" s="2"/>
     </row>
-    <row r="835" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R835" s="2"/>
     </row>
-    <row r="836" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R836" s="2"/>
     </row>
-    <row r="837" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R837" s="2"/>
     </row>
-    <row r="838" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R838" s="2"/>
     </row>
-    <row r="839" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R839" s="2"/>
     </row>
-    <row r="840" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R840" s="2"/>
     </row>
-    <row r="841" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R841" s="2"/>
     </row>
-    <row r="842" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R842" s="2"/>
     </row>
-    <row r="843" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R843" s="2"/>
     </row>
-    <row r="844" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R844" s="2"/>
     </row>
-    <row r="845" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R845" s="2"/>
     </row>
-    <row r="846" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R846" s="2"/>
     </row>
-    <row r="847" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R847" s="2"/>
     </row>
-    <row r="848" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R848" s="2"/>
     </row>
-    <row r="849" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R849" s="2"/>
     </row>
-    <row r="850" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R850" s="2"/>
     </row>
-    <row r="851" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R851" s="2"/>
     </row>
-    <row r="852" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R852" s="2"/>
     </row>
-    <row r="853" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R853" s="2"/>
     </row>
-    <row r="854" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R854" s="2"/>
     </row>
-    <row r="855" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R855" s="2"/>
     </row>
-    <row r="856" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R856" s="2"/>
     </row>
-    <row r="857" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R857" s="2"/>
     </row>
-    <row r="858" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R858" s="2"/>
     </row>
-    <row r="859" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R859" s="2"/>
     </row>
-    <row r="860" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R860" s="2"/>
     </row>
-    <row r="861" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R861" s="2"/>
     </row>
-    <row r="862" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R862" s="2"/>
     </row>
-    <row r="863" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R863" s="2"/>
     </row>
-    <row r="864" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R864" s="2"/>
     </row>
-    <row r="865" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R865" s="2"/>
     </row>
-    <row r="866" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R866" s="2"/>
     </row>
-    <row r="867" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R867" s="2"/>
     </row>
-    <row r="868" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R868" s="2"/>
     </row>
-    <row r="869" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R869" s="2"/>
     </row>
-    <row r="870" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R870" s="2"/>
     </row>
-    <row r="871" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R871" s="2"/>
     </row>
-    <row r="872" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R872" s="2"/>
     </row>
-    <row r="873" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R873" s="2"/>
     </row>
-    <row r="874" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R874" s="2"/>
     </row>
-    <row r="875" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R875" s="2"/>
     </row>
-    <row r="876" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R876" s="2"/>
     </row>
-    <row r="877" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R877" s="2"/>
     </row>
-    <row r="878" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R878" s="2"/>
     </row>
-    <row r="879" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R879" s="2"/>
     </row>
-    <row r="880" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R880" s="2"/>
     </row>
-    <row r="881" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R881" s="2"/>
     </row>
-    <row r="882" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R882" s="2"/>
     </row>
-    <row r="883" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R883" s="2"/>
     </row>
-    <row r="884" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R884" s="2"/>
     </row>
-    <row r="885" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R885" s="2"/>
     </row>
-    <row r="886" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R886" s="2"/>
     </row>
-    <row r="887" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R887" s="2"/>
     </row>
-    <row r="888" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R888" s="2"/>
     </row>
-    <row r="889" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R889" s="2"/>
     </row>
-    <row r="890" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R890" s="2"/>
     </row>
-    <row r="891" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R891" s="2"/>
     </row>
-    <row r="892" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R892" s="2"/>
     </row>
-    <row r="893" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R893" s="2"/>
     </row>
-    <row r="894" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R894" s="2"/>
     </row>
-    <row r="895" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R895" s="2"/>
     </row>
-    <row r="896" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R896" s="2"/>
     </row>
-    <row r="897" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R897" s="2"/>
     </row>
-    <row r="898" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R898" s="2"/>
     </row>
-    <row r="899" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R899" s="2"/>
     </row>
-    <row r="900" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R900" s="2"/>
     </row>
-    <row r="901" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R901" s="2"/>
     </row>
-    <row r="902" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R902" s="2"/>
     </row>
-    <row r="903" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R903" s="2"/>
     </row>
-    <row r="904" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R904" s="2"/>
     </row>
-    <row r="905" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R905" s="2"/>
     </row>
-    <row r="906" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R906" s="2"/>
     </row>
-    <row r="907" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R907" s="2"/>
     </row>
-    <row r="908" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R908" s="2"/>
     </row>
-    <row r="909" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R909" s="2"/>
     </row>
-    <row r="910" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R910" s="2"/>
     </row>
-    <row r="911" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R911" s="2"/>
     </row>
-    <row r="912" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R912" s="2"/>
     </row>
-    <row r="913" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R913" s="2"/>
     </row>
-    <row r="914" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R914" s="2"/>
     </row>
-    <row r="915" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R915" s="2"/>
     </row>
-    <row r="916" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R916" s="2"/>
     </row>
-    <row r="917" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R917" s="2"/>
     </row>
-    <row r="918" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R918" s="2"/>
     </row>
-    <row r="919" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R919" s="2"/>
     </row>
-    <row r="920" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R920" s="2"/>
     </row>
-    <row r="921" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R921" s="2"/>
     </row>
-    <row r="922" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R922" s="2"/>
     </row>
-    <row r="923" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R923" s="2"/>
     </row>
-    <row r="924" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R924" s="2"/>
     </row>
-    <row r="925" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R925" s="2"/>
     </row>
-    <row r="926" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R926" s="2"/>
     </row>
-    <row r="927" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R927" s="2"/>
     </row>
-    <row r="928" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R928" s="2"/>
     </row>
-    <row r="929" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R929" s="2"/>
     </row>
-    <row r="930" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R930" s="2"/>
     </row>
-    <row r="931" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R931" s="2"/>
     </row>
-    <row r="932" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R932" s="2"/>
     </row>
-    <row r="933" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R933" s="2"/>
     </row>
-    <row r="934" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R934" s="2"/>
     </row>
-    <row r="935" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R935" s="2"/>
     </row>
-    <row r="936" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R936" s="2"/>
     </row>
-    <row r="937" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R937" s="2"/>
     </row>
-    <row r="938" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R938" s="2"/>
     </row>
-    <row r="939" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R939" s="2"/>
     </row>
-    <row r="940" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R940" s="2"/>
     </row>
-    <row r="941" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R941" s="2"/>
     </row>
-    <row r="942" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R942" s="2"/>
     </row>
-    <row r="943" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R943" s="2"/>
     </row>
-    <row r="944" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R944" s="2"/>
     </row>
-    <row r="945" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R945" s="2"/>
     </row>
-    <row r="946" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R946" s="2"/>
     </row>
-    <row r="947" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R947" s="2"/>
     </row>
-    <row r="948" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R948" s="2"/>
     </row>
-    <row r="949" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R949" s="2"/>
     </row>
-    <row r="950" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R950" s="2"/>
     </row>
-    <row r="951" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R951" s="2"/>
     </row>
-    <row r="952" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R952" s="2"/>
     </row>
-    <row r="953" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R953" s="2"/>
     </row>
-    <row r="954" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R954" s="2"/>
     </row>
-    <row r="955" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R955" s="2"/>
     </row>
-    <row r="956" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R956" s="2"/>
     </row>
-    <row r="957" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R957" s="2"/>
     </row>
-    <row r="958" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R958" s="2"/>
     </row>
-    <row r="959" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R959" s="2"/>
     </row>
-    <row r="960" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R960" s="2"/>
     </row>
-    <row r="961" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R961" s="2"/>
     </row>
-    <row r="962" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R962" s="2"/>
     </row>
-    <row r="963" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R963" s="2"/>
     </row>
-    <row r="964" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R964" s="2"/>
     </row>
-    <row r="965" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R965" s="2"/>
     </row>
-    <row r="966" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R966" s="2"/>
     </row>
-    <row r="967" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R967" s="2"/>
     </row>
-    <row r="968" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R968" s="2"/>
     </row>
-    <row r="969" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R969" s="2"/>
     </row>
-    <row r="970" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R970" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
@@ -6773,387 +7221,76 @@
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765E4D26-A84C-4F40-8F06-03CDD38426FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677E6AD-BAAB-4A21-ADCA-9E07C96A05E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="1848" windowWidth="12024" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="253">
   <si>
     <t>Test case ID</t>
   </si>
@@ -1329,30 +1329,46 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1368,31 +1384,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1613,8 +1613,8 @@
   </sheetPr>
   <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1634,32 +1634,32 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="27" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="24" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="25"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1671,32 +1671,32 @@
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1704,32 +1704,32 @@
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="13" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="9"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1737,32 +1737,32 @@
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="9"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="7" t="s">
         <v>247</v>
       </c>
     </row>
@@ -1770,32 +1770,32 @@
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="9"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -1803,32 +1803,32 @@
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="7" t="s">
         <v>245</v>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1869,32 +1869,32 @@
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="9"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="7" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1902,32 +1902,32 @@
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="7" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1935,32 +1935,32 @@
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="9"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="36" t="s">
+      <c r="S10" s="7" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1968,32 +1968,32 @@
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="9"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="36" t="s">
+      <c r="S11" s="7" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2001,32 +2001,32 @@
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2034,32 +2034,32 @@
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="7" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2067,32 +2067,32 @@
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2133,32 +2133,32 @@
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="7" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="36" t="s">
+      <c r="S16" s="7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2166,32 +2166,32 @@
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2199,85 +2199,85 @@
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="7" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="23"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="36" t="s">
+      <c r="S20" s="7" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2285,793 +2285,790 @@
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10" t="s">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="9"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="10"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="9"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="10"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="10"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="10" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10" t="s">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="10"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="10" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="10"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="10" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="7" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="7" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="10"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="7" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="9"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="10"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="7" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10" t="s">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="9"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="10"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="7" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10" t="s">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="9"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="10"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="7" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="19" t="s">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="9"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="10"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="7" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="7" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="10"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="7" t="s">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="10"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="23"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="7" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10" t="s">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="9"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="10"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:19" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="7" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="7" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10" t="s">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="9"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="10"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="7" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="10" t="s">
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="9"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="3"/>
-      <c r="S46" s="4" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="7" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="10" t="s">
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="9"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="3"/>
       <c r="S47" s="4" t="s">
         <v>249</v>
@@ -3081,30 +3078,30 @@
       <c r="A48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="7" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="10" t="s">
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="9"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="10"/>
       <c r="R48" s="3"/>
       <c r="S48" s="4" t="s">
         <v>249</v>
@@ -3114,1079 +3111,1085 @@
       <c r="A49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="7" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="10" t="s">
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="9"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="10"/>
       <c r="R49" s="3"/>
       <c r="S49" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="7" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="10" t="s">
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="N50" s="11"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="9"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="10"/>
       <c r="R50" s="3"/>
+      <c r="S50" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="7" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="7" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10" t="s">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="N51" s="11"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="9"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="10"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="7" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="7" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="10" t="s">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="9"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="10"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="10" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="10" t="s">
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="10" t="s">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="10"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="10" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="10" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="10" t="s">
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="9"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="10"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="10" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="10" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="10" t="s">
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N55" s="11"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="9"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="10"/>
       <c r="R55" s="3"/>
-      <c r="S55" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="56" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="10" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="10" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="10" t="s">
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="9"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="10"/>
       <c r="R56" s="3"/>
-      <c r="S56" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="57" spans="1:19" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="10" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="7" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="10" t="s">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N57" s="11"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="9"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="10"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:19" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="10" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="10" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="10" t="s">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="N58" s="8"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="10"/>
       <c r="R58" s="3"/>
+      <c r="S58" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="7" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="10" t="s">
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="N59" s="11"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="9"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="10"/>
       <c r="R59" s="3"/>
+      <c r="S59" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="7" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="10" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="10" t="s">
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="9"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="10"/>
       <c r="R60" s="3"/>
+      <c r="S60" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="10" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="10" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="10" t="s">
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="9"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="10"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="10"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="10"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="10"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="10"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="10"/>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="10"/>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="10"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="10"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="10"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="10"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="10"/>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="10"/>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="10"/>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="9"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="10"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="10"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="10"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="9"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="10"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="9"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="10"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="9"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="10"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="9"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="10"/>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="10"/>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="9"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="10"/>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="9"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="10"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="9"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="10"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="9"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="10"/>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="10"/>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="9"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="10"/>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="9"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="10"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="9"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="10"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="9"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="10"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="10"/>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="10"/>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="9"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="10"/>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="9"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="10"/>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
@@ -6816,6 +6819,457 @@
     </row>
   </sheetData>
   <mergeCells count="475">
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="I42:L42"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B89:D89"/>
@@ -6840,457 +7294,6 @@
     <mergeCell ref="E83:H83"/>
     <mergeCell ref="E75:H75"/>
     <mergeCell ref="E76:H76"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677E6AD-BAAB-4A21-ADCA-9E07C96A05E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681FD9E6-F997-4997-AB86-BE2FB6BC3455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1848" windowWidth="12024" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="270">
   <si>
     <t>Test case ID</t>
   </si>
@@ -1108,9 +1108,6 @@
 3. Click "Register"</t>
   </si>
   <si>
-    <t>Wire Frame ID</t>
-  </si>
-  <si>
     <t>WireFrame_Reg_002</t>
   </si>
   <si>
@@ -1153,24 +1150,77 @@
     <t>WireFrame_Client_001</t>
   </si>
   <si>
-    <t>WireFrame_Client_002
-WireFrame_Client_003</t>
-  </si>
-  <si>
     <t>WireFrame_Client_004</t>
   </si>
   <si>
     <t>Wireframe_Checkout_001</t>
   </si>
   <si>
-    <t>Wireframe_Checkout_002</t>
+    <t>WireFrame_OrderHistory_001</t>
+  </si>
+  <si>
+    <t>WireFrame_OrderHistory_002</t>
+  </si>
+  <si>
+    <t>WireFrame_Cart_001</t>
+  </si>
+  <si>
+    <t>WireFrame_Cart_004</t>
+  </si>
+  <si>
+    <t>WireFrame_Cart_002</t>
+  </si>
+  <si>
+    <t>WireFrame_Cart_003</t>
+  </si>
+  <si>
+    <t>Wire Frame Attachment</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Register\WireFrame_Reg_001.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_001.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_002.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_003.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_004.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_005.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_006.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_007.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_008.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Supplier_page\WireFrame_Supplier_009.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Client_Home_page\Wireframe_Client_002.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Client_Home_page\Wireframe_Client_003.jpg</t>
+  </si>
+  <si>
+    <t>..\WireFrame\Cart\WireFrame_Cart_005.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1215,6 +1265,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1314,10 +1371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1330,45 +1388,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1384,17 +1434,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1613,5282 +1682,5701 @@
   </sheetPr>
   <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="47" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="4"/>
+    <col min="13" max="13" width="12.5703125" style="4"/>
     <col min="14" max="14" width="21" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="40.6640625" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="26" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="25"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="10"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="34" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="10"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="8" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="8" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="10"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="8" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="8" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="10"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="10"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S16" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="10"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S18" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="19"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="8" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8" t="s">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="8" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="8" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="8" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="8" t="s">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="28"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="8" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="8" t="s">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="8" t="s">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="8" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="8" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="8" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="8" t="s">
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="8" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="8" t="s">
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="8" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="8" t="s">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="8" t="s">
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="24"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="19"/>
+      <c r="P34" s="22"/>
       <c r="Q34" s="23"/>
-      <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="9"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="8" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="8" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="8" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="8" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="11" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="8" t="s">
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="17"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="11" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="8" t="s">
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="11" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="8" t="s">
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="11" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="8" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="29" t="s">
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="11" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="8" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="11" t="s">
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="N41" s="9"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="14"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="8" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11" t="s">
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="9"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="23"/>
-      <c r="P43" s="19"/>
+      <c r="P43" s="22"/>
       <c r="Q43" s="23"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="9"/>
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="11" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="8" t="s">
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:19" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="17"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="8" t="s">
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="17"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="8" t="s">
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="8" t="s">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="14"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="17"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11" t="s">
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="8" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="8" t="s">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="14"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="17"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11" t="s">
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="8" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="8" t="s">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="N48" s="14"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N48" s="17"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="11" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="8" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="8" t="s">
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="N49" s="14"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N49" s="17"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11" t="s">
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="8" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="8" t="s">
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="3"/>
-      <c r="S50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N50" s="17"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="11" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="8" t="s">
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="N51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="17"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="11" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="8" t="s">
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="17"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="8" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="8" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="8" t="s">
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="N53" s="9"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N53" s="14"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="8" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="8" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="8" t="s">
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="N54" s="14"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N54" s="17"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="8" t="s">
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="8" t="s">
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="8" t="s">
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="17"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="8" t="s">
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="8" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="8" t="s">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="N56" s="14"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:19" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="17"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="8" t="s">
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="11" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="8" t="s">
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="N57" s="14"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:19" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N57" s="17"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="8" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="8" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="8" t="s">
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="N58" s="9"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="3"/>
-      <c r="S58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N58" s="14"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="11" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="8" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="8" t="s">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="3"/>
-      <c r="S59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="11" t="s">
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="8" t="s">
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="8" t="s">
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="3"/>
-      <c r="S60" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="8" t="s">
+      <c r="C61" s="36"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="8" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="8" t="s">
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N61" s="17"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="13"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="7"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="13"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="7"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="13"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="7"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="13"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="13"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="7"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="13"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="7"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="13"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="7"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="13"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="7"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="13"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="13"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="7"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="13"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="7"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="13"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="7"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="13"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="13"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="7"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="13"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="13"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="7"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="13"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="7"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="13"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="13"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="7"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B84" s="13"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="7"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="13"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="7"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="13"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="13"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="7"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="13"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="13"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="7"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="13"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="13"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="7"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" s="13"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="7"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="13"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="7"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="13"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="7"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="13"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="7"/>
+    </row>
+    <row r="96" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R253" s="2"/>
     </row>
-    <row r="254" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R254" s="2"/>
     </row>
-    <row r="255" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R259" s="2"/>
     </row>
-    <row r="260" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R270" s="2"/>
     </row>
-    <row r="271" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R271" s="2"/>
     </row>
-    <row r="272" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R273" s="2"/>
     </row>
-    <row r="274" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R274" s="2"/>
     </row>
-    <row r="275" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R276" s="2"/>
     </row>
-    <row r="277" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R277" s="2"/>
     </row>
-    <row r="278" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R279" s="2"/>
     </row>
-    <row r="280" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R280" s="2"/>
     </row>
-    <row r="281" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R281" s="2"/>
     </row>
-    <row r="282" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R282" s="2"/>
     </row>
-    <row r="283" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R283" s="2"/>
     </row>
-    <row r="284" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R284" s="2"/>
     </row>
-    <row r="285" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R285" s="2"/>
     </row>
-    <row r="286" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R286" s="2"/>
     </row>
-    <row r="287" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R287" s="2"/>
     </row>
-    <row r="288" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R288" s="2"/>
     </row>
-    <row r="289" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R289" s="2"/>
     </row>
-    <row r="290" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R290" s="2"/>
     </row>
-    <row r="291" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R291" s="2"/>
     </row>
-    <row r="292" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R292" s="2"/>
     </row>
-    <row r="293" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R293" s="2"/>
     </row>
-    <row r="294" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R294" s="2"/>
     </row>
-    <row r="295" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R295" s="2"/>
     </row>
-    <row r="296" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R296" s="2"/>
     </row>
-    <row r="297" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R297" s="2"/>
     </row>
-    <row r="298" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R298" s="2"/>
     </row>
-    <row r="299" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R299" s="2"/>
     </row>
-    <row r="300" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R300" s="2"/>
     </row>
-    <row r="301" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R301" s="2"/>
     </row>
-    <row r="302" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R302" s="2"/>
     </row>
-    <row r="303" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R303" s="2"/>
     </row>
-    <row r="304" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R304" s="2"/>
     </row>
-    <row r="305" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R305" s="2"/>
     </row>
-    <row r="306" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R306" s="2"/>
     </row>
-    <row r="307" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R308" s="2"/>
     </row>
-    <row r="309" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R309" s="2"/>
     </row>
-    <row r="310" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R310" s="2"/>
     </row>
-    <row r="311" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R311" s="2"/>
     </row>
-    <row r="312" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R313" s="2"/>
     </row>
-    <row r="314" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R314" s="2"/>
     </row>
-    <row r="315" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R315" s="2"/>
     </row>
-    <row r="316" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R316" s="2"/>
     </row>
-    <row r="317" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R317" s="2"/>
     </row>
-    <row r="318" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R318" s="2"/>
     </row>
-    <row r="319" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R320" s="2"/>
     </row>
-    <row r="321" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R321" s="2"/>
     </row>
-    <row r="322" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R322" s="2"/>
     </row>
-    <row r="323" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R323" s="2"/>
     </row>
-    <row r="324" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R324" s="2"/>
     </row>
-    <row r="325" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R325" s="2"/>
     </row>
-    <row r="326" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R326" s="2"/>
     </row>
-    <row r="327" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R327" s="2"/>
     </row>
-    <row r="328" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R328" s="2"/>
     </row>
-    <row r="329" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R329" s="2"/>
     </row>
-    <row r="330" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R330" s="2"/>
     </row>
-    <row r="331" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R331" s="2"/>
     </row>
-    <row r="332" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R332" s="2"/>
     </row>
-    <row r="333" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R333" s="2"/>
     </row>
-    <row r="334" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R335" s="2"/>
     </row>
-    <row r="336" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R336" s="2"/>
     </row>
-    <row r="337" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R337" s="2"/>
     </row>
-    <row r="338" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R338" s="2"/>
     </row>
-    <row r="339" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R339" s="2"/>
     </row>
-    <row r="340" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R340" s="2"/>
     </row>
-    <row r="341" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R341" s="2"/>
     </row>
-    <row r="342" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R342" s="2"/>
     </row>
-    <row r="343" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R343" s="2"/>
     </row>
-    <row r="344" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R344" s="2"/>
     </row>
-    <row r="345" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R345" s="2"/>
     </row>
-    <row r="346" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R346" s="2"/>
     </row>
-    <row r="347" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R347" s="2"/>
     </row>
-    <row r="348" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R348" s="2"/>
     </row>
-    <row r="349" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R349" s="2"/>
     </row>
-    <row r="350" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R350" s="2"/>
     </row>
-    <row r="351" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R351" s="2"/>
     </row>
-    <row r="352" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R363" s="2"/>
     </row>
-    <row r="364" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R368" s="2"/>
     </row>
-    <row r="369" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R369" s="2"/>
     </row>
-    <row r="370" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R370" s="2"/>
     </row>
-    <row r="371" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R371" s="2"/>
     </row>
-    <row r="372" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R372" s="2"/>
     </row>
-    <row r="373" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R373" s="2"/>
     </row>
-    <row r="374" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R374" s="2"/>
     </row>
-    <row r="375" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R375" s="2"/>
     </row>
-    <row r="376" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R376" s="2"/>
     </row>
-    <row r="377" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R377" s="2"/>
     </row>
-    <row r="378" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R378" s="2"/>
     </row>
-    <row r="379" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R379" s="2"/>
     </row>
-    <row r="380" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R380" s="2"/>
     </row>
-    <row r="381" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R381" s="2"/>
     </row>
-    <row r="382" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R382" s="2"/>
     </row>
-    <row r="383" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R383" s="2"/>
     </row>
-    <row r="384" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R384" s="2"/>
     </row>
-    <row r="385" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R385" s="2"/>
     </row>
-    <row r="386" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R386" s="2"/>
     </row>
-    <row r="387" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R387" s="2"/>
     </row>
-    <row r="388" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R389" s="2"/>
     </row>
-    <row r="390" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R390" s="2"/>
     </row>
-    <row r="391" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R392" s="2"/>
     </row>
-    <row r="393" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R393" s="2"/>
     </row>
-    <row r="394" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R394" s="2"/>
     </row>
-    <row r="395" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R395" s="2"/>
     </row>
-    <row r="396" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R396" s="2"/>
     </row>
-    <row r="397" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R397" s="2"/>
     </row>
-    <row r="398" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R398" s="2"/>
     </row>
-    <row r="399" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R399" s="2"/>
     </row>
-    <row r="400" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R400" s="2"/>
     </row>
-    <row r="401" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R401" s="2"/>
     </row>
-    <row r="402" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R403" s="2"/>
     </row>
-    <row r="404" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R404" s="2"/>
     </row>
-    <row r="405" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R405" s="2"/>
     </row>
-    <row r="406" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R406" s="2"/>
     </row>
-    <row r="407" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R407" s="2"/>
     </row>
-    <row r="408" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R408" s="2"/>
     </row>
-    <row r="409" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R409" s="2"/>
     </row>
-    <row r="410" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R410" s="2"/>
     </row>
-    <row r="411" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R411" s="2"/>
     </row>
-    <row r="412" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R412" s="2"/>
     </row>
-    <row r="413" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R413" s="2"/>
     </row>
-    <row r="414" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R414" s="2"/>
     </row>
-    <row r="415" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R415" s="2"/>
     </row>
-    <row r="416" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R416" s="2"/>
     </row>
-    <row r="417" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R417" s="2"/>
     </row>
-    <row r="418" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R418" s="2"/>
     </row>
-    <row r="419" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R419" s="2"/>
     </row>
-    <row r="420" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R420" s="2"/>
     </row>
-    <row r="421" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R421" s="2"/>
     </row>
-    <row r="422" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R422" s="2"/>
     </row>
-    <row r="423" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R423" s="2"/>
     </row>
-    <row r="424" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R424" s="2"/>
     </row>
-    <row r="425" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R425" s="2"/>
     </row>
-    <row r="426" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R426" s="2"/>
     </row>
-    <row r="427" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R427" s="2"/>
     </row>
-    <row r="428" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R428" s="2"/>
     </row>
-    <row r="429" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R429" s="2"/>
     </row>
-    <row r="430" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R430" s="2"/>
     </row>
-    <row r="431" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R431" s="2"/>
     </row>
-    <row r="432" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R433" s="2"/>
     </row>
-    <row r="434" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R434" s="2"/>
     </row>
-    <row r="435" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R435" s="2"/>
     </row>
-    <row r="436" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R436" s="2"/>
     </row>
-    <row r="437" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R437" s="2"/>
     </row>
-    <row r="438" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R438" s="2"/>
     </row>
-    <row r="439" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R439" s="2"/>
     </row>
-    <row r="440" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R440" s="2"/>
     </row>
-    <row r="441" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R441" s="2"/>
     </row>
-    <row r="442" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R442" s="2"/>
     </row>
-    <row r="443" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R443" s="2"/>
     </row>
-    <row r="444" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R444" s="2"/>
     </row>
-    <row r="445" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R445" s="2"/>
     </row>
-    <row r="446" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R446" s="2"/>
     </row>
-    <row r="447" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R447" s="2"/>
     </row>
-    <row r="448" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R448" s="2"/>
     </row>
-    <row r="449" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R449" s="2"/>
     </row>
-    <row r="450" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R450" s="2"/>
     </row>
-    <row r="451" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R451" s="2"/>
     </row>
-    <row r="452" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R452" s="2"/>
     </row>
-    <row r="453" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R453" s="2"/>
     </row>
-    <row r="454" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R454" s="2"/>
     </row>
-    <row r="455" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R455" s="2"/>
     </row>
-    <row r="456" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R456" s="2"/>
     </row>
-    <row r="457" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R457" s="2"/>
     </row>
-    <row r="458" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R458" s="2"/>
     </row>
-    <row r="459" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R459" s="2"/>
     </row>
-    <row r="460" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R460" s="2"/>
     </row>
-    <row r="461" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R461" s="2"/>
     </row>
-    <row r="462" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R462" s="2"/>
     </row>
-    <row r="463" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R463" s="2"/>
     </row>
-    <row r="464" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R464" s="2"/>
     </row>
-    <row r="465" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R465" s="2"/>
     </row>
-    <row r="466" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R466" s="2"/>
     </row>
-    <row r="467" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R467" s="2"/>
     </row>
-    <row r="468" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R468" s="2"/>
     </row>
-    <row r="469" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R469" s="2"/>
     </row>
-    <row r="470" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R470" s="2"/>
     </row>
-    <row r="471" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R471" s="2"/>
     </row>
-    <row r="472" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R472" s="2"/>
     </row>
-    <row r="473" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R473" s="2"/>
     </row>
-    <row r="474" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R474" s="2"/>
     </row>
-    <row r="475" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R475" s="2"/>
     </row>
-    <row r="476" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R476" s="2"/>
     </row>
-    <row r="477" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R477" s="2"/>
     </row>
-    <row r="478" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R478" s="2"/>
     </row>
-    <row r="479" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R479" s="2"/>
     </row>
-    <row r="480" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R480" s="2"/>
     </row>
-    <row r="481" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R481" s="2"/>
     </row>
-    <row r="482" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R482" s="2"/>
     </row>
-    <row r="483" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R483" s="2"/>
     </row>
-    <row r="484" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R484" s="2"/>
     </row>
-    <row r="485" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R485" s="2"/>
     </row>
-    <row r="486" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R486" s="2"/>
     </row>
-    <row r="487" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R487" s="2"/>
     </row>
-    <row r="488" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R488" s="2"/>
     </row>
-    <row r="489" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R489" s="2"/>
     </row>
-    <row r="490" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R490" s="2"/>
     </row>
-    <row r="491" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R491" s="2"/>
     </row>
-    <row r="492" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R492" s="2"/>
     </row>
-    <row r="493" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R493" s="2"/>
     </row>
-    <row r="494" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R494" s="2"/>
     </row>
-    <row r="495" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R495" s="2"/>
     </row>
-    <row r="496" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R496" s="2"/>
     </row>
-    <row r="497" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R497" s="2"/>
     </row>
-    <row r="498" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R498" s="2"/>
     </row>
-    <row r="499" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R499" s="2"/>
     </row>
-    <row r="500" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R500" s="2"/>
     </row>
-    <row r="501" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R501" s="2"/>
     </row>
-    <row r="502" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R502" s="2"/>
     </row>
-    <row r="503" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R503" s="2"/>
     </row>
-    <row r="504" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R504" s="2"/>
     </row>
-    <row r="505" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R505" s="2"/>
     </row>
-    <row r="506" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R506" s="2"/>
     </row>
-    <row r="507" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R507" s="2"/>
     </row>
-    <row r="508" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R508" s="2"/>
     </row>
-    <row r="509" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R509" s="2"/>
     </row>
-    <row r="510" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R510" s="2"/>
     </row>
-    <row r="511" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R511" s="2"/>
     </row>
-    <row r="512" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R512" s="2"/>
     </row>
-    <row r="513" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R513" s="2"/>
     </row>
-    <row r="514" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R514" s="2"/>
     </row>
-    <row r="515" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R515" s="2"/>
     </row>
-    <row r="516" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R516" s="2"/>
     </row>
-    <row r="517" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R517" s="2"/>
     </row>
-    <row r="518" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R518" s="2"/>
     </row>
-    <row r="519" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R519" s="2"/>
     </row>
-    <row r="520" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R520" s="2"/>
     </row>
-    <row r="521" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R521" s="2"/>
     </row>
-    <row r="522" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R522" s="2"/>
     </row>
-    <row r="523" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R523" s="2"/>
     </row>
-    <row r="524" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R524" s="2"/>
     </row>
-    <row r="525" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R525" s="2"/>
     </row>
-    <row r="526" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R526" s="2"/>
     </row>
-    <row r="527" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R527" s="2"/>
     </row>
-    <row r="528" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R528" s="2"/>
     </row>
-    <row r="529" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R529" s="2"/>
     </row>
-    <row r="530" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R530" s="2"/>
     </row>
-    <row r="531" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R531" s="2"/>
     </row>
-    <row r="532" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R532" s="2"/>
     </row>
-    <row r="533" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R533" s="2"/>
     </row>
-    <row r="534" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R534" s="2"/>
     </row>
-    <row r="535" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R535" s="2"/>
     </row>
-    <row r="536" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R536" s="2"/>
     </row>
-    <row r="537" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R537" s="2"/>
     </row>
-    <row r="538" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R538" s="2"/>
     </row>
-    <row r="539" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R539" s="2"/>
     </row>
-    <row r="540" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R540" s="2"/>
     </row>
-    <row r="541" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R541" s="2"/>
     </row>
-    <row r="542" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R542" s="2"/>
     </row>
-    <row r="543" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R543" s="2"/>
     </row>
-    <row r="544" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R544" s="2"/>
     </row>
-    <row r="545" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R545" s="2"/>
     </row>
-    <row r="546" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R546" s="2"/>
     </row>
-    <row r="547" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R547" s="2"/>
     </row>
-    <row r="548" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R548" s="2"/>
     </row>
-    <row r="549" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R549" s="2"/>
     </row>
-    <row r="550" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R550" s="2"/>
     </row>
-    <row r="551" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R551" s="2"/>
     </row>
-    <row r="552" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R552" s="2"/>
     </row>
-    <row r="553" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R553" s="2"/>
     </row>
-    <row r="554" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R554" s="2"/>
     </row>
-    <row r="555" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R555" s="2"/>
     </row>
-    <row r="556" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R556" s="2"/>
     </row>
-    <row r="557" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R557" s="2"/>
     </row>
-    <row r="558" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R558" s="2"/>
     </row>
-    <row r="559" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R559" s="2"/>
     </row>
-    <row r="560" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R560" s="2"/>
     </row>
-    <row r="561" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R561" s="2"/>
     </row>
-    <row r="562" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R562" s="2"/>
     </row>
-    <row r="563" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R563" s="2"/>
     </row>
-    <row r="564" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R564" s="2"/>
     </row>
-    <row r="565" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R565" s="2"/>
     </row>
-    <row r="566" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R566" s="2"/>
     </row>
-    <row r="567" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R567" s="2"/>
     </row>
-    <row r="568" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R568" s="2"/>
     </row>
-    <row r="569" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R569" s="2"/>
     </row>
-    <row r="570" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R570" s="2"/>
     </row>
-    <row r="571" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R571" s="2"/>
     </row>
-    <row r="572" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R572" s="2"/>
     </row>
-    <row r="573" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R573" s="2"/>
     </row>
-    <row r="574" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R574" s="2"/>
     </row>
-    <row r="575" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R575" s="2"/>
     </row>
-    <row r="576" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R576" s="2"/>
     </row>
-    <row r="577" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R577" s="2"/>
     </row>
-    <row r="578" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R578" s="2"/>
     </row>
-    <row r="579" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R579" s="2"/>
     </row>
-    <row r="580" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R580" s="2"/>
     </row>
-    <row r="581" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R581" s="2"/>
     </row>
-    <row r="582" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R582" s="2"/>
     </row>
-    <row r="583" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R583" s="2"/>
     </row>
-    <row r="584" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R584" s="2"/>
     </row>
-    <row r="585" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R585" s="2"/>
     </row>
-    <row r="586" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R586" s="2"/>
     </row>
-    <row r="587" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R587" s="2"/>
     </row>
-    <row r="588" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R588" s="2"/>
     </row>
-    <row r="589" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R589" s="2"/>
     </row>
-    <row r="590" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R590" s="2"/>
     </row>
-    <row r="591" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R591" s="2"/>
     </row>
-    <row r="592" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R592" s="2"/>
     </row>
-    <row r="593" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R593" s="2"/>
     </row>
-    <row r="594" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R594" s="2"/>
     </row>
-    <row r="595" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R595" s="2"/>
     </row>
-    <row r="596" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R596" s="2"/>
     </row>
-    <row r="597" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R597" s="2"/>
     </row>
-    <row r="598" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R598" s="2"/>
     </row>
-    <row r="599" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R599" s="2"/>
     </row>
-    <row r="600" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R600" s="2"/>
     </row>
-    <row r="601" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R601" s="2"/>
     </row>
-    <row r="602" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R602" s="2"/>
     </row>
-    <row r="603" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R603" s="2"/>
     </row>
-    <row r="604" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R604" s="2"/>
     </row>
-    <row r="605" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R605" s="2"/>
     </row>
-    <row r="606" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R606" s="2"/>
     </row>
-    <row r="607" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R607" s="2"/>
     </row>
-    <row r="608" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R608" s="2"/>
     </row>
-    <row r="609" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R609" s="2"/>
     </row>
-    <row r="610" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R610" s="2"/>
     </row>
-    <row r="611" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R611" s="2"/>
     </row>
-    <row r="612" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R612" s="2"/>
     </row>
-    <row r="613" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R613" s="2"/>
     </row>
-    <row r="614" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R614" s="2"/>
     </row>
-    <row r="615" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R615" s="2"/>
     </row>
-    <row r="616" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R616" s="2"/>
     </row>
-    <row r="617" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R617" s="2"/>
     </row>
-    <row r="618" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R618" s="2"/>
     </row>
-    <row r="619" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R619" s="2"/>
     </row>
-    <row r="620" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R620" s="2"/>
     </row>
-    <row r="621" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R621" s="2"/>
     </row>
-    <row r="622" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R622" s="2"/>
     </row>
-    <row r="623" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R623" s="2"/>
     </row>
-    <row r="624" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R624" s="2"/>
     </row>
-    <row r="625" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R625" s="2"/>
     </row>
-    <row r="626" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R626" s="2"/>
     </row>
-    <row r="627" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R627" s="2"/>
     </row>
-    <row r="628" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R628" s="2"/>
     </row>
-    <row r="629" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R629" s="2"/>
     </row>
-    <row r="630" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R630" s="2"/>
     </row>
-    <row r="631" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R631" s="2"/>
     </row>
-    <row r="632" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R632" s="2"/>
     </row>
-    <row r="633" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R633" s="2"/>
     </row>
-    <row r="634" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R634" s="2"/>
     </row>
-    <row r="635" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R635" s="2"/>
     </row>
-    <row r="636" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R636" s="2"/>
     </row>
-    <row r="637" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R637" s="2"/>
     </row>
-    <row r="638" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R638" s="2"/>
     </row>
-    <row r="639" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R639" s="2"/>
     </row>
-    <row r="640" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R640" s="2"/>
     </row>
-    <row r="641" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R641" s="2"/>
     </row>
-    <row r="642" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R642" s="2"/>
     </row>
-    <row r="643" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R643" s="2"/>
     </row>
-    <row r="644" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R644" s="2"/>
     </row>
-    <row r="645" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R645" s="2"/>
     </row>
-    <row r="646" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R646" s="2"/>
     </row>
-    <row r="647" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R647" s="2"/>
     </row>
-    <row r="648" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R648" s="2"/>
     </row>
-    <row r="649" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R649" s="2"/>
     </row>
-    <row r="650" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R650" s="2"/>
     </row>
-    <row r="651" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R651" s="2"/>
     </row>
-    <row r="652" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R652" s="2"/>
     </row>
-    <row r="653" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R653" s="2"/>
     </row>
-    <row r="654" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R654" s="2"/>
     </row>
-    <row r="655" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R655" s="2"/>
     </row>
-    <row r="656" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R656" s="2"/>
     </row>
-    <row r="657" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R657" s="2"/>
     </row>
-    <row r="658" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R658" s="2"/>
     </row>
-    <row r="659" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R659" s="2"/>
     </row>
-    <row r="660" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R660" s="2"/>
     </row>
-    <row r="661" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R661" s="2"/>
     </row>
-    <row r="662" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R662" s="2"/>
     </row>
-    <row r="663" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R663" s="2"/>
     </row>
-    <row r="664" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R664" s="2"/>
     </row>
-    <row r="665" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R665" s="2"/>
     </row>
-    <row r="666" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R666" s="2"/>
     </row>
-    <row r="667" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R667" s="2"/>
     </row>
-    <row r="668" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R668" s="2"/>
     </row>
-    <row r="669" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R669" s="2"/>
     </row>
-    <row r="670" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R670" s="2"/>
     </row>
-    <row r="671" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R671" s="2"/>
     </row>
-    <row r="672" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R672" s="2"/>
     </row>
-    <row r="673" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R673" s="2"/>
     </row>
-    <row r="674" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R674" s="2"/>
     </row>
-    <row r="675" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R675" s="2"/>
     </row>
-    <row r="676" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R676" s="2"/>
     </row>
-    <row r="677" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R677" s="2"/>
     </row>
-    <row r="678" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R678" s="2"/>
     </row>
-    <row r="679" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R679" s="2"/>
     </row>
-    <row r="680" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R680" s="2"/>
     </row>
-    <row r="681" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R681" s="2"/>
     </row>
-    <row r="682" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R682" s="2"/>
     </row>
-    <row r="683" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R683" s="2"/>
     </row>
-    <row r="684" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R684" s="2"/>
     </row>
-    <row r="685" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R685" s="2"/>
     </row>
-    <row r="686" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R686" s="2"/>
     </row>
-    <row r="687" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R687" s="2"/>
     </row>
-    <row r="688" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R688" s="2"/>
     </row>
-    <row r="689" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R689" s="2"/>
     </row>
-    <row r="690" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R690" s="2"/>
     </row>
-    <row r="691" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R691" s="2"/>
     </row>
-    <row r="692" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R692" s="2"/>
     </row>
-    <row r="693" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R693" s="2"/>
     </row>
-    <row r="694" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R694" s="2"/>
     </row>
-    <row r="695" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R695" s="2"/>
     </row>
-    <row r="696" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R696" s="2"/>
     </row>
-    <row r="697" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R697" s="2"/>
     </row>
-    <row r="698" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R698" s="2"/>
     </row>
-    <row r="699" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R699" s="2"/>
     </row>
-    <row r="700" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R700" s="2"/>
     </row>
-    <row r="701" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R701" s="2"/>
     </row>
-    <row r="702" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R702" s="2"/>
     </row>
-    <row r="703" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R703" s="2"/>
     </row>
-    <row r="704" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R704" s="2"/>
     </row>
-    <row r="705" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R705" s="2"/>
     </row>
-    <row r="706" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R706" s="2"/>
     </row>
-    <row r="707" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R707" s="2"/>
     </row>
-    <row r="708" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R708" s="2"/>
     </row>
-    <row r="709" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R709" s="2"/>
     </row>
-    <row r="710" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R710" s="2"/>
     </row>
-    <row r="711" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R711" s="2"/>
     </row>
-    <row r="712" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R712" s="2"/>
     </row>
-    <row r="713" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R713" s="2"/>
     </row>
-    <row r="714" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R714" s="2"/>
     </row>
-    <row r="715" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R715" s="2"/>
     </row>
-    <row r="716" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R716" s="2"/>
     </row>
-    <row r="717" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R717" s="2"/>
     </row>
-    <row r="718" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R718" s="2"/>
     </row>
-    <row r="719" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R719" s="2"/>
     </row>
-    <row r="720" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R720" s="2"/>
     </row>
-    <row r="721" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R721" s="2"/>
     </row>
-    <row r="722" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R722" s="2"/>
     </row>
-    <row r="723" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R723" s="2"/>
     </row>
-    <row r="724" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R724" s="2"/>
     </row>
-    <row r="725" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R725" s="2"/>
     </row>
-    <row r="726" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R726" s="2"/>
     </row>
-    <row r="727" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R727" s="2"/>
     </row>
-    <row r="728" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R728" s="2"/>
     </row>
-    <row r="729" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R729" s="2"/>
     </row>
-    <row r="730" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R730" s="2"/>
     </row>
-    <row r="731" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R731" s="2"/>
     </row>
-    <row r="732" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R732" s="2"/>
     </row>
-    <row r="733" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R733" s="2"/>
     </row>
-    <row r="734" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R734" s="2"/>
     </row>
-    <row r="735" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R735" s="2"/>
     </row>
-    <row r="736" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R736" s="2"/>
     </row>
-    <row r="737" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R737" s="2"/>
     </row>
-    <row r="738" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R738" s="2"/>
     </row>
-    <row r="739" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R739" s="2"/>
     </row>
-    <row r="740" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R740" s="2"/>
     </row>
-    <row r="741" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R741" s="2"/>
     </row>
-    <row r="742" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R742" s="2"/>
     </row>
-    <row r="743" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R743" s="2"/>
     </row>
-    <row r="744" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R744" s="2"/>
     </row>
-    <row r="745" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R745" s="2"/>
     </row>
-    <row r="746" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R746" s="2"/>
     </row>
-    <row r="747" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R747" s="2"/>
     </row>
-    <row r="748" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R748" s="2"/>
     </row>
-    <row r="749" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R749" s="2"/>
     </row>
-    <row r="750" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R750" s="2"/>
     </row>
-    <row r="751" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R751" s="2"/>
     </row>
-    <row r="752" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R752" s="2"/>
     </row>
-    <row r="753" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R753" s="2"/>
     </row>
-    <row r="754" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R754" s="2"/>
     </row>
-    <row r="755" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R755" s="2"/>
     </row>
-    <row r="756" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R756" s="2"/>
     </row>
-    <row r="757" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R757" s="2"/>
     </row>
-    <row r="758" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R758" s="2"/>
     </row>
-    <row r="759" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R759" s="2"/>
     </row>
-    <row r="760" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R760" s="2"/>
     </row>
-    <row r="761" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R761" s="2"/>
     </row>
-    <row r="762" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R762" s="2"/>
     </row>
-    <row r="763" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R763" s="2"/>
     </row>
-    <row r="764" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R764" s="2"/>
     </row>
-    <row r="765" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R765" s="2"/>
     </row>
-    <row r="766" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R766" s="2"/>
     </row>
-    <row r="767" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R767" s="2"/>
     </row>
-    <row r="768" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R768" s="2"/>
     </row>
-    <row r="769" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R769" s="2"/>
     </row>
-    <row r="770" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R770" s="2"/>
     </row>
-    <row r="771" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R771" s="2"/>
     </row>
-    <row r="772" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R772" s="2"/>
     </row>
-    <row r="773" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R773" s="2"/>
     </row>
-    <row r="774" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R774" s="2"/>
     </row>
-    <row r="775" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R775" s="2"/>
     </row>
-    <row r="776" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R776" s="2"/>
     </row>
-    <row r="777" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R777" s="2"/>
     </row>
-    <row r="778" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R778" s="2"/>
     </row>
-    <row r="779" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R779" s="2"/>
     </row>
-    <row r="780" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R780" s="2"/>
     </row>
-    <row r="781" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R781" s="2"/>
     </row>
-    <row r="782" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R782" s="2"/>
     </row>
-    <row r="783" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R783" s="2"/>
     </row>
-    <row r="784" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R784" s="2"/>
     </row>
-    <row r="785" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R785" s="2"/>
     </row>
-    <row r="786" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R786" s="2"/>
     </row>
-    <row r="787" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R787" s="2"/>
     </row>
-    <row r="788" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R788" s="2"/>
     </row>
-    <row r="789" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R789" s="2"/>
     </row>
-    <row r="790" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R790" s="2"/>
     </row>
-    <row r="791" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R791" s="2"/>
     </row>
-    <row r="792" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R792" s="2"/>
     </row>
-    <row r="793" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R793" s="2"/>
     </row>
-    <row r="794" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R794" s="2"/>
     </row>
-    <row r="795" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R795" s="2"/>
     </row>
-    <row r="796" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R796" s="2"/>
     </row>
-    <row r="797" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R797" s="2"/>
     </row>
-    <row r="798" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R798" s="2"/>
     </row>
-    <row r="799" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R799" s="2"/>
     </row>
-    <row r="800" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R800" s="2"/>
     </row>
-    <row r="801" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R801" s="2"/>
     </row>
-    <row r="802" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R802" s="2"/>
     </row>
-    <row r="803" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R803" s="2"/>
     </row>
-    <row r="804" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R804" s="2"/>
     </row>
-    <row r="805" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R805" s="2"/>
     </row>
-    <row r="806" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R806" s="2"/>
     </row>
-    <row r="807" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R807" s="2"/>
     </row>
-    <row r="808" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R808" s="2"/>
     </row>
-    <row r="809" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R809" s="2"/>
     </row>
-    <row r="810" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R810" s="2"/>
     </row>
-    <row r="811" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R811" s="2"/>
     </row>
-    <row r="812" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R812" s="2"/>
     </row>
-    <row r="813" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R813" s="2"/>
     </row>
-    <row r="814" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R814" s="2"/>
     </row>
-    <row r="815" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R815" s="2"/>
     </row>
-    <row r="816" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R816" s="2"/>
     </row>
-    <row r="817" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R817" s="2"/>
     </row>
-    <row r="818" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R818" s="2"/>
     </row>
-    <row r="819" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R819" s="2"/>
     </row>
-    <row r="820" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R820" s="2"/>
     </row>
-    <row r="821" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R821" s="2"/>
     </row>
-    <row r="822" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R822" s="2"/>
     </row>
-    <row r="823" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R823" s="2"/>
     </row>
-    <row r="824" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R824" s="2"/>
     </row>
-    <row r="825" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R825" s="2"/>
     </row>
-    <row r="826" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R826" s="2"/>
     </row>
-    <row r="827" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R827" s="2"/>
     </row>
-    <row r="828" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R828" s="2"/>
     </row>
-    <row r="829" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R829" s="2"/>
     </row>
-    <row r="830" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R830" s="2"/>
     </row>
-    <row r="831" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R831" s="2"/>
     </row>
-    <row r="832" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R832" s="2"/>
     </row>
-    <row r="833" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R833" s="2"/>
     </row>
-    <row r="834" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R834" s="2"/>
     </row>
-    <row r="835" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R835" s="2"/>
     </row>
-    <row r="836" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R836" s="2"/>
     </row>
-    <row r="837" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R837" s="2"/>
     </row>
-    <row r="838" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R838" s="2"/>
     </row>
-    <row r="839" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R839" s="2"/>
     </row>
-    <row r="840" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R840" s="2"/>
     </row>
-    <row r="841" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R841" s="2"/>
     </row>
-    <row r="842" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R842" s="2"/>
     </row>
-    <row r="843" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R843" s="2"/>
     </row>
-    <row r="844" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R844" s="2"/>
     </row>
-    <row r="845" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R845" s="2"/>
     </row>
-    <row r="846" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R846" s="2"/>
     </row>
-    <row r="847" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R847" s="2"/>
     </row>
-    <row r="848" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R848" s="2"/>
     </row>
-    <row r="849" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R849" s="2"/>
     </row>
-    <row r="850" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R850" s="2"/>
     </row>
-    <row r="851" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R851" s="2"/>
     </row>
-    <row r="852" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R852" s="2"/>
     </row>
-    <row r="853" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R853" s="2"/>
     </row>
-    <row r="854" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R854" s="2"/>
     </row>
-    <row r="855" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R855" s="2"/>
     </row>
-    <row r="856" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R856" s="2"/>
     </row>
-    <row r="857" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R857" s="2"/>
     </row>
-    <row r="858" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R858" s="2"/>
     </row>
-    <row r="859" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R859" s="2"/>
     </row>
-    <row r="860" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R860" s="2"/>
     </row>
-    <row r="861" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R861" s="2"/>
     </row>
-    <row r="862" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R862" s="2"/>
     </row>
-    <row r="863" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R863" s="2"/>
     </row>
-    <row r="864" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R864" s="2"/>
     </row>
-    <row r="865" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R865" s="2"/>
     </row>
-    <row r="866" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R866" s="2"/>
     </row>
-    <row r="867" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R867" s="2"/>
     </row>
-    <row r="868" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R868" s="2"/>
     </row>
-    <row r="869" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R869" s="2"/>
     </row>
-    <row r="870" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R870" s="2"/>
     </row>
-    <row r="871" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R871" s="2"/>
     </row>
-    <row r="872" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R872" s="2"/>
     </row>
-    <row r="873" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R873" s="2"/>
     </row>
-    <row r="874" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R874" s="2"/>
     </row>
-    <row r="875" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R875" s="2"/>
     </row>
-    <row r="876" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R876" s="2"/>
     </row>
-    <row r="877" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R877" s="2"/>
     </row>
-    <row r="878" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R878" s="2"/>
     </row>
-    <row r="879" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R879" s="2"/>
     </row>
-    <row r="880" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R880" s="2"/>
     </row>
-    <row r="881" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R881" s="2"/>
     </row>
-    <row r="882" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R882" s="2"/>
     </row>
-    <row r="883" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R883" s="2"/>
     </row>
-    <row r="884" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R884" s="2"/>
     </row>
-    <row r="885" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R885" s="2"/>
     </row>
-    <row r="886" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R886" s="2"/>
     </row>
-    <row r="887" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R887" s="2"/>
     </row>
-    <row r="888" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R888" s="2"/>
     </row>
-    <row r="889" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R889" s="2"/>
     </row>
-    <row r="890" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R890" s="2"/>
     </row>
-    <row r="891" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R891" s="2"/>
     </row>
-    <row r="892" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R892" s="2"/>
     </row>
-    <row r="893" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R893" s="2"/>
     </row>
-    <row r="894" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R894" s="2"/>
     </row>
-    <row r="895" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R895" s="2"/>
     </row>
-    <row r="896" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R896" s="2"/>
     </row>
-    <row r="897" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R897" s="2"/>
     </row>
-    <row r="898" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R898" s="2"/>
     </row>
-    <row r="899" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R899" s="2"/>
     </row>
-    <row r="900" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R900" s="2"/>
     </row>
-    <row r="901" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R901" s="2"/>
     </row>
-    <row r="902" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R902" s="2"/>
     </row>
-    <row r="903" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R903" s="2"/>
     </row>
-    <row r="904" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R904" s="2"/>
     </row>
-    <row r="905" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R905" s="2"/>
     </row>
-    <row r="906" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R906" s="2"/>
     </row>
-    <row r="907" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R907" s="2"/>
     </row>
-    <row r="908" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R908" s="2"/>
     </row>
-    <row r="909" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R909" s="2"/>
     </row>
-    <row r="910" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R910" s="2"/>
     </row>
-    <row r="911" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R911" s="2"/>
     </row>
-    <row r="912" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R912" s="2"/>
     </row>
-    <row r="913" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R913" s="2"/>
     </row>
-    <row r="914" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R914" s="2"/>
     </row>
-    <row r="915" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R915" s="2"/>
     </row>
-    <row r="916" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R916" s="2"/>
     </row>
-    <row r="917" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R917" s="2"/>
     </row>
-    <row r="918" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R918" s="2"/>
     </row>
-    <row r="919" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R919" s="2"/>
     </row>
-    <row r="920" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R920" s="2"/>
     </row>
-    <row r="921" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R921" s="2"/>
     </row>
-    <row r="922" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R922" s="2"/>
     </row>
-    <row r="923" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R923" s="2"/>
     </row>
-    <row r="924" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R924" s="2"/>
     </row>
-    <row r="925" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R925" s="2"/>
     </row>
-    <row r="926" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R926" s="2"/>
     </row>
-    <row r="927" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R927" s="2"/>
     </row>
-    <row r="928" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R928" s="2"/>
     </row>
-    <row r="929" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R929" s="2"/>
     </row>
-    <row r="930" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R930" s="2"/>
     </row>
-    <row r="931" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R931" s="2"/>
     </row>
-    <row r="932" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R932" s="2"/>
     </row>
-    <row r="933" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R933" s="2"/>
     </row>
-    <row r="934" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R934" s="2"/>
     </row>
-    <row r="935" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R935" s="2"/>
     </row>
-    <row r="936" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R936" s="2"/>
     </row>
-    <row r="937" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R937" s="2"/>
     </row>
-    <row r="938" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R938" s="2"/>
     </row>
-    <row r="939" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R939" s="2"/>
     </row>
-    <row r="940" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R940" s="2"/>
     </row>
-    <row r="941" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R941" s="2"/>
     </row>
-    <row r="942" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R942" s="2"/>
     </row>
-    <row r="943" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R943" s="2"/>
     </row>
-    <row r="944" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R944" s="2"/>
     </row>
-    <row r="945" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R945" s="2"/>
     </row>
-    <row r="946" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R946" s="2"/>
     </row>
-    <row r="947" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R947" s="2"/>
     </row>
-    <row r="948" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R948" s="2"/>
     </row>
-    <row r="949" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R949" s="2"/>
     </row>
-    <row r="950" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R950" s="2"/>
     </row>
-    <row r="951" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R951" s="2"/>
     </row>
-    <row r="952" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R952" s="2"/>
     </row>
-    <row r="953" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R953" s="2"/>
     </row>
-    <row r="954" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R954" s="2"/>
     </row>
-    <row r="955" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R955" s="2"/>
     </row>
-    <row r="956" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R956" s="2"/>
     </row>
-    <row r="957" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R957" s="2"/>
     </row>
-    <row r="958" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R958" s="2"/>
     </row>
-    <row r="959" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R959" s="2"/>
     </row>
-    <row r="960" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R960" s="2"/>
     </row>
-    <row r="961" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R961" s="2"/>
     </row>
-    <row r="962" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R962" s="2"/>
     </row>
-    <row r="963" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R963" s="2"/>
     </row>
-    <row r="964" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R964" s="2"/>
     </row>
-    <row r="965" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R965" s="2"/>
     </row>
-    <row r="966" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R966" s="2"/>
     </row>
-    <row r="967" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R967" s="2"/>
     </row>
-    <row r="968" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R968" s="2"/>
     </row>
-    <row r="969" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R969" s="2"/>
     </row>
-    <row r="970" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="R970" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
@@ -6913,387 +7401,76 @@
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -7301,6 +7478,53 @@
       <formula1>"Status,Passed,Failed"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{F87C4AFC-3440-4909-AFE8-759EDE46B881}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{0FF9FEE0-22A4-41F5-AA43-2B3B60A46A18}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{7B44AE15-8E92-42F6-9242-A2A05B3C507F}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{226D7D58-CD97-466C-B508-BB49BC949D26}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{9C3AA1B6-4B58-4EA2-AAB0-F6798ADA8FCD}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{69A96259-3B55-4A92-96D3-2749755F6175}"/>
+    <hyperlink ref="S8" r:id="rId7" xr:uid="{595DFD61-33A6-476B-99F7-87B5D8628333}"/>
+    <hyperlink ref="S9" r:id="rId8" xr:uid="{C0E70AB3-D708-4609-97C6-09270507D790}"/>
+    <hyperlink ref="S10" r:id="rId9" xr:uid="{51A71503-9629-4144-B2E4-D0965EBD9BA4}"/>
+    <hyperlink ref="S11" r:id="rId10" xr:uid="{4C7B1C66-15E6-48E8-BDEA-6CBF53D9C93A}"/>
+    <hyperlink ref="S12" r:id="rId11" xr:uid="{B6FC255D-E602-4629-9AC6-C1A236A22215}"/>
+    <hyperlink ref="S13" r:id="rId12" xr:uid="{D4DF84FC-A6E4-4366-B0B7-FD70AD8614F6}"/>
+    <hyperlink ref="S14" r:id="rId13" xr:uid="{86AC4D49-1A35-4BD3-9266-0E477A67695F}"/>
+    <hyperlink ref="S15" r:id="rId14" xr:uid="{B9B401C7-644D-415E-AE13-C99C79B7BCE4}"/>
+    <hyperlink ref="S16" r:id="rId15" xr:uid="{56DB907C-E7E5-409C-BAC4-B63093F59AE0}"/>
+    <hyperlink ref="S17" r:id="rId16" xr:uid="{C4AAC494-CB04-42CA-B143-F47C5A136347}"/>
+    <hyperlink ref="S18" r:id="rId17" xr:uid="{635F8D8E-C364-4697-BED4-4CD432B2E1E2}"/>
+    <hyperlink ref="S20" r:id="rId18" xr:uid="{552F2AD0-97C0-4D8B-8D48-D4D7D7D25AB1}"/>
+    <hyperlink ref="S27" r:id="rId19" xr:uid="{73669949-1CC1-4E59-9635-797EC53E2558}"/>
+    <hyperlink ref="S35" r:id="rId20" xr:uid="{C9A9E4FE-0F22-48A1-BAD8-B8E899FEE937}"/>
+    <hyperlink ref="S36" r:id="rId21" xr:uid="{F17BB888-4B79-4AE7-A1CA-DD939FBDCBAF}"/>
+    <hyperlink ref="S37" r:id="rId22" xr:uid="{7FAE4026-5664-414E-9F85-D59B777B25C6}"/>
+    <hyperlink ref="S38" r:id="rId23" xr:uid="{459BACFE-F7B9-41DF-A0F5-CE5467B714FE}"/>
+    <hyperlink ref="S39" r:id="rId24" xr:uid="{88D627F3-F074-4366-B25B-A11A24583671}"/>
+    <hyperlink ref="S40" r:id="rId25" xr:uid="{74E08284-750B-47E5-A389-D8FFB5C0B629}"/>
+    <hyperlink ref="S41" r:id="rId26" xr:uid="{DACA07E2-4503-4F74-8653-37F3658F51BD}"/>
+    <hyperlink ref="S42" r:id="rId27" xr:uid="{59D24FC6-2457-42DE-AD3E-DFFAF7537CF4}"/>
+    <hyperlink ref="S44" r:id="rId28" xr:uid="{062EAC22-6499-49DF-BBFD-1207C5141F99}"/>
+    <hyperlink ref="S45" r:id="rId29" xr:uid="{CACA33AF-2DCF-4601-8730-74F7531253FE}"/>
+    <hyperlink ref="S46" r:id="rId30" xr:uid="{A98FF740-CE5B-4895-BB85-FB6C504CFDD3}"/>
+    <hyperlink ref="S47" r:id="rId31" xr:uid="{E45E20F8-E03C-424A-B611-A6B2DD97FB57}"/>
+    <hyperlink ref="S48" r:id="rId32" xr:uid="{B17F2927-D1D8-40E2-9486-CF3953283F80}"/>
+    <hyperlink ref="S49" r:id="rId33" xr:uid="{E5FFCA7C-BAEC-4401-909D-BA57C4AF00B1}"/>
+    <hyperlink ref="S50" r:id="rId34" xr:uid="{56E175AC-8D67-49A7-BDA8-DDC47BDA29AA}"/>
+    <hyperlink ref="S51" r:id="rId35" xr:uid="{81B14438-21FA-4EF2-BE6F-B1A6A07E5CAC}"/>
+    <hyperlink ref="S52" r:id="rId36" xr:uid="{A06AC91B-A036-48B8-963D-787CE08A4FE4}"/>
+    <hyperlink ref="S53" r:id="rId37" xr:uid="{DCBDDD1D-1EBF-430C-ACB8-5DD4ADEADB0E}"/>
+    <hyperlink ref="S54" r:id="rId38" xr:uid="{E5846D0A-F625-4DA7-8EE3-7CAEC128BF40}"/>
+    <hyperlink ref="S55" r:id="rId39" xr:uid="{14FA71FF-05BF-4AD9-87CA-9EC941E7293A}"/>
+    <hyperlink ref="S56" r:id="rId40" xr:uid="{754B8688-9F5C-4B6E-B693-2F77F7133769}"/>
+    <hyperlink ref="S57" r:id="rId41" xr:uid="{E992C47E-9155-41B5-B5B0-85F5C81A9E65}"/>
+    <hyperlink ref="S58" r:id="rId42" xr:uid="{C74D3AD0-E58F-4F84-AD11-8BD8A310F327}"/>
+    <hyperlink ref="S59" r:id="rId43" xr:uid="{E3A86D24-A82A-4E66-BAE1-80AD9FB1E70B}"/>
+    <hyperlink ref="S60" r:id="rId44" xr:uid="{25705385-A3B8-44E5-AEAF-42EE92F37DC5}"/>
+    <hyperlink ref="S61" r:id="rId45" xr:uid="{810A960A-E036-4C34-B71C-36271ADEABF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DAB00C-E5CF-4A43-9A88-6206B9A716E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCFC501-2F5A-4FC5-BE39-85D071ECF76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,6 @@
   <si>
     <t xml:space="preserve">The User Login Successfully and 
 redirected to home page that contains supplier products </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The User Login Successfully and 
-redirected to home page that contains products to shop </t>
   </si>
   <si>
     <t xml:space="preserve">1-The Data will be entered for Supplier account
@@ -1106,6 +1102,10 @@
     <t>1. Type "valid-email" in email field
 2. Fill other fields with valid data
 3. Click "Register"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The User Login Successfully with message 
+"Login successfully"and redirected to home page that contains products to shop </t>
   </si>
 </sst>
 </file>
@@ -1264,22 +1264,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1287,22 +1276,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -1318,14 +1303,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,5208 +1547,5519 @@
   </sheetPr>
   <dimension ref="A1:S970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:L9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="5"/>
+    <col min="13" max="13" width="12.5546875" style="5"/>
     <col min="14" max="14" width="21" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="5" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="8"/>
+    <col min="19" max="19" width="12.5546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="27" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="15" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
-        <v>58</v>
+      <c r="I2" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
-        <v>59</v>
+      <c r="M2" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
+      <c r="P2" s="9"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="9" t="s">
-        <v>63</v>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="12"/>
+      <c r="M3" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
-        <v>62</v>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="9" t="s">
-        <v>66</v>
+      <c r="I4" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="9" t="s">
-        <v>70</v>
+      <c r="I5" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12" t="s">
-        <v>62</v>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="9" t="s">
-        <v>73</v>
+      <c r="I6" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
-        <v>112</v>
+      <c r="M6" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="9" t="s">
-        <v>233</v>
+      <c r="I7" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
-        <v>77</v>
+      <c r="M7" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
-        <v>62</v>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
-        <v>80</v>
+      <c r="I8" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12" t="s">
-        <v>62</v>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="9" t="s">
-        <v>83</v>
+      <c r="I9" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="12" t="s">
-        <v>84</v>
+      <c r="M9" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12" t="s">
-        <v>62</v>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="9" t="s">
-        <v>87</v>
+      <c r="I10" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12" t="s">
-        <v>62</v>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="9" t="s">
-        <v>90</v>
+      <c r="I11" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
-        <v>62</v>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="9" t="s">
-        <v>93</v>
+      <c r="I12" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="12"/>
+      <c r="M12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12" t="s">
-        <v>62</v>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="9" t="s">
-        <v>96</v>
+      <c r="I13" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="12" t="s">
-        <v>112</v>
+      <c r="M13" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
-        <v>62</v>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="9" t="s">
-        <v>99</v>
+      <c r="I14" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="12" t="s">
-        <v>112</v>
+      <c r="M14" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="9" t="s">
-        <v>99</v>
+      <c r="I15" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="12" t="s">
-        <v>77</v>
+      <c r="M15" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12" t="s">
-        <v>62</v>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="9" t="s">
-        <v>105</v>
+      <c r="I16" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
-        <v>112</v>
+      <c r="M16" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12" t="s">
-        <v>62</v>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="9" t="s">
-        <v>108</v>
+      <c r="I17" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="12" t="s">
-        <v>112</v>
+      <c r="M17" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12" t="s">
-        <v>62</v>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="9" t="s">
-        <v>111</v>
+      <c r="I18" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="12" t="s">
-        <v>112</v>
+      <c r="M18" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="24"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="6"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="9" t="s">
-        <v>26</v>
+      <c r="M20" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="12"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="12"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
+      <c r="P26" s="9"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
+      <c r="P28" s="9"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
+      <c r="P29" s="9"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="9" t="s">
-        <v>27</v>
+      <c r="I30" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
+      <c r="P30" s="9"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="12" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="9" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="9" t="s">
-        <v>42</v>
+      <c r="I33" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="24"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
       <c r="R34" s="6"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="9" t="s">
-        <v>117</v>
+      <c r="I35" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="9" t="s">
-        <v>118</v>
+      <c r="M35" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
+      <c r="P35" s="9"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="9" t="s">
-        <v>122</v>
+      <c r="I36" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="12" t="s">
-        <v>123</v>
+      <c r="M36" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="12" t="s">
-        <v>121</v>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="9" t="s">
-        <v>126</v>
+      <c r="I37" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="9"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="12" t="s">
-        <v>121</v>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="9" t="s">
-        <v>129</v>
+      <c r="I38" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="12"/>
+      <c r="M38" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="9"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="12" t="s">
-        <v>121</v>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="9" t="s">
-        <v>132</v>
+      <c r="I39" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="12"/>
+      <c r="M39" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="9"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="12" t="s">
-        <v>121</v>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="9" t="s">
-        <v>135</v>
+      <c r="I40" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="N40" s="31"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="12"/>
+      <c r="M40" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="9"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="9" t="s">
-        <v>231</v>
+      <c r="I41" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="12" t="s">
-        <v>139</v>
+      <c r="M41" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="12"/>
+      <c r="P41" s="9"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12" t="s">
-        <v>138</v>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="9" t="s">
-        <v>232</v>
+      <c r="I42" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="12" t="s">
-        <v>142</v>
+      <c r="M42" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="12"/>
+      <c r="P42" s="9"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="24"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="19"/>
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="12" t="s">
-        <v>221</v>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="12" t="s">
-        <v>145</v>
+      <c r="I44" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="12"/>
+      <c r="M44" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" s="13"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="9"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="12" t="s">
-        <v>145</v>
+      <c r="I45" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="12"/>
+      <c r="M45" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="9"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="12"/>
+      <c r="I46" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="9"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="12" t="s">
-        <v>177</v>
+        <v>150</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="12"/>
+      <c r="I47" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N47" s="13"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="9"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="12" t="s">
-        <v>176</v>
+        <v>151</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="12"/>
+      <c r="I48" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="9"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="12"/>
+      <c r="I49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="9"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="12" t="s">
-        <v>174</v>
+        <v>153</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="12"/>
+      <c r="I50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="13"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="9"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="12" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="12" t="s">
-        <v>188</v>
+      <c r="I51" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="N51" s="18"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="12"/>
+      <c r="M51" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="9"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="12" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="12" t="s">
-        <v>188</v>
+      <c r="I52" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="12"/>
+      <c r="M52" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N52" s="13"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="9"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="9" t="s">
-        <v>217</v>
+        <v>156</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="9" t="s">
-        <v>223</v>
+      <c r="M53" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="12"/>
+      <c r="P53" s="9"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="N54" s="13"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="9"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="9"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="N56" s="13"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="9"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="12" t="s">
-        <v>188</v>
+        <v>160</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="11"/>
-      <c r="M57" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="N57" s="18"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="12"/>
+      <c r="M57" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="9"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="9" t="s">
-        <v>204</v>
+        <v>161</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="9" t="s">
-        <v>216</v>
+      <c r="I58" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="9" t="s">
-        <v>206</v>
+      <c r="M58" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="11"/>
-      <c r="P58" s="12"/>
+      <c r="P58" s="9"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="12" t="s">
-        <v>205</v>
+        <v>162</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="N59" s="18"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="12"/>
+      <c r="I59" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N59" s="13"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="9"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>210</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="9" t="s">
+      <c r="I60" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="12"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="9"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="9" t="s">
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="N61" s="18"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N61" s="13"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="9"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="12"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="11"/>
-      <c r="M62" s="12"/>
+      <c r="M62" s="9"/>
       <c r="N62" s="10"/>
       <c r="O62" s="11"/>
-      <c r="P62" s="12"/>
+      <c r="P62" s="9"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="11"/>
-      <c r="M63" s="12"/>
+      <c r="M63" s="9"/>
       <c r="N63" s="10"/>
       <c r="O63" s="11"/>
-      <c r="P63" s="12"/>
+      <c r="P63" s="9"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="12"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="11"/>
-      <c r="M64" s="12"/>
+      <c r="M64" s="9"/>
       <c r="N64" s="10"/>
       <c r="O64" s="11"/>
-      <c r="P64" s="12"/>
+      <c r="P64" s="9"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="11"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="11"/>
-      <c r="M65" s="12"/>
+      <c r="M65" s="9"/>
       <c r="N65" s="10"/>
       <c r="O65" s="11"/>
-      <c r="P65" s="12"/>
+      <c r="P65" s="9"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="12"/>
+      <c r="M66" s="9"/>
       <c r="N66" s="10"/>
       <c r="O66" s="11"/>
-      <c r="P66" s="12"/>
+      <c r="P66" s="9"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="11"/>
-      <c r="I67" s="12"/>
+      <c r="I67" s="9"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="12"/>
+      <c r="M67" s="9"/>
       <c r="N67" s="10"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="12"/>
+      <c r="P67" s="9"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="12"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="11"/>
-      <c r="M68" s="12"/>
+      <c r="M68" s="9"/>
       <c r="N68" s="10"/>
       <c r="O68" s="11"/>
-      <c r="P68" s="12"/>
+      <c r="P68" s="9"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="12"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="11"/>
-      <c r="M69" s="12"/>
+      <c r="M69" s="9"/>
       <c r="N69" s="10"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="12"/>
+      <c r="P69" s="9"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
       <c r="L70" s="11"/>
-      <c r="M70" s="12"/>
+      <c r="M70" s="9"/>
       <c r="N70" s="10"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="12"/>
+      <c r="P70" s="9"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="11"/>
-      <c r="I71" s="12"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="12"/>
+      <c r="M71" s="9"/>
       <c r="N71" s="10"/>
       <c r="O71" s="11"/>
-      <c r="P71" s="12"/>
+      <c r="P71" s="9"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="11"/>
-      <c r="I72" s="12"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="12"/>
+      <c r="M72" s="9"/>
       <c r="N72" s="10"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="12"/>
+      <c r="P72" s="9"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="11"/>
-      <c r="I73" s="12"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="11"/>
-      <c r="M73" s="12"/>
+      <c r="M73" s="9"/>
       <c r="N73" s="10"/>
       <c r="O73" s="11"/>
-      <c r="P73" s="12"/>
+      <c r="P73" s="9"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="12"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
       <c r="L74" s="11"/>
-      <c r="M74" s="12"/>
+      <c r="M74" s="9"/>
       <c r="N74" s="10"/>
       <c r="O74" s="11"/>
-      <c r="P74" s="12"/>
+      <c r="P74" s="9"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="11"/>
-      <c r="I75" s="12"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="12"/>
+      <c r="M75" s="9"/>
       <c r="N75" s="10"/>
       <c r="O75" s="11"/>
-      <c r="P75" s="12"/>
+      <c r="P75" s="9"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="11"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
       <c r="L76" s="11"/>
-      <c r="M76" s="12"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="10"/>
       <c r="O76" s="11"/>
-      <c r="P76" s="12"/>
+      <c r="P76" s="9"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="12"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="9"/>
       <c r="N77" s="10"/>
       <c r="O77" s="11"/>
-      <c r="P77" s="12"/>
+      <c r="P77" s="9"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="12"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
       <c r="L78" s="11"/>
-      <c r="M78" s="12"/>
+      <c r="M78" s="9"/>
       <c r="N78" s="10"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="12"/>
+      <c r="P78" s="9"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="12"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="12"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
       <c r="L79" s="11"/>
-      <c r="M79" s="12"/>
+      <c r="M79" s="9"/>
       <c r="N79" s="10"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="12"/>
+      <c r="P79" s="9"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="12"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="12"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
       <c r="L80" s="11"/>
-      <c r="M80" s="12"/>
+      <c r="M80" s="9"/>
       <c r="N80" s="10"/>
       <c r="O80" s="11"/>
-      <c r="P80" s="12"/>
+      <c r="P80" s="9"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="12"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="11"/>
-      <c r="M81" s="12"/>
+      <c r="M81" s="9"/>
       <c r="N81" s="10"/>
       <c r="O81" s="11"/>
-      <c r="P81" s="12"/>
+      <c r="P81" s="9"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="12"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
       <c r="L82" s="11"/>
-      <c r="M82" s="12"/>
+      <c r="M82" s="9"/>
       <c r="N82" s="10"/>
       <c r="O82" s="11"/>
-      <c r="P82" s="12"/>
+      <c r="P82" s="9"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="11"/>
-      <c r="M83" s="12"/>
+      <c r="M83" s="9"/>
       <c r="N83" s="10"/>
       <c r="O83" s="11"/>
-      <c r="P83" s="12"/>
+      <c r="P83" s="9"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="11"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="12"/>
+      <c r="M84" s="9"/>
       <c r="N84" s="10"/>
       <c r="O84" s="11"/>
-      <c r="P84" s="12"/>
+      <c r="P84" s="9"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="12"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="11"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="11"/>
-      <c r="M85" s="12"/>
+      <c r="M85" s="9"/>
       <c r="N85" s="10"/>
       <c r="O85" s="11"/>
-      <c r="P85" s="12"/>
+      <c r="P85" s="9"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="9"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
       <c r="L86" s="11"/>
-      <c r="M86" s="12"/>
+      <c r="M86" s="9"/>
       <c r="N86" s="10"/>
       <c r="O86" s="11"/>
-      <c r="P86" s="12"/>
+      <c r="P86" s="9"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="9"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="12"/>
+      <c r="M87" s="9"/>
       <c r="N87" s="10"/>
       <c r="O87" s="11"/>
-      <c r="P87" s="12"/>
+      <c r="P87" s="9"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="12"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="11"/>
-      <c r="I88" s="12"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="11"/>
-      <c r="M88" s="12"/>
+      <c r="M88" s="9"/>
       <c r="N88" s="10"/>
       <c r="O88" s="11"/>
-      <c r="P88" s="12"/>
+      <c r="P88" s="9"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="12"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
       <c r="L89" s="11"/>
-      <c r="M89" s="12"/>
+      <c r="M89" s="9"/>
       <c r="N89" s="10"/>
       <c r="O89" s="11"/>
-      <c r="P89" s="12"/>
+      <c r="P89" s="9"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="12"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="12"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="11"/>
-      <c r="M90" s="12"/>
+      <c r="M90" s="9"/>
       <c r="N90" s="10"/>
       <c r="O90" s="11"/>
-      <c r="P90" s="12"/>
+      <c r="P90" s="9"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="12"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="12"/>
+      <c r="I91" s="9"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
       <c r="L91" s="11"/>
-      <c r="M91" s="12"/>
+      <c r="M91" s="9"/>
       <c r="N91" s="10"/>
       <c r="O91" s="11"/>
-      <c r="P91" s="12"/>
+      <c r="P91" s="9"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="12"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="11"/>
-      <c r="M92" s="12"/>
+      <c r="M92" s="9"/>
       <c r="N92" s="10"/>
       <c r="O92" s="11"/>
-      <c r="P92" s="12"/>
+      <c r="P92" s="9"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="12"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
       <c r="L93" s="11"/>
-      <c r="M93" s="12"/>
+      <c r="M93" s="9"/>
       <c r="N93" s="10"/>
       <c r="O93" s="11"/>
-      <c r="P93" s="12"/>
+      <c r="P93" s="9"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="12"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
       <c r="L94" s="11"/>
-      <c r="M94" s="12"/>
+      <c r="M94" s="9"/>
       <c r="N94" s="10"/>
       <c r="O94" s="11"/>
-      <c r="P94" s="12"/>
+      <c r="P94" s="9"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="12"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="12"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
       <c r="L95" s="11"/>
-      <c r="M95" s="12"/>
+      <c r="M95" s="9"/>
       <c r="N95" s="10"/>
       <c r="O95" s="11"/>
-      <c r="P95" s="12"/>
+      <c r="P95" s="9"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R253" s="2"/>
     </row>
-    <row r="254" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R254" s="2"/>
     </row>
-    <row r="255" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R259" s="2"/>
     </row>
-    <row r="260" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R270" s="2"/>
     </row>
-    <row r="271" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R271" s="2"/>
     </row>
-    <row r="272" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R273" s="2"/>
     </row>
-    <row r="274" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R274" s="2"/>
     </row>
-    <row r="275" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R276" s="2"/>
     </row>
-    <row r="277" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R277" s="2"/>
     </row>
-    <row r="278" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R279" s="2"/>
     </row>
-    <row r="280" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R280" s="2"/>
     </row>
-    <row r="281" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R281" s="2"/>
     </row>
-    <row r="282" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R282" s="2"/>
     </row>
-    <row r="283" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R283" s="2"/>
     </row>
-    <row r="284" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R284" s="2"/>
     </row>
-    <row r="285" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R285" s="2"/>
     </row>
-    <row r="286" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R286" s="2"/>
     </row>
-    <row r="287" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R287" s="2"/>
     </row>
-    <row r="288" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R288" s="2"/>
     </row>
-    <row r="289" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R289" s="2"/>
     </row>
-    <row r="290" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R290" s="2"/>
     </row>
-    <row r="291" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R291" s="2"/>
     </row>
-    <row r="292" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R292" s="2"/>
     </row>
-    <row r="293" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R293" s="2"/>
     </row>
-    <row r="294" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R294" s="2"/>
     </row>
-    <row r="295" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R295" s="2"/>
     </row>
-    <row r="296" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R296" s="2"/>
     </row>
-    <row r="297" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R297" s="2"/>
     </row>
-    <row r="298" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R298" s="2"/>
     </row>
-    <row r="299" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R299" s="2"/>
     </row>
-    <row r="300" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R300" s="2"/>
     </row>
-    <row r="301" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R301" s="2"/>
     </row>
-    <row r="302" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R302" s="2"/>
     </row>
-    <row r="303" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R303" s="2"/>
     </row>
-    <row r="304" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R304" s="2"/>
     </row>
-    <row r="305" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R305" s="2"/>
     </row>
-    <row r="306" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R306" s="2"/>
     </row>
-    <row r="307" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R308" s="2"/>
     </row>
-    <row r="309" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R309" s="2"/>
     </row>
-    <row r="310" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R310" s="2"/>
     </row>
-    <row r="311" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R311" s="2"/>
     </row>
-    <row r="312" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R313" s="2"/>
     </row>
-    <row r="314" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R314" s="2"/>
     </row>
-    <row r="315" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R315" s="2"/>
     </row>
-    <row r="316" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R316" s="2"/>
     </row>
-    <row r="317" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R317" s="2"/>
     </row>
-    <row r="318" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R318" s="2"/>
     </row>
-    <row r="319" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R320" s="2"/>
     </row>
-    <row r="321" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R321" s="2"/>
     </row>
-    <row r="322" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R322" s="2"/>
     </row>
-    <row r="323" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R323" s="2"/>
     </row>
-    <row r="324" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R324" s="2"/>
     </row>
-    <row r="325" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R325" s="2"/>
     </row>
-    <row r="326" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R326" s="2"/>
     </row>
-    <row r="327" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R327" s="2"/>
     </row>
-    <row r="328" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R328" s="2"/>
     </row>
-    <row r="329" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R329" s="2"/>
     </row>
-    <row r="330" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R330" s="2"/>
     </row>
-    <row r="331" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R331" s="2"/>
     </row>
-    <row r="332" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R332" s="2"/>
     </row>
-    <row r="333" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R333" s="2"/>
     </row>
-    <row r="334" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R335" s="2"/>
     </row>
-    <row r="336" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R336" s="2"/>
     </row>
-    <row r="337" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R337" s="2"/>
     </row>
-    <row r="338" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R338" s="2"/>
     </row>
-    <row r="339" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R339" s="2"/>
     </row>
-    <row r="340" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R340" s="2"/>
     </row>
-    <row r="341" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R341" s="2"/>
     </row>
-    <row r="342" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R342" s="2"/>
     </row>
-    <row r="343" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R343" s="2"/>
     </row>
-    <row r="344" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R344" s="2"/>
     </row>
-    <row r="345" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R345" s="2"/>
     </row>
-    <row r="346" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R346" s="2"/>
     </row>
-    <row r="347" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R347" s="2"/>
     </row>
-    <row r="348" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R348" s="2"/>
     </row>
-    <row r="349" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R349" s="2"/>
     </row>
-    <row r="350" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R350" s="2"/>
     </row>
-    <row r="351" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R351" s="2"/>
     </row>
-    <row r="352" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R363" s="2"/>
     </row>
-    <row r="364" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R368" s="2"/>
     </row>
-    <row r="369" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R369" s="2"/>
     </row>
-    <row r="370" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R370" s="2"/>
     </row>
-    <row r="371" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R371" s="2"/>
     </row>
-    <row r="372" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R372" s="2"/>
     </row>
-    <row r="373" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R373" s="2"/>
     </row>
-    <row r="374" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R374" s="2"/>
     </row>
-    <row r="375" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R375" s="2"/>
     </row>
-    <row r="376" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R376" s="2"/>
     </row>
-    <row r="377" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R377" s="2"/>
     </row>
-    <row r="378" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R378" s="2"/>
     </row>
-    <row r="379" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R379" s="2"/>
     </row>
-    <row r="380" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R380" s="2"/>
     </row>
-    <row r="381" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R381" s="2"/>
     </row>
-    <row r="382" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R382" s="2"/>
     </row>
-    <row r="383" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R383" s="2"/>
     </row>
-    <row r="384" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R384" s="2"/>
     </row>
-    <row r="385" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R385" s="2"/>
     </row>
-    <row r="386" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R386" s="2"/>
     </row>
-    <row r="387" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R387" s="2"/>
     </row>
-    <row r="388" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R389" s="2"/>
     </row>
-    <row r="390" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R390" s="2"/>
     </row>
-    <row r="391" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R392" s="2"/>
     </row>
-    <row r="393" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R393" s="2"/>
     </row>
-    <row r="394" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R394" s="2"/>
     </row>
-    <row r="395" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R395" s="2"/>
     </row>
-    <row r="396" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R396" s="2"/>
     </row>
-    <row r="397" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R397" s="2"/>
     </row>
-    <row r="398" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R398" s="2"/>
     </row>
-    <row r="399" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R399" s="2"/>
     </row>
-    <row r="400" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R400" s="2"/>
     </row>
-    <row r="401" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R401" s="2"/>
     </row>
-    <row r="402" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R403" s="2"/>
     </row>
-    <row r="404" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R404" s="2"/>
     </row>
-    <row r="405" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R405" s="2"/>
     </row>
-    <row r="406" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R406" s="2"/>
     </row>
-    <row r="407" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R407" s="2"/>
     </row>
-    <row r="408" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R408" s="2"/>
     </row>
-    <row r="409" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R409" s="2"/>
     </row>
-    <row r="410" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R410" s="2"/>
     </row>
-    <row r="411" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R411" s="2"/>
     </row>
-    <row r="412" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R412" s="2"/>
     </row>
-    <row r="413" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R413" s="2"/>
     </row>
-    <row r="414" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R414" s="2"/>
     </row>
-    <row r="415" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R415" s="2"/>
     </row>
-    <row r="416" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R416" s="2"/>
     </row>
-    <row r="417" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R417" s="2"/>
     </row>
-    <row r="418" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R418" s="2"/>
     </row>
-    <row r="419" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R419" s="2"/>
     </row>
-    <row r="420" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R420" s="2"/>
     </row>
-    <row r="421" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R421" s="2"/>
     </row>
-    <row r="422" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R422" s="2"/>
     </row>
-    <row r="423" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R423" s="2"/>
     </row>
-    <row r="424" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R424" s="2"/>
     </row>
-    <row r="425" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R425" s="2"/>
     </row>
-    <row r="426" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R426" s="2"/>
     </row>
-    <row r="427" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R427" s="2"/>
     </row>
-    <row r="428" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R428" s="2"/>
     </row>
-    <row r="429" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R429" s="2"/>
     </row>
-    <row r="430" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R430" s="2"/>
     </row>
-    <row r="431" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R431" s="2"/>
     </row>
-    <row r="432" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R433" s="2"/>
     </row>
-    <row r="434" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R434" s="2"/>
     </row>
-    <row r="435" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R435" s="2"/>
     </row>
-    <row r="436" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R436" s="2"/>
     </row>
-    <row r="437" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R437" s="2"/>
     </row>
-    <row r="438" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R438" s="2"/>
     </row>
-    <row r="439" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R439" s="2"/>
     </row>
-    <row r="440" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R440" s="2"/>
     </row>
-    <row r="441" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R441" s="2"/>
     </row>
-    <row r="442" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R442" s="2"/>
     </row>
-    <row r="443" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R443" s="2"/>
     </row>
-    <row r="444" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R444" s="2"/>
     </row>
-    <row r="445" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R445" s="2"/>
     </row>
-    <row r="446" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R446" s="2"/>
     </row>
-    <row r="447" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R447" s="2"/>
     </row>
-    <row r="448" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R448" s="2"/>
     </row>
-    <row r="449" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R449" s="2"/>
     </row>
-    <row r="450" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R450" s="2"/>
     </row>
-    <row r="451" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R451" s="2"/>
     </row>
-    <row r="452" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R452" s="2"/>
     </row>
-    <row r="453" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R453" s="2"/>
     </row>
-    <row r="454" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R454" s="2"/>
     </row>
-    <row r="455" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R455" s="2"/>
     </row>
-    <row r="456" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R456" s="2"/>
     </row>
-    <row r="457" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R457" s="2"/>
     </row>
-    <row r="458" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R458" s="2"/>
     </row>
-    <row r="459" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R459" s="2"/>
     </row>
-    <row r="460" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R460" s="2"/>
     </row>
-    <row r="461" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R461" s="2"/>
     </row>
-    <row r="462" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R462" s="2"/>
     </row>
-    <row r="463" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R463" s="2"/>
     </row>
-    <row r="464" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R464" s="2"/>
     </row>
-    <row r="465" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R465" s="2"/>
     </row>
-    <row r="466" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R466" s="2"/>
     </row>
-    <row r="467" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R467" s="2"/>
     </row>
-    <row r="468" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R468" s="2"/>
     </row>
-    <row r="469" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R469" s="2"/>
     </row>
-    <row r="470" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R470" s="2"/>
     </row>
-    <row r="471" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R471" s="2"/>
     </row>
-    <row r="472" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R472" s="2"/>
     </row>
-    <row r="473" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R473" s="2"/>
     </row>
-    <row r="474" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R474" s="2"/>
     </row>
-    <row r="475" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R475" s="2"/>
     </row>
-    <row r="476" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R476" s="2"/>
     </row>
-    <row r="477" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R477" s="2"/>
     </row>
-    <row r="478" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R478" s="2"/>
     </row>
-    <row r="479" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R479" s="2"/>
     </row>
-    <row r="480" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R480" s="2"/>
     </row>
-    <row r="481" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R481" s="2"/>
     </row>
-    <row r="482" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R482" s="2"/>
     </row>
-    <row r="483" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R483" s="2"/>
     </row>
-    <row r="484" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R484" s="2"/>
     </row>
-    <row r="485" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R485" s="2"/>
     </row>
-    <row r="486" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R486" s="2"/>
     </row>
-    <row r="487" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R487" s="2"/>
     </row>
-    <row r="488" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R488" s="2"/>
     </row>
-    <row r="489" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R489" s="2"/>
     </row>
-    <row r="490" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R490" s="2"/>
     </row>
-    <row r="491" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R491" s="2"/>
     </row>
-    <row r="492" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R492" s="2"/>
     </row>
-    <row r="493" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R493" s="2"/>
     </row>
-    <row r="494" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R494" s="2"/>
     </row>
-    <row r="495" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R495" s="2"/>
     </row>
-    <row r="496" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R496" s="2"/>
     </row>
-    <row r="497" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R497" s="2"/>
     </row>
-    <row r="498" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R498" s="2"/>
     </row>
-    <row r="499" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R499" s="2"/>
     </row>
-    <row r="500" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R500" s="2"/>
     </row>
-    <row r="501" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R501" s="2"/>
     </row>
-    <row r="502" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R502" s="2"/>
     </row>
-    <row r="503" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R503" s="2"/>
     </row>
-    <row r="504" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R504" s="2"/>
     </row>
-    <row r="505" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R505" s="2"/>
     </row>
-    <row r="506" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R506" s="2"/>
     </row>
-    <row r="507" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R507" s="2"/>
     </row>
-    <row r="508" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R508" s="2"/>
     </row>
-    <row r="509" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R509" s="2"/>
     </row>
-    <row r="510" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R510" s="2"/>
     </row>
-    <row r="511" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R511" s="2"/>
     </row>
-    <row r="512" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R512" s="2"/>
     </row>
-    <row r="513" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R513" s="2"/>
     </row>
-    <row r="514" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R514" s="2"/>
     </row>
-    <row r="515" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R515" s="2"/>
     </row>
-    <row r="516" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R516" s="2"/>
     </row>
-    <row r="517" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R517" s="2"/>
     </row>
-    <row r="518" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R518" s="2"/>
     </row>
-    <row r="519" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R519" s="2"/>
     </row>
-    <row r="520" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R520" s="2"/>
     </row>
-    <row r="521" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R521" s="2"/>
     </row>
-    <row r="522" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R522" s="2"/>
     </row>
-    <row r="523" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R523" s="2"/>
     </row>
-    <row r="524" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R524" s="2"/>
     </row>
-    <row r="525" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R525" s="2"/>
     </row>
-    <row r="526" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R526" s="2"/>
     </row>
-    <row r="527" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R527" s="2"/>
     </row>
-    <row r="528" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R528" s="2"/>
     </row>
-    <row r="529" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R529" s="2"/>
     </row>
-    <row r="530" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R530" s="2"/>
     </row>
-    <row r="531" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R531" s="2"/>
     </row>
-    <row r="532" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R532" s="2"/>
     </row>
-    <row r="533" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R533" s="2"/>
     </row>
-    <row r="534" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R534" s="2"/>
     </row>
-    <row r="535" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R535" s="2"/>
     </row>
-    <row r="536" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R536" s="2"/>
     </row>
-    <row r="537" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R537" s="2"/>
     </row>
-    <row r="538" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R538" s="2"/>
     </row>
-    <row r="539" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R539" s="2"/>
     </row>
-    <row r="540" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R540" s="2"/>
     </row>
-    <row r="541" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R541" s="2"/>
     </row>
-    <row r="542" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R542" s="2"/>
     </row>
-    <row r="543" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R543" s="2"/>
     </row>
-    <row r="544" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R544" s="2"/>
     </row>
-    <row r="545" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R545" s="2"/>
     </row>
-    <row r="546" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R546" s="2"/>
     </row>
-    <row r="547" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R547" s="2"/>
     </row>
-    <row r="548" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R548" s="2"/>
     </row>
-    <row r="549" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R549" s="2"/>
     </row>
-    <row r="550" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R550" s="2"/>
     </row>
-    <row r="551" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R551" s="2"/>
     </row>
-    <row r="552" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R552" s="2"/>
     </row>
-    <row r="553" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R553" s="2"/>
     </row>
-    <row r="554" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R554" s="2"/>
     </row>
-    <row r="555" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R555" s="2"/>
     </row>
-    <row r="556" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R556" s="2"/>
     </row>
-    <row r="557" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R557" s="2"/>
     </row>
-    <row r="558" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R558" s="2"/>
     </row>
-    <row r="559" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R559" s="2"/>
     </row>
-    <row r="560" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R560" s="2"/>
     </row>
-    <row r="561" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R561" s="2"/>
     </row>
-    <row r="562" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R562" s="2"/>
     </row>
-    <row r="563" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R563" s="2"/>
     </row>
-    <row r="564" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R564" s="2"/>
     </row>
-    <row r="565" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R565" s="2"/>
     </row>
-    <row r="566" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R566" s="2"/>
     </row>
-    <row r="567" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R567" s="2"/>
     </row>
-    <row r="568" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R568" s="2"/>
     </row>
-    <row r="569" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R569" s="2"/>
     </row>
-    <row r="570" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R570" s="2"/>
     </row>
-    <row r="571" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R571" s="2"/>
     </row>
-    <row r="572" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R572" s="2"/>
     </row>
-    <row r="573" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R573" s="2"/>
     </row>
-    <row r="574" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R574" s="2"/>
     </row>
-    <row r="575" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R575" s="2"/>
     </row>
-    <row r="576" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R576" s="2"/>
     </row>
-    <row r="577" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R577" s="2"/>
     </row>
-    <row r="578" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R578" s="2"/>
     </row>
-    <row r="579" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R579" s="2"/>
     </row>
-    <row r="580" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R580" s="2"/>
     </row>
-    <row r="581" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R581" s="2"/>
     </row>
-    <row r="582" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R582" s="2"/>
     </row>
-    <row r="583" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R583" s="2"/>
     </row>
-    <row r="584" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R584" s="2"/>
     </row>
-    <row r="585" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R585" s="2"/>
     </row>
-    <row r="586" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R586" s="2"/>
     </row>
-    <row r="587" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R587" s="2"/>
     </row>
-    <row r="588" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R588" s="2"/>
     </row>
-    <row r="589" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R589" s="2"/>
     </row>
-    <row r="590" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R590" s="2"/>
     </row>
-    <row r="591" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R591" s="2"/>
     </row>
-    <row r="592" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R592" s="2"/>
     </row>
-    <row r="593" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R593" s="2"/>
     </row>
-    <row r="594" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R594" s="2"/>
     </row>
-    <row r="595" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R595" s="2"/>
     </row>
-    <row r="596" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R596" s="2"/>
     </row>
-    <row r="597" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R597" s="2"/>
     </row>
-    <row r="598" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R598" s="2"/>
     </row>
-    <row r="599" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R599" s="2"/>
     </row>
-    <row r="600" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R600" s="2"/>
     </row>
-    <row r="601" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R601" s="2"/>
     </row>
-    <row r="602" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R602" s="2"/>
     </row>
-    <row r="603" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R603" s="2"/>
     </row>
-    <row r="604" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R604" s="2"/>
     </row>
-    <row r="605" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R605" s="2"/>
     </row>
-    <row r="606" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R606" s="2"/>
     </row>
-    <row r="607" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R607" s="2"/>
     </row>
-    <row r="608" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R608" s="2"/>
     </row>
-    <row r="609" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R609" s="2"/>
     </row>
-    <row r="610" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R610" s="2"/>
     </row>
-    <row r="611" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R611" s="2"/>
     </row>
-    <row r="612" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R612" s="2"/>
     </row>
-    <row r="613" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R613" s="2"/>
     </row>
-    <row r="614" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R614" s="2"/>
     </row>
-    <row r="615" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R615" s="2"/>
     </row>
-    <row r="616" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R616" s="2"/>
     </row>
-    <row r="617" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R617" s="2"/>
     </row>
-    <row r="618" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R618" s="2"/>
     </row>
-    <row r="619" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R619" s="2"/>
     </row>
-    <row r="620" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R620" s="2"/>
     </row>
-    <row r="621" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R621" s="2"/>
     </row>
-    <row r="622" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R622" s="2"/>
     </row>
-    <row r="623" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R623" s="2"/>
     </row>
-    <row r="624" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R624" s="2"/>
     </row>
-    <row r="625" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R625" s="2"/>
     </row>
-    <row r="626" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R626" s="2"/>
     </row>
-    <row r="627" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R627" s="2"/>
     </row>
-    <row r="628" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R628" s="2"/>
     </row>
-    <row r="629" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R629" s="2"/>
     </row>
-    <row r="630" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R630" s="2"/>
     </row>
-    <row r="631" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R631" s="2"/>
     </row>
-    <row r="632" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R632" s="2"/>
     </row>
-    <row r="633" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R633" s="2"/>
     </row>
-    <row r="634" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R634" s="2"/>
     </row>
-    <row r="635" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R635" s="2"/>
     </row>
-    <row r="636" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R636" s="2"/>
     </row>
-    <row r="637" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R637" s="2"/>
     </row>
-    <row r="638" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R638" s="2"/>
     </row>
-    <row r="639" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R639" s="2"/>
     </row>
-    <row r="640" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R640" s="2"/>
     </row>
-    <row r="641" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R641" s="2"/>
     </row>
-    <row r="642" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R642" s="2"/>
     </row>
-    <row r="643" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R643" s="2"/>
     </row>
-    <row r="644" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R644" s="2"/>
     </row>
-    <row r="645" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R645" s="2"/>
     </row>
-    <row r="646" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R646" s="2"/>
     </row>
-    <row r="647" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R647" s="2"/>
     </row>
-    <row r="648" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R648" s="2"/>
     </row>
-    <row r="649" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R649" s="2"/>
     </row>
-    <row r="650" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R650" s="2"/>
     </row>
-    <row r="651" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R651" s="2"/>
     </row>
-    <row r="652" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R652" s="2"/>
     </row>
-    <row r="653" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R653" s="2"/>
     </row>
-    <row r="654" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R654" s="2"/>
     </row>
-    <row r="655" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R655" s="2"/>
     </row>
-    <row r="656" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R656" s="2"/>
     </row>
-    <row r="657" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R657" s="2"/>
     </row>
-    <row r="658" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R658" s="2"/>
     </row>
-    <row r="659" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R659" s="2"/>
     </row>
-    <row r="660" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R660" s="2"/>
     </row>
-    <row r="661" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R661" s="2"/>
     </row>
-    <row r="662" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R662" s="2"/>
     </row>
-    <row r="663" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R663" s="2"/>
     </row>
-    <row r="664" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R664" s="2"/>
     </row>
-    <row r="665" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R665" s="2"/>
     </row>
-    <row r="666" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R666" s="2"/>
     </row>
-    <row r="667" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R667" s="2"/>
     </row>
-    <row r="668" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R668" s="2"/>
     </row>
-    <row r="669" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R669" s="2"/>
     </row>
-    <row r="670" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R670" s="2"/>
     </row>
-    <row r="671" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R671" s="2"/>
     </row>
-    <row r="672" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R672" s="2"/>
     </row>
-    <row r="673" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R673" s="2"/>
     </row>
-    <row r="674" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R674" s="2"/>
     </row>
-    <row r="675" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R675" s="2"/>
     </row>
-    <row r="676" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R676" s="2"/>
     </row>
-    <row r="677" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R677" s="2"/>
     </row>
-    <row r="678" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R678" s="2"/>
     </row>
-    <row r="679" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R679" s="2"/>
     </row>
-    <row r="680" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R680" s="2"/>
     </row>
-    <row r="681" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R681" s="2"/>
     </row>
-    <row r="682" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R682" s="2"/>
     </row>
-    <row r="683" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R683" s="2"/>
     </row>
-    <row r="684" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R684" s="2"/>
     </row>
-    <row r="685" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R685" s="2"/>
     </row>
-    <row r="686" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R686" s="2"/>
     </row>
-    <row r="687" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R687" s="2"/>
     </row>
-    <row r="688" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R688" s="2"/>
     </row>
-    <row r="689" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R689" s="2"/>
     </row>
-    <row r="690" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R690" s="2"/>
     </row>
-    <row r="691" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R691" s="2"/>
     </row>
-    <row r="692" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R692" s="2"/>
     </row>
-    <row r="693" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R693" s="2"/>
     </row>
-    <row r="694" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R694" s="2"/>
     </row>
-    <row r="695" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R695" s="2"/>
     </row>
-    <row r="696" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R696" s="2"/>
     </row>
-    <row r="697" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R697" s="2"/>
     </row>
-    <row r="698" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R698" s="2"/>
     </row>
-    <row r="699" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R699" s="2"/>
     </row>
-    <row r="700" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R700" s="2"/>
     </row>
-    <row r="701" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R701" s="2"/>
     </row>
-    <row r="702" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R702" s="2"/>
     </row>
-    <row r="703" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R703" s="2"/>
     </row>
-    <row r="704" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R704" s="2"/>
     </row>
-    <row r="705" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R705" s="2"/>
     </row>
-    <row r="706" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R706" s="2"/>
     </row>
-    <row r="707" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R707" s="2"/>
     </row>
-    <row r="708" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R708" s="2"/>
     </row>
-    <row r="709" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R709" s="2"/>
     </row>
-    <row r="710" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R710" s="2"/>
     </row>
-    <row r="711" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R711" s="2"/>
     </row>
-    <row r="712" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R712" s="2"/>
     </row>
-    <row r="713" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R713" s="2"/>
     </row>
-    <row r="714" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R714" s="2"/>
     </row>
-    <row r="715" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R715" s="2"/>
     </row>
-    <row r="716" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R716" s="2"/>
     </row>
-    <row r="717" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R717" s="2"/>
     </row>
-    <row r="718" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R718" s="2"/>
     </row>
-    <row r="719" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R719" s="2"/>
     </row>
-    <row r="720" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R720" s="2"/>
     </row>
-    <row r="721" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R721" s="2"/>
     </row>
-    <row r="722" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R722" s="2"/>
     </row>
-    <row r="723" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R723" s="2"/>
     </row>
-    <row r="724" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R724" s="2"/>
     </row>
-    <row r="725" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R725" s="2"/>
     </row>
-    <row r="726" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R726" s="2"/>
     </row>
-    <row r="727" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R727" s="2"/>
     </row>
-    <row r="728" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R728" s="2"/>
     </row>
-    <row r="729" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R729" s="2"/>
     </row>
-    <row r="730" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R730" s="2"/>
     </row>
-    <row r="731" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R731" s="2"/>
     </row>
-    <row r="732" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R732" s="2"/>
     </row>
-    <row r="733" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R733" s="2"/>
     </row>
-    <row r="734" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R734" s="2"/>
     </row>
-    <row r="735" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R735" s="2"/>
     </row>
-    <row r="736" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R736" s="2"/>
     </row>
-    <row r="737" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R737" s="2"/>
     </row>
-    <row r="738" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R738" s="2"/>
     </row>
-    <row r="739" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R739" s="2"/>
     </row>
-    <row r="740" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R740" s="2"/>
     </row>
-    <row r="741" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R741" s="2"/>
     </row>
-    <row r="742" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R742" s="2"/>
     </row>
-    <row r="743" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R743" s="2"/>
     </row>
-    <row r="744" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R744" s="2"/>
     </row>
-    <row r="745" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R745" s="2"/>
     </row>
-    <row r="746" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R746" s="2"/>
     </row>
-    <row r="747" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R747" s="2"/>
     </row>
-    <row r="748" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R748" s="2"/>
     </row>
-    <row r="749" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R749" s="2"/>
     </row>
-    <row r="750" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R750" s="2"/>
     </row>
-    <row r="751" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R751" s="2"/>
     </row>
-    <row r="752" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R752" s="2"/>
     </row>
-    <row r="753" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R753" s="2"/>
     </row>
-    <row r="754" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R754" s="2"/>
     </row>
-    <row r="755" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R755" s="2"/>
     </row>
-    <row r="756" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R756" s="2"/>
     </row>
-    <row r="757" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R757" s="2"/>
     </row>
-    <row r="758" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R758" s="2"/>
     </row>
-    <row r="759" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R759" s="2"/>
     </row>
-    <row r="760" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R760" s="2"/>
     </row>
-    <row r="761" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R761" s="2"/>
     </row>
-    <row r="762" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R762" s="2"/>
     </row>
-    <row r="763" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R763" s="2"/>
     </row>
-    <row r="764" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R764" s="2"/>
     </row>
-    <row r="765" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R765" s="2"/>
     </row>
-    <row r="766" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R766" s="2"/>
     </row>
-    <row r="767" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R767" s="2"/>
     </row>
-    <row r="768" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R768" s="2"/>
     </row>
-    <row r="769" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R769" s="2"/>
     </row>
-    <row r="770" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R770" s="2"/>
     </row>
-    <row r="771" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R771" s="2"/>
     </row>
-    <row r="772" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R772" s="2"/>
     </row>
-    <row r="773" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R773" s="2"/>
     </row>
-    <row r="774" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R774" s="2"/>
     </row>
-    <row r="775" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R775" s="2"/>
     </row>
-    <row r="776" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R776" s="2"/>
     </row>
-    <row r="777" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R777" s="2"/>
     </row>
-    <row r="778" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R778" s="2"/>
     </row>
-    <row r="779" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R779" s="2"/>
     </row>
-    <row r="780" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R780" s="2"/>
     </row>
-    <row r="781" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R781" s="2"/>
     </row>
-    <row r="782" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R782" s="2"/>
     </row>
-    <row r="783" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R783" s="2"/>
     </row>
-    <row r="784" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R784" s="2"/>
     </row>
-    <row r="785" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R785" s="2"/>
     </row>
-    <row r="786" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R786" s="2"/>
     </row>
-    <row r="787" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R787" s="2"/>
     </row>
-    <row r="788" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R788" s="2"/>
     </row>
-    <row r="789" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R789" s="2"/>
     </row>
-    <row r="790" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R790" s="2"/>
     </row>
-    <row r="791" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R791" s="2"/>
     </row>
-    <row r="792" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R792" s="2"/>
     </row>
-    <row r="793" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R793" s="2"/>
     </row>
-    <row r="794" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R794" s="2"/>
     </row>
-    <row r="795" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R795" s="2"/>
     </row>
-    <row r="796" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R796" s="2"/>
     </row>
-    <row r="797" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R797" s="2"/>
     </row>
-    <row r="798" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R798" s="2"/>
     </row>
-    <row r="799" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R799" s="2"/>
     </row>
-    <row r="800" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R800" s="2"/>
     </row>
-    <row r="801" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R801" s="2"/>
     </row>
-    <row r="802" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R802" s="2"/>
     </row>
-    <row r="803" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R803" s="2"/>
     </row>
-    <row r="804" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R804" s="2"/>
     </row>
-    <row r="805" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R805" s="2"/>
     </row>
-    <row r="806" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R806" s="2"/>
     </row>
-    <row r="807" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R807" s="2"/>
     </row>
-    <row r="808" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R808" s="2"/>
     </row>
-    <row r="809" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R809" s="2"/>
     </row>
-    <row r="810" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R810" s="2"/>
     </row>
-    <row r="811" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R811" s="2"/>
     </row>
-    <row r="812" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R812" s="2"/>
     </row>
-    <row r="813" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R813" s="2"/>
     </row>
-    <row r="814" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R814" s="2"/>
     </row>
-    <row r="815" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R815" s="2"/>
     </row>
-    <row r="816" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R816" s="2"/>
     </row>
-    <row r="817" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R817" s="2"/>
     </row>
-    <row r="818" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R818" s="2"/>
     </row>
-    <row r="819" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R819" s="2"/>
     </row>
-    <row r="820" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R820" s="2"/>
     </row>
-    <row r="821" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R821" s="2"/>
     </row>
-    <row r="822" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R822" s="2"/>
     </row>
-    <row r="823" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R823" s="2"/>
     </row>
-    <row r="824" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R824" s="2"/>
     </row>
-    <row r="825" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R825" s="2"/>
     </row>
-    <row r="826" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R826" s="2"/>
     </row>
-    <row r="827" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R827" s="2"/>
     </row>
-    <row r="828" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R828" s="2"/>
     </row>
-    <row r="829" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R829" s="2"/>
     </row>
-    <row r="830" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R830" s="2"/>
     </row>
-    <row r="831" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R831" s="2"/>
     </row>
-    <row r="832" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R832" s="2"/>
     </row>
-    <row r="833" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R833" s="2"/>
     </row>
-    <row r="834" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R834" s="2"/>
     </row>
-    <row r="835" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R835" s="2"/>
     </row>
-    <row r="836" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R836" s="2"/>
     </row>
-    <row r="837" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R837" s="2"/>
     </row>
-    <row r="838" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R838" s="2"/>
     </row>
-    <row r="839" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R839" s="2"/>
     </row>
-    <row r="840" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R840" s="2"/>
     </row>
-    <row r="841" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R841" s="2"/>
     </row>
-    <row r="842" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R842" s="2"/>
     </row>
-    <row r="843" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R843" s="2"/>
     </row>
-    <row r="844" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R844" s="2"/>
     </row>
-    <row r="845" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R845" s="2"/>
     </row>
-    <row r="846" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R846" s="2"/>
     </row>
-    <row r="847" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R847" s="2"/>
     </row>
-    <row r="848" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R848" s="2"/>
     </row>
-    <row r="849" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R849" s="2"/>
     </row>
-    <row r="850" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R850" s="2"/>
     </row>
-    <row r="851" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R851" s="2"/>
     </row>
-    <row r="852" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R852" s="2"/>
     </row>
-    <row r="853" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R853" s="2"/>
     </row>
-    <row r="854" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R854" s="2"/>
     </row>
-    <row r="855" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R855" s="2"/>
     </row>
-    <row r="856" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R856" s="2"/>
     </row>
-    <row r="857" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R857" s="2"/>
     </row>
-    <row r="858" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R858" s="2"/>
     </row>
-    <row r="859" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R859" s="2"/>
     </row>
-    <row r="860" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R860" s="2"/>
     </row>
-    <row r="861" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R861" s="2"/>
     </row>
-    <row r="862" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R862" s="2"/>
     </row>
-    <row r="863" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R863" s="2"/>
     </row>
-    <row r="864" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R864" s="2"/>
     </row>
-    <row r="865" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R865" s="2"/>
     </row>
-    <row r="866" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R866" s="2"/>
     </row>
-    <row r="867" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R867" s="2"/>
     </row>
-    <row r="868" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R868" s="2"/>
     </row>
-    <row r="869" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R869" s="2"/>
     </row>
-    <row r="870" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R870" s="2"/>
     </row>
-    <row r="871" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R871" s="2"/>
     </row>
-    <row r="872" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R872" s="2"/>
     </row>
-    <row r="873" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R873" s="2"/>
     </row>
-    <row r="874" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R874" s="2"/>
     </row>
-    <row r="875" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R875" s="2"/>
     </row>
-    <row r="876" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R876" s="2"/>
     </row>
-    <row r="877" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R877" s="2"/>
     </row>
-    <row r="878" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R878" s="2"/>
     </row>
-    <row r="879" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R879" s="2"/>
     </row>
-    <row r="880" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R880" s="2"/>
     </row>
-    <row r="881" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R881" s="2"/>
     </row>
-    <row r="882" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R882" s="2"/>
     </row>
-    <row r="883" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R883" s="2"/>
     </row>
-    <row r="884" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R884" s="2"/>
     </row>
-    <row r="885" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R885" s="2"/>
     </row>
-    <row r="886" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R886" s="2"/>
     </row>
-    <row r="887" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R887" s="2"/>
     </row>
-    <row r="888" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R888" s="2"/>
     </row>
-    <row r="889" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R889" s="2"/>
     </row>
-    <row r="890" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R890" s="2"/>
     </row>
-    <row r="891" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R891" s="2"/>
     </row>
-    <row r="892" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R892" s="2"/>
     </row>
-    <row r="893" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R893" s="2"/>
     </row>
-    <row r="894" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R894" s="2"/>
     </row>
-    <row r="895" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R895" s="2"/>
     </row>
-    <row r="896" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R896" s="2"/>
     </row>
-    <row r="897" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R897" s="2"/>
     </row>
-    <row r="898" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R898" s="2"/>
     </row>
-    <row r="899" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R899" s="2"/>
     </row>
-    <row r="900" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R900" s="2"/>
     </row>
-    <row r="901" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R901" s="2"/>
     </row>
-    <row r="902" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R902" s="2"/>
     </row>
-    <row r="903" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R903" s="2"/>
     </row>
-    <row r="904" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R904" s="2"/>
     </row>
-    <row r="905" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R905" s="2"/>
     </row>
-    <row r="906" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R906" s="2"/>
     </row>
-    <row r="907" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R907" s="2"/>
     </row>
-    <row r="908" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R908" s="2"/>
     </row>
-    <row r="909" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R909" s="2"/>
     </row>
-    <row r="910" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R910" s="2"/>
     </row>
-    <row r="911" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R911" s="2"/>
     </row>
-    <row r="912" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R912" s="2"/>
     </row>
-    <row r="913" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R913" s="2"/>
     </row>
-    <row r="914" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R914" s="2"/>
     </row>
-    <row r="915" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R915" s="2"/>
     </row>
-    <row r="916" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R916" s="2"/>
     </row>
-    <row r="917" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R917" s="2"/>
     </row>
-    <row r="918" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R918" s="2"/>
     </row>
-    <row r="919" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R919" s="2"/>
     </row>
-    <row r="920" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R920" s="2"/>
     </row>
-    <row r="921" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R921" s="2"/>
     </row>
-    <row r="922" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R922" s="2"/>
     </row>
-    <row r="923" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R923" s="2"/>
     </row>
-    <row r="924" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R924" s="2"/>
     </row>
-    <row r="925" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R925" s="2"/>
     </row>
-    <row r="926" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R926" s="2"/>
     </row>
-    <row r="927" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R927" s="2"/>
     </row>
-    <row r="928" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R928" s="2"/>
     </row>
-    <row r="929" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R929" s="2"/>
     </row>
-    <row r="930" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R930" s="2"/>
     </row>
-    <row r="931" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R931" s="2"/>
     </row>
-    <row r="932" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R932" s="2"/>
     </row>
-    <row r="933" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R933" s="2"/>
     </row>
-    <row r="934" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R934" s="2"/>
     </row>
-    <row r="935" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R935" s="2"/>
     </row>
-    <row r="936" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R936" s="2"/>
     </row>
-    <row r="937" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R937" s="2"/>
     </row>
-    <row r="938" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R938" s="2"/>
     </row>
-    <row r="939" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R939" s="2"/>
     </row>
-    <row r="940" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R940" s="2"/>
     </row>
-    <row r="941" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R941" s="2"/>
     </row>
-    <row r="942" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R942" s="2"/>
     </row>
-    <row r="943" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R943" s="2"/>
     </row>
-    <row r="944" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R944" s="2"/>
     </row>
-    <row r="945" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R945" s="2"/>
     </row>
-    <row r="946" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R946" s="2"/>
     </row>
-    <row r="947" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R947" s="2"/>
     </row>
-    <row r="948" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R948" s="2"/>
     </row>
-    <row r="949" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R949" s="2"/>
     </row>
-    <row r="950" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R950" s="2"/>
     </row>
-    <row r="951" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R951" s="2"/>
     </row>
-    <row r="952" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R952" s="2"/>
     </row>
-    <row r="953" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R953" s="2"/>
     </row>
-    <row r="954" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R954" s="2"/>
     </row>
-    <row r="955" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R955" s="2"/>
     </row>
-    <row r="956" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R956" s="2"/>
     </row>
-    <row r="957" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R957" s="2"/>
     </row>
-    <row r="958" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R958" s="2"/>
     </row>
-    <row r="959" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R959" s="2"/>
     </row>
-    <row r="960" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R960" s="2"/>
     </row>
-    <row r="961" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R961" s="2"/>
     </row>
-    <row r="962" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R962" s="2"/>
     </row>
-    <row r="963" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R963" s="2"/>
     </row>
-    <row r="964" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R964" s="2"/>
     </row>
-    <row r="965" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R965" s="2"/>
     </row>
-    <row r="966" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R966" s="2"/>
     </row>
-    <row r="967" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R967" s="2"/>
     </row>
-    <row r="968" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R968" s="2"/>
     </row>
-    <row r="969" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R969" s="2"/>
     </row>
-    <row r="970" spans="18:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="18:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="R970" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="475">
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
@@ -6773,387 +7084,76 @@
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/Test/Test-cases.xlsx
+++ b/Test/Test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689070AD-E6E2-48D3-8A40-43E6810B7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F834F67-1E54-494C-909A-5ACDDFE7F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="286">
   <si>
     <t>Test case ID</t>
   </si>
@@ -730,14 +730,6 @@
 2. "Add Product" page loaded</t>
   </si>
   <si>
-    <t>1. Type "Nike_Shoes_42" in Product ID field
-2. Click "Upload" and select image (250KB)
-3. Type "500" in Price field
-4. Type "1.0.0" in Version field
-5. Select "Android" from Platform dropdown
-6. Click "Save"</t>
-  </si>
-  <si>
     <t>The product is added successfully and appears in the products list</t>
   </si>
   <si>
@@ -748,11 +740,6 @@
   </si>
   <si>
     <t>1. Add Product page open</t>
-  </si>
-  <si>
-    <t>1. Enter "Adidas_Shirt_L" in Product ID field
-2. Fill other required fields
-3. Click "Save"</t>
   </si>
   <si>
     <t>The product is saved with correct ID format</t>
@@ -775,20 +762,10 @@
     <t>Validate product price contains only numbers</t>
   </si>
   <si>
-    <t>1. Enter "SevenFifty" in Price field
-2. Fill other required fields
-3. Click "Save"</t>
-  </si>
-  <si>
     <t>TC_Supplier_005</t>
   </si>
   <si>
     <t>Validate product version follows XXX.XXX.XXX format</t>
-  </si>
-  <si>
-    <t>1. Enter "2.1" in Version field
-2. Fill other required fields
-3. Click "Save"</t>
   </si>
   <si>
     <t>TC_Supplier_006</t>
@@ -886,11 +863,6 @@
     <t xml:space="preserve">Error message: "Please enter valid data" </t>
   </si>
   <si>
-    <t>1.Search for the product using its Product ID                  2. Click "Edit" on product
-3. Change product details (e.g., price to "600", product photo, version, platform as needed)
-3. Click "Save"</t>
-  </si>
-  <si>
     <t>1.Search for the product using its Product ID                                                                                                       2. Click "Delete" on product
 3. Confirm deletion</t>
   </si>
@@ -1241,6 +1213,54 @@
   </si>
   <si>
     <t>..\WireFrame\Client_Home_page\Wireframe_Client_002.jpg   ..\WireFrame\Client_Home_page\Wireframe_Client_003.jpg</t>
+  </si>
+  <si>
+    <t>1. Enter  Product ID field
+2. Fill other required fields
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Enter  Price field
+2. Fill other required fields
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Enter Version field
+2. Fill other required fields
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>1.Search for the product using its Product ID                  
+2. Click "Edit" on product
+3. Change product details (e.g., price , product photo, version, platform as needed)
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Type  Product ID field
+2. Click "Upload" and select image (250KB)
+3. Type  Price field
+4. Type   Version field
+5. Select  from Platform dropdown
+6. Click "Save"</t>
+  </si>
+  <si>
+    <t>ID:"Nike_Shoes_42" 
+"Upload" image
+price: "500"
+Version:"1.0.0"
+Platform:"Android"</t>
+  </si>
+  <si>
+    <t>ID:"Adidas_Shirt_L"</t>
+  </si>
+  <si>
+    <t>Price:"SevenFifty"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version:"2.1" </t>
+  </si>
+  <si>
+    <t>Platform:""</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,18 +1346,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1412,13 +1426,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,7 +1564,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1447,63 +1578,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1727,4321 +1876,4335 @@
   </sheetPr>
   <dimension ref="A1:J967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D57" zoomScale="62" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44:I63"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="62" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="64.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="49" style="4" customWidth="1"/>
-    <col min="4" max="4" width="63.109375" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="64.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="64.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="52.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.21875" customWidth="1"/>
+    <col min="9" max="9" width="52.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="46" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="47"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="47"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="47"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="47"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="47"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="47"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="47"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="47"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="47"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="47"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="47"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G18" s="47"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="47"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="47"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="47"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="47"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="47"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="47"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="47"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="47"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="47"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="47"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="47"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="47"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G33" s="47"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="47"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="12" t="s">
+      <c r="B36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="47"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="12" t="s">
+    <row r="41" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="47"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="12" t="s">
+    <row r="42" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="47"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="12" t="s">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:10" s="32" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="32" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="32" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="32" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" s="32" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" s="32" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" s="32" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="32" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="31"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:10" s="32" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="31"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="32" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" s="31"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="32" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="32" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="32" customFormat="1" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="32" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" s="31"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="32" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" s="32" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="32" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="26" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="J47" s="27"/>
-    </row>
-    <row r="48" spans="1:10" s="32" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J48" s="31"/>
-    </row>
-    <row r="49" spans="1:10" s="26" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="27"/>
-    </row>
-    <row r="50" spans="1:10" s="32" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D51" s="23" t="s">
+    <row r="60" spans="1:10" s="32" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G60" s="31"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="32" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" s="29" t="s">
+      <c r="D61" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="1:10" s="26" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="32" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="26" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="32" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="26" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="28" t="s">
+      <c r="F61" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="32" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="32" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="35" t="s">
+      <c r="C62" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" s="31"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="32" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="26" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="32" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="26" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="23" t="s">
+      <c r="C63" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="32" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="35" t="s">
+      <c r="D63" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="E63" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="F63" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="F62" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="26" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G63" s="31"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="28"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="14"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="14"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="15"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="14"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="15"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="14"/>
       <c r="H68" s="8"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="15"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="14"/>
       <c r="H69" s="8"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="14"/>
       <c r="H70" s="8"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="15"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="14"/>
       <c r="H71" s="8"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="15"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="14"/>
       <c r="H72" s="8"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="15"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="8"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="15"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="14"/>
       <c r="H74" s="8"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="15"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="14"/>
       <c r="H75" s="8"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="14"/>
       <c r="H76" s="8"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H77" s="8"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H78" s="8"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H79" s="8"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H80" s="8"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" s="8"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" s="8"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" s="8"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" s="8"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" s="8"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="8"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" s="8"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" s="8"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" s="8"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" s="8"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" s="8"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="8:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" s="8"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="8:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="8:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="8:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="8:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H401" s="2"/>
     </row>
-    <row r="402" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H403" s="2"/>
     </row>
-    <row r="404" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H413" s="2"/>
     </row>
-    <row r="414" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H427" s="2"/>
     </row>
-    <row r="428" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H428" s="2"/>
     </row>
-    <row r="429" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H429" s="2"/>
     </row>
-    <row r="430" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H430" s="2"/>
     </row>
-    <row r="431" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H432" s="2"/>
     </row>
-    <row r="433" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H433" s="2"/>
     </row>
-    <row r="434" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H434" s="2"/>
     </row>
-    <row r="435" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H435" s="2"/>
     </row>
-    <row r="436" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H436" s="2"/>
     </row>
-    <row r="437" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H437" s="2"/>
     </row>
-    <row r="438" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H438" s="2"/>
     </row>
-    <row r="439" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H439" s="2"/>
     </row>
-    <row r="440" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H440" s="2"/>
     </row>
-    <row r="441" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H441" s="2"/>
     </row>
-    <row r="442" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H442" s="2"/>
     </row>
-    <row r="443" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H443" s="2"/>
     </row>
-    <row r="444" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H444" s="2"/>
     </row>
-    <row r="445" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H445" s="2"/>
     </row>
-    <row r="446" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H446" s="2"/>
     </row>
-    <row r="447" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H447" s="2"/>
     </row>
-    <row r="448" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H448" s="2"/>
     </row>
-    <row r="449" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H449" s="2"/>
     </row>
-    <row r="450" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H450" s="2"/>
     </row>
-    <row r="451" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H451" s="2"/>
     </row>
-    <row r="452" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H452" s="2"/>
     </row>
-    <row r="453" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H453" s="2"/>
     </row>
-    <row r="454" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H454" s="2"/>
     </row>
-    <row r="455" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H455" s="2"/>
     </row>
-    <row r="456" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H456" s="2"/>
     </row>
-    <row r="457" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H457" s="2"/>
     </row>
-    <row r="458" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H458" s="2"/>
     </row>
-    <row r="459" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H459" s="2"/>
     </row>
-    <row r="460" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H460" s="2"/>
     </row>
-    <row r="461" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H461" s="2"/>
     </row>
-    <row r="462" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H462" s="2"/>
     </row>
-    <row r="463" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H463" s="2"/>
     </row>
-    <row r="464" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H464" s="2"/>
     </row>
-    <row r="465" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H465" s="2"/>
     </row>
-    <row r="466" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H466" s="2"/>
     </row>
-    <row r="467" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H467" s="2"/>
     </row>
-    <row r="468" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H468" s="2"/>
     </row>
-    <row r="469" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H469" s="2"/>
     </row>
-    <row r="470" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H470" s="2"/>
     </row>
-    <row r="471" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H471" s="2"/>
     </row>
-    <row r="472" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H472" s="2"/>
     </row>
-    <row r="473" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H473" s="2"/>
     </row>
-    <row r="474" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H474" s="2"/>
     </row>
-    <row r="475" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H475" s="2"/>
     </row>
-    <row r="476" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H476" s="2"/>
     </row>
-    <row r="477" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H478" s="2"/>
     </row>
-    <row r="479" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H479" s="2"/>
     </row>
-    <row r="480" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H480" s="2"/>
     </row>
-    <row r="481" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H481" s="2"/>
     </row>
-    <row r="482" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H482" s="2"/>
     </row>
-    <row r="483" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H483" s="2"/>
     </row>
-    <row r="484" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H484" s="2"/>
     </row>
-    <row r="485" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H485" s="2"/>
     </row>
-    <row r="486" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H486" s="2"/>
     </row>
-    <row r="487" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H487" s="2"/>
     </row>
-    <row r="488" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H488" s="2"/>
     </row>
-    <row r="489" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H489" s="2"/>
     </row>
-    <row r="490" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H490" s="2"/>
     </row>
-    <row r="491" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H491" s="2"/>
     </row>
-    <row r="492" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H492" s="2"/>
     </row>
-    <row r="493" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H493" s="2"/>
     </row>
-    <row r="494" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H494" s="2"/>
     </row>
-    <row r="495" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H495" s="2"/>
     </row>
-    <row r="496" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H496" s="2"/>
     </row>
-    <row r="497" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H497" s="2"/>
     </row>
-    <row r="498" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H498" s="2"/>
     </row>
-    <row r="499" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H499" s="2"/>
     </row>
-    <row r="500" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H500" s="2"/>
     </row>
-    <row r="501" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H502" s="2"/>
     </row>
-    <row r="503" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H503" s="2"/>
     </row>
-    <row r="504" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H504" s="2"/>
     </row>
-    <row r="505" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H506" s="2"/>
     </row>
-    <row r="507" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H507" s="2"/>
     </row>
-    <row r="508" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H508" s="2"/>
     </row>
-    <row r="509" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H509" s="2"/>
     </row>
-    <row r="510" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H510" s="2"/>
     </row>
-    <row r="511" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H511" s="2"/>
     </row>
-    <row r="512" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H513" s="2"/>
     </row>
-    <row r="514" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H514" s="2"/>
     </row>
-    <row r="515" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H515" s="2"/>
     </row>
-    <row r="516" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H516" s="2"/>
     </row>
-    <row r="517" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H517" s="2"/>
     </row>
-    <row r="518" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H518" s="2"/>
     </row>
-    <row r="519" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H519" s="2"/>
     </row>
-    <row r="520" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H520" s="2"/>
     </row>
-    <row r="521" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H521" s="2"/>
     </row>
-    <row r="522" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H522" s="2"/>
     </row>
-    <row r="523" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H523" s="2"/>
     </row>
-    <row r="524" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H524" s="2"/>
     </row>
-    <row r="525" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H525" s="2"/>
     </row>
-    <row r="526" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H526" s="2"/>
     </row>
-    <row r="527" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H527" s="2"/>
     </row>
-    <row r="528" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H528" s="2"/>
     </row>
-    <row r="529" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H529" s="2"/>
     </row>
-    <row r="530" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H530" s="2"/>
     </row>
-    <row r="531" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H531" s="2"/>
     </row>
-    <row r="532" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H532" s="2"/>
     </row>
-    <row r="533" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H533" s="2"/>
     </row>
-    <row r="534" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H534" s="2"/>
     </row>
-    <row r="535" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H535" s="2"/>
     </row>
-    <row r="536" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H536" s="2"/>
     </row>
-    <row r="537" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H537" s="2"/>
     </row>
-    <row r="538" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H538" s="2"/>
     </row>
-    <row r="539" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H539" s="2"/>
     </row>
-    <row r="540" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H540" s="2"/>
     </row>
-    <row r="541" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H541" s="2"/>
     </row>
-    <row r="542" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H542" s="2"/>
     </row>
-    <row r="543" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H543" s="2"/>
     </row>
-    <row r="544" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H544" s="2"/>
     </row>
-    <row r="545" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H545" s="2"/>
     </row>
-    <row r="546" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H546" s="2"/>
     </row>
-    <row r="547" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H547" s="2"/>
     </row>
-    <row r="548" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H548" s="2"/>
     </row>
-    <row r="549" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H549" s="2"/>
     </row>
-    <row r="550" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H550" s="2"/>
     </row>
-    <row r="551" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H551" s="2"/>
     </row>
-    <row r="552" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H552" s="2"/>
     </row>
-    <row r="553" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H553" s="2"/>
     </row>
-    <row r="554" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H554" s="2"/>
     </row>
-    <row r="555" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H555" s="2"/>
     </row>
-    <row r="556" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H556" s="2"/>
     </row>
-    <row r="557" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H557" s="2"/>
     </row>
-    <row r="558" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H558" s="2"/>
     </row>
-    <row r="559" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H559" s="2"/>
     </row>
-    <row r="560" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H560" s="2"/>
     </row>
-    <row r="561" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H561" s="2"/>
     </row>
-    <row r="562" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H562" s="2"/>
     </row>
-    <row r="563" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H563" s="2"/>
     </row>
-    <row r="564" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H564" s="2"/>
     </row>
-    <row r="565" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H565" s="2"/>
     </row>
-    <row r="566" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H566" s="2"/>
     </row>
-    <row r="567" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H567" s="2"/>
     </row>
-    <row r="568" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H568" s="2"/>
     </row>
-    <row r="569" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H569" s="2"/>
     </row>
-    <row r="570" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H570" s="2"/>
     </row>
-    <row r="571" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H571" s="2"/>
     </row>
-    <row r="572" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H572" s="2"/>
     </row>
-    <row r="573" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H573" s="2"/>
     </row>
-    <row r="574" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H574" s="2"/>
     </row>
-    <row r="575" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H575" s="2"/>
     </row>
-    <row r="576" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H576" s="2"/>
     </row>
-    <row r="577" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H577" s="2"/>
     </row>
-    <row r="578" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H578" s="2"/>
     </row>
-    <row r="579" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H579" s="2"/>
     </row>
-    <row r="580" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H580" s="2"/>
     </row>
-    <row r="581" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H581" s="2"/>
     </row>
-    <row r="582" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H582" s="2"/>
     </row>
-    <row r="583" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H583" s="2"/>
     </row>
-    <row r="584" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H584" s="2"/>
     </row>
-    <row r="585" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H585" s="2"/>
     </row>
-    <row r="586" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H586" s="2"/>
     </row>
-    <row r="587" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H587" s="2"/>
     </row>
-    <row r="588" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H588" s="2"/>
     </row>
-    <row r="589" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H589" s="2"/>
     </row>
-    <row r="590" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H590" s="2"/>
     </row>
-    <row r="591" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H591" s="2"/>
     </row>
-    <row r="592" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H592" s="2"/>
     </row>
-    <row r="593" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H593" s="2"/>
     </row>
-    <row r="594" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H594" s="2"/>
     </row>
-    <row r="595" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H595" s="2"/>
     </row>
-    <row r="596" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H596" s="2"/>
     </row>
-    <row r="597" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H597" s="2"/>
     </row>
-    <row r="598" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H598" s="2"/>
     </row>
-    <row r="599" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H599" s="2"/>
     </row>
-    <row r="600" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H600" s="2"/>
     </row>
-    <row r="601" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H601" s="2"/>
     </row>
-    <row r="602" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H602" s="2"/>
     </row>
-    <row r="603" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H603" s="2"/>
     </row>
-    <row r="604" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H604" s="2"/>
     </row>
-    <row r="605" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H605" s="2"/>
     </row>
-    <row r="606" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H606" s="2"/>
     </row>
-    <row r="607" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H607" s="2"/>
     </row>
-    <row r="608" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H608" s="2"/>
     </row>
-    <row r="609" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H609" s="2"/>
     </row>
-    <row r="610" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H610" s="2"/>
     </row>
-    <row r="611" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H611" s="2"/>
     </row>
-    <row r="612" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H612" s="2"/>
     </row>
-    <row r="613" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H613" s="2"/>
     </row>
-    <row r="614" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H614" s="2"/>
     </row>
-    <row r="615" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H615" s="2"/>
     </row>
-    <row r="616" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H616" s="2"/>
     </row>
-    <row r="617" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H617" s="2"/>
     </row>
-    <row r="618" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H618" s="2"/>
     </row>
-    <row r="619" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H619" s="2"/>
     </row>
-    <row r="620" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H620" s="2"/>
     </row>
-    <row r="621" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H621" s="2"/>
     </row>
-    <row r="622" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H622" s="2"/>
     </row>
-    <row r="623" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H623" s="2"/>
     </row>
-    <row r="624" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H624" s="2"/>
     </row>
-    <row r="625" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H625" s="2"/>
     </row>
-    <row r="626" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H626" s="2"/>
     </row>
-    <row r="627" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H627" s="2"/>
     </row>
-    <row r="628" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H628" s="2"/>
     </row>
-    <row r="629" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H629" s="2"/>
     </row>
-    <row r="630" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H630" s="2"/>
     </row>
-    <row r="631" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H631" s="2"/>
     </row>
-    <row r="632" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H632" s="2"/>
     </row>
-    <row r="633" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H633" s="2"/>
     </row>
-    <row r="634" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H634" s="2"/>
     </row>
-    <row r="635" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H635" s="2"/>
     </row>
-    <row r="636" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H636" s="2"/>
     </row>
-    <row r="637" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H637" s="2"/>
     </row>
-    <row r="638" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H638" s="2"/>
     </row>
-    <row r="639" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H639" s="2"/>
     </row>
-    <row r="640" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H640" s="2"/>
     </row>
-    <row r="641" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H641" s="2"/>
     </row>
-    <row r="642" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H642" s="2"/>
     </row>
-    <row r="643" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H643" s="2"/>
     </row>
-    <row r="644" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H644" s="2"/>
     </row>
-    <row r="645" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H645" s="2"/>
     </row>
-    <row r="646" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H646" s="2"/>
     </row>
-    <row r="647" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H647" s="2"/>
     </row>
-    <row r="648" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H648" s="2"/>
     </row>
-    <row r="649" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H649" s="2"/>
     </row>
-    <row r="650" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H650" s="2"/>
     </row>
-    <row r="651" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H651" s="2"/>
     </row>
-    <row r="652" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H652" s="2"/>
     </row>
-    <row r="653" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H653" s="2"/>
     </row>
-    <row r="654" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H654" s="2"/>
     </row>
-    <row r="655" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H655" s="2"/>
     </row>
-    <row r="656" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H656" s="2"/>
     </row>
-    <row r="657" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H657" s="2"/>
     </row>
-    <row r="658" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H658" s="2"/>
     </row>
-    <row r="659" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H659" s="2"/>
     </row>
-    <row r="660" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H660" s="2"/>
     </row>
-    <row r="661" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H661" s="2"/>
     </row>
-    <row r="662" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H662" s="2"/>
     </row>
-    <row r="663" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H663" s="2"/>
     </row>
-    <row r="664" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H664" s="2"/>
     </row>
-    <row r="665" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H665" s="2"/>
     </row>
-    <row r="666" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H666" s="2"/>
     </row>
-    <row r="667" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H667" s="2"/>
     </row>
-    <row r="668" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H668" s="2"/>
     </row>
-    <row r="669" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H669" s="2"/>
     </row>
-    <row r="670" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="8:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H670" s="2"/>
     </row>
-    <row r="671" spans="8:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6